--- a/data/Dataset_2/reduced_dataframe_FA2.xlsx
+++ b/data/Dataset_2/reduced_dataframe_FA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G338"/>
+  <dimension ref="A1:G330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,13 +470,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>8034.591272126984</v>
+        <v>8912.236727719577</v>
       </c>
       <c r="C2" t="n">
-        <v>18810.89253551798</v>
+        <v>17486.75390175273</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6372565</v>
+        <v>0.03291599999999996</v>
       </c>
       <c r="E2" t="n">
         <v>0.4455689787864685</v>
@@ -495,13 +495,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>4224.968671507937</v>
+        <v>4786.574521733282</v>
       </c>
       <c r="C3" t="n">
-        <v>9294.343669238962</v>
+        <v>8691.426586540792</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.780443</v>
+        <v>0.5895352</v>
       </c>
       <c r="E3" t="n">
         <v>0.4866604804992676</v>
@@ -520,13 +520,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>3521.706554746032</v>
+        <v>3586.205553360708</v>
       </c>
       <c r="C4" t="n">
-        <v>7625.148060750045</v>
+        <v>7209.557240437545</v>
       </c>
       <c r="D4" t="n">
-        <v>1.166666</v>
+        <v>-0.9326319999999999</v>
       </c>
       <c r="E4" t="n">
         <v>0.6496953368186951</v>
@@ -545,13 +545,13 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>4313.475494801588</v>
+        <v>4811.590501940826</v>
       </c>
       <c r="C5" t="n">
-        <v>9675.642442975097</v>
+        <v>9036.150426968999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1473238</v>
+        <v>-0.1298318</v>
       </c>
       <c r="E5" t="n">
         <v>0.4340538680553436</v>
@@ -570,13 +570,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>3541.046429055556</v>
+        <v>3604.450813663092</v>
       </c>
       <c r="C6" t="n">
-        <v>11289.81953684893</v>
+        <v>10467.25537907454</v>
       </c>
       <c r="D6" t="n">
-        <v>0.470713</v>
+        <v>-0.3966268</v>
       </c>
       <c r="E6" t="n">
         <v>0.411316841840744</v>
@@ -595,13 +595,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>3642.179079166667</v>
+        <v>3693.415736310155</v>
       </c>
       <c r="C7" t="n">
-        <v>11720.94844967352</v>
+        <v>10866.10339441437</v>
       </c>
       <c r="D7" t="n">
-        <v>0.341862</v>
+        <v>-0.3446670000000001</v>
       </c>
       <c r="E7" t="n">
         <v>0.2180296778678894</v>
@@ -620,13 +620,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>3680.574165360317</v>
+        <v>3780.389800921696</v>
       </c>
       <c r="C8" t="n">
-        <v>11522.40303581123</v>
+        <v>10686.92315776245</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3394389</v>
+        <v>-0.07355299999999999</v>
       </c>
       <c r="E8" t="n">
         <v>0.3577386438846588</v>
@@ -645,13 +645,13 @@
         <v>23</v>
       </c>
       <c r="B9" t="n">
-        <v>3715.969432150793</v>
+        <v>3786.026680618072</v>
       </c>
       <c r="C9" t="n">
-        <v>11517.8932018439</v>
+        <v>10691.02240344451</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2955914</v>
+        <v>0.157636</v>
       </c>
       <c r="E9" t="n">
         <v>0.2040617913007736</v>
@@ -670,13 +670,13 @@
         <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>3747.075334166667</v>
+        <v>3825.812538040169</v>
       </c>
       <c r="C10" t="n">
-        <v>11784.93253077119</v>
+        <v>10930.09587871326</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.630835</v>
+        <v>0.873655</v>
       </c>
       <c r="E10" t="n">
         <v>0.2519037127494812</v>
@@ -695,13 +695,13 @@
         <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>3748.126685150793</v>
+        <v>3827.650375656703</v>
       </c>
       <c r="C11" t="n">
-        <v>11692.33987235883</v>
+        <v>10848.25511626127</v>
       </c>
       <c r="D11" t="n">
-        <v>0.141088</v>
+        <v>0.02676400000000001</v>
       </c>
       <c r="E11" t="n">
         <v>0.2411715388298035</v>
@@ -720,13 +720,13 @@
         <v>26</v>
       </c>
       <c r="B12" t="n">
-        <v>3744.930994103175</v>
+        <v>3842.084722537144</v>
       </c>
       <c r="C12" t="n">
-        <v>11798.90264929146</v>
+        <v>10941.90637452012</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.458557</v>
+        <v>0.579855</v>
       </c>
       <c r="E12" t="n">
         <v>0.3559316992759705</v>
@@ -745,13 +745,13 @@
         <v>28</v>
       </c>
       <c r="B13" t="n">
-        <v>3775.315227166667</v>
+        <v>3852.179533468966</v>
       </c>
       <c r="C13" t="n">
-        <v>12025.66831355409</v>
+        <v>11147.14303725836</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.02494685</v>
+        <v>0.06209495</v>
       </c>
       <c r="E13" t="n">
         <v>0.3428803384304047</v>
@@ -770,13 +770,13 @@
         <v>30</v>
       </c>
       <c r="B14" t="n">
-        <v>3765.925886634921</v>
+        <v>3850.934328570049</v>
       </c>
       <c r="C14" t="n">
-        <v>12002.63586979698</v>
+        <v>11124.13580310491</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2374657</v>
+        <v>-0.07375799999999999</v>
       </c>
       <c r="E14" t="n">
         <v>0.2459251433610916</v>
@@ -795,13 +795,13 @@
         <v>31</v>
       </c>
       <c r="B15" t="n">
-        <v>3781.991194087302</v>
+        <v>3887.613478338898</v>
       </c>
       <c r="C15" t="n">
-        <v>11931.75509258267</v>
+        <v>11059.70448282658</v>
       </c>
       <c r="D15" t="n">
-        <v>0.476765</v>
+        <v>-0.470606</v>
       </c>
       <c r="E15" t="n">
         <v>0.2714539766311646</v>
@@ -820,13 +820,13 @@
         <v>32</v>
       </c>
       <c r="B16" t="n">
-        <v>4172.266428833334</v>
+        <v>4621.064873831177</v>
       </c>
       <c r="C16" t="n">
-        <v>9537.399188565196</v>
+        <v>8921.566385592634</v>
       </c>
       <c r="D16" t="n">
-        <v>0.34471618</v>
+        <v>-0.02568939999999999</v>
       </c>
       <c r="E16" t="n">
         <v>0.4103755354881287</v>
@@ -845,13 +845,13 @@
         <v>33</v>
       </c>
       <c r="B17" t="n">
-        <v>3811.833125550793</v>
+        <v>3890.017616153645</v>
       </c>
       <c r="C17" t="n">
-        <v>12106.34026631964</v>
+        <v>11221.35712988672</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.653154</v>
+        <v>0.9919790000000001</v>
       </c>
       <c r="E17" t="n">
         <v>0.2984591722488403</v>
@@ -870,13 +870,13 @@
         <v>34</v>
       </c>
       <c r="B18" t="n">
-        <v>3837.081420507936</v>
+        <v>3982.465758965733</v>
       </c>
       <c r="C18" t="n">
-        <v>11707.30363226838</v>
+        <v>10858.92063874704</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2458872</v>
+        <v>0.1674006</v>
       </c>
       <c r="E18" t="n">
         <v>0.2929583489894867</v>
@@ -895,13 +895,13 @@
         <v>35</v>
       </c>
       <c r="B19" t="n">
-        <v>3833.991787250794</v>
+        <v>3933.746325901519</v>
       </c>
       <c r="C19" t="n">
-        <v>11783.41276647716</v>
+        <v>10935.02977295582</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.722581</v>
+        <v>0.459443</v>
       </c>
       <c r="E19" t="n">
         <v>0.2419058233499527</v>
@@ -920,13 +920,13 @@
         <v>36</v>
       </c>
       <c r="B20" t="n">
-        <v>3905.46353463492</v>
+        <v>3995.319951704219</v>
       </c>
       <c r="C20" t="n">
-        <v>11917.65678769866</v>
+        <v>11056.33706589988</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.5441659999999999</v>
+        <v>0.504266</v>
       </c>
       <c r="E20" t="n">
         <v>0.2620352208614349</v>
@@ -945,13 +945,13 @@
         <v>37</v>
       </c>
       <c r="B21" t="n">
-        <v>3850.865441319048</v>
+        <v>3945.365248615145</v>
       </c>
       <c r="C21" t="n">
-        <v>11858.75854563831</v>
+        <v>11001.75386766575</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.779923</v>
+        <v>1.00679</v>
       </c>
       <c r="E21" t="n">
         <v>0.2289713472127914</v>
@@ -970,13 +970,13 @@
         <v>39</v>
       </c>
       <c r="B22" t="n">
-        <v>8365.86938926127</v>
+        <v>8505.345148966275</v>
       </c>
       <c r="C22" t="n">
-        <v>27196.53048998298</v>
+        <v>25196.11062527262</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03629899999999997</v>
+        <v>-0.3869669999999999</v>
       </c>
       <c r="E22" t="n">
         <v>0.6758666634559631</v>
@@ -995,13 +995,13 @@
         <v>40</v>
       </c>
       <c r="B23" t="n">
-        <v>3836.718570539682</v>
+        <v>3964.160050662202</v>
       </c>
       <c r="C23" t="n">
-        <v>11702.51329567175</v>
+        <v>10858.42853957419</v>
       </c>
       <c r="D23" t="n">
-        <v>1.206032</v>
+        <v>-1.409166</v>
       </c>
       <c r="E23" t="n">
         <v>0.2705444395542145</v>
@@ -1020,13 +1020,13 @@
         <v>44</v>
       </c>
       <c r="B24" t="n">
-        <v>3851.820044150794</v>
+        <v>3945.044022718999</v>
       </c>
       <c r="C24" t="n">
-        <v>11844.00879679462</v>
+        <v>10989.16794313609</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.02683759999999999</v>
+        <v>0.258779</v>
       </c>
       <c r="E24" t="n">
         <v>0.2253943234682083</v>
@@ -1045,13 +1045,13 @@
         <v>45</v>
       </c>
       <c r="B25" t="n">
-        <v>3836.394787619048</v>
+        <v>3939.258496372025</v>
       </c>
       <c r="C25" t="n">
-        <v>11625.21657749754</v>
+        <v>10794.04334007376</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.5123555000000001</v>
+        <v>0.216231</v>
       </c>
       <c r="E25" t="n">
         <v>0.2520084977149963</v>
@@ -1070,13 +1070,13 @@
         <v>46</v>
       </c>
       <c r="B26" t="n">
-        <v>3801.440979634921</v>
+        <v>3910.461816860433</v>
       </c>
       <c r="C26" t="n">
-        <v>11737.05437177192</v>
+        <v>10890.81419456155</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1462109</v>
+        <v>0.2697415</v>
       </c>
       <c r="E26" t="n">
         <v>0.3615876138210297</v>
@@ -1095,13 +1095,13 @@
         <v>47</v>
       </c>
       <c r="B27" t="n">
-        <v>3836.893264507937</v>
+        <v>3963.163035668147</v>
       </c>
       <c r="C27" t="n">
-        <v>11499.97382387902</v>
+        <v>10677.41386770524</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.8657790000000001</v>
+        <v>0.8828710000000001</v>
       </c>
       <c r="E27" t="n">
         <v>0.3528262376785278</v>
@@ -1120,13 +1120,13 @@
         <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>3811.541823150793</v>
+        <v>3896.800245825016</v>
       </c>
       <c r="C28" t="n">
-        <v>11957.43442016131</v>
+        <v>11089.66524142656</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.826371</v>
+        <v>0.482227</v>
       </c>
       <c r="E28" t="n">
         <v>0.2835486829280853</v>
@@ -1145,13 +1145,13 @@
         <v>50</v>
       </c>
       <c r="B29" t="n">
-        <v>3871.102868492063</v>
+        <v>4015.936484858115</v>
       </c>
       <c r="C29" t="n">
-        <v>11576.21490440417</v>
+        <v>10745.03746537978</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3224338</v>
+        <v>0.095638</v>
       </c>
       <c r="E29" t="n">
         <v>0.3418993353843689</v>
@@ -1170,13 +1170,13 @@
         <v>52</v>
       </c>
       <c r="B30" t="n">
-        <v>3835.157504419047</v>
+        <v>3938.145002041722</v>
       </c>
       <c r="C30" t="n">
-        <v>11599.87029464223</v>
+        <v>10768.69705721845</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.644882</v>
+        <v>0.61032</v>
       </c>
       <c r="E30" t="n">
         <v>0.267776221036911</v>
@@ -1195,13 +1195,13 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>3853.499548455556</v>
+        <v>3975.316064760196</v>
       </c>
       <c r="C31" t="n">
-        <v>11649.20402023197</v>
+        <v>10813.72414218319</v>
       </c>
       <c r="D31" t="n">
-        <v>0.13831779</v>
+        <v>-0.009956700000000004</v>
       </c>
       <c r="E31" t="n">
         <v>0.3027820587158203</v>
@@ -1220,13 +1220,13 @@
         <v>56</v>
       </c>
       <c r="B32" t="n">
-        <v>3784.275581134921</v>
+        <v>3872.940987346274</v>
       </c>
       <c r="C32" t="n">
-        <v>11776.51913624745</v>
+        <v>10928.12353792428</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.540412</v>
+        <v>0.8685700000000001</v>
       </c>
       <c r="E32" t="n">
         <v>0.2617036700248718</v>
@@ -1245,13 +1245,13 @@
         <v>57</v>
       </c>
       <c r="B33" t="n">
-        <v>5144.077172896826</v>
+        <v>5778.50717967437</v>
       </c>
       <c r="C33" t="n">
-        <v>9876.168658879067</v>
+        <v>9251.751985860774</v>
       </c>
       <c r="D33" t="n">
-        <v>0.298817</v>
+        <v>-0.2709188</v>
       </c>
       <c r="E33" t="n">
         <v>0.3808356523513794</v>
@@ -1270,13 +1270,13 @@
         <v>58</v>
       </c>
       <c r="B34" t="n">
-        <v>3975.420141650794</v>
+        <v>4087.547579066793</v>
       </c>
       <c r="C34" t="n">
-        <v>11650.29662220981</v>
+        <v>10814.82094576164</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.6642809999999999</v>
+        <v>0.5736519999999999</v>
       </c>
       <c r="E34" t="n">
         <v>0.2450205087661743</v>
@@ -1295,13 +1295,13 @@
         <v>62</v>
       </c>
       <c r="B35" t="n">
-        <v>3780.836123750794</v>
+        <v>3866.829966437242</v>
       </c>
       <c r="C35" t="n">
-        <v>11864.19180563313</v>
+        <v>11005.03170654776</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2891810000000001</v>
+        <v>-0.2520979999999999</v>
       </c>
       <c r="E35" t="n">
         <v>0.3084115087985992</v>
@@ -1320,13 +1320,13 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>3798.777054619048</v>
+        <v>3971.789888928564</v>
       </c>
       <c r="C36" t="n">
-        <v>11364.67486099579</v>
+        <v>10552.89201038604</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.483405</v>
+        <v>0.28705</v>
       </c>
       <c r="E36" t="n">
         <v>0.2630535960197449</v>
@@ -1345,13 +1345,13 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>3819.665830007937</v>
+        <v>3999.392828336709</v>
       </c>
       <c r="C37" t="n">
-        <v>11378.70217213494</v>
+        <v>10558.31024187579</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3633091</v>
+        <v>0.102025</v>
       </c>
       <c r="E37" t="n">
         <v>0.43234983086586</v>
@@ -1370,13 +1370,13 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>3885.025098750794</v>
+        <v>3973.206374855798</v>
       </c>
       <c r="C38" t="n">
-        <v>12174.13875144762</v>
+        <v>11280.55493856652</v>
       </c>
       <c r="D38" t="n">
-        <v>1.075668</v>
+        <v>-0.972083</v>
       </c>
       <c r="E38" t="n">
         <v>0.2850871384143829</v>
@@ -1395,13 +1395,13 @@
         <v>69</v>
       </c>
       <c r="B39" t="n">
-        <v>3780.867027166667</v>
+        <v>3856.887492911362</v>
       </c>
       <c r="C39" t="n">
-        <v>11783.57468238587</v>
+        <v>10930.86404023648</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6066049999999999</v>
+        <v>-0.44925048</v>
       </c>
       <c r="E39" t="n">
         <v>0.3371286392211914</v>
@@ -1420,13 +1420,13 @@
         <v>70</v>
       </c>
       <c r="B40" t="n">
-        <v>3801.187276650794</v>
+        <v>3893.838625939678</v>
       </c>
       <c r="C40" t="n">
-        <v>11683.27752116862</v>
+        <v>10843.49940569606</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2448602</v>
+        <v>-0.18190752</v>
       </c>
       <c r="E40" t="n">
         <v>0.2582423388957977</v>
@@ -1445,13 +1445,13 @@
         <v>71</v>
       </c>
       <c r="B41" t="n">
-        <v>3762.406760666667</v>
+        <v>3845.180089214136</v>
       </c>
       <c r="C41" t="n">
-        <v>12003.74183374224</v>
+        <v>11127.37197855931</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0742852</v>
+        <v>-0.1621885</v>
       </c>
       <c r="E41" t="n">
         <v>0.3662774860858917</v>
@@ -1470,13 +1470,13 @@
         <v>72</v>
       </c>
       <c r="B42" t="n">
-        <v>3783.730578150794</v>
+        <v>3867.399919314671</v>
       </c>
       <c r="C42" t="n">
-        <v>11856.21142300979</v>
+        <v>10997.05132392443</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.246494</v>
+        <v>-0.6010150000000001</v>
       </c>
       <c r="E42" t="n">
         <v>0.3465336263179779</v>
@@ -1495,13 +1495,13 @@
         <v>76</v>
       </c>
       <c r="B43" t="n">
-        <v>3764.712664666667</v>
+        <v>3842.856315584592</v>
       </c>
       <c r="C43" t="n">
-        <v>11799.63405339906</v>
+        <v>10944.78899813991</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2664418</v>
+        <v>0.1545904</v>
       </c>
       <c r="E43" t="n">
         <v>0.2540142238140106</v>
@@ -1520,13 +1520,13 @@
         <v>77</v>
       </c>
       <c r="B44" t="n">
-        <v>3765.179371587301</v>
+        <v>3871.402447246133</v>
       </c>
       <c r="C44" t="n">
-        <v>11831.08320669937</v>
+        <v>10965.49465868108</v>
       </c>
       <c r="D44" t="n">
-        <v>0.727032</v>
+        <v>-0.5531848</v>
       </c>
       <c r="E44" t="n">
         <v>0.3672841787338257</v>
@@ -1545,13 +1545,13 @@
         <v>78</v>
       </c>
       <c r="B45" t="n">
-        <v>3854.310251071429</v>
+        <v>3955.392249439317</v>
       </c>
       <c r="C45" t="n">
-        <v>11457.60566100341</v>
+        <v>10639.34814385402</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2833</v>
+        <v>0.315715</v>
       </c>
       <c r="E45" t="n">
         <v>0.2683643102645874</v>
@@ -1570,13 +1570,13 @@
         <v>79</v>
       </c>
       <c r="B46" t="n">
-        <v>3816.41359102381</v>
+        <v>3912.719076015474</v>
       </c>
       <c r="C46" t="n">
-        <v>11697.45400354422</v>
+        <v>10853.3860538491</v>
       </c>
       <c r="D46" t="n">
-        <v>0.073578</v>
+        <v>-0.32358</v>
       </c>
       <c r="E46" t="n">
         <v>0.2652334570884705</v>
@@ -1595,13 +1595,13 @@
         <v>81</v>
       </c>
       <c r="B47" t="n">
-        <v>3870.347080365079</v>
+        <v>3972.222599906127</v>
       </c>
       <c r="C47" t="n">
-        <v>11935.82323585504</v>
+        <v>11065.92804721174</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1654820000000001</v>
+        <v>0.253869</v>
       </c>
       <c r="E47" t="n">
         <v>0.2661702334880829</v>
@@ -1620,13 +1620,13 @@
         <v>82</v>
       </c>
       <c r="B48" t="n">
-        <v>3854.324016912698</v>
+        <v>3941.975312578119</v>
       </c>
       <c r="C48" t="n">
-        <v>11669.37842559286</v>
+        <v>10829.59610851969</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3113193</v>
+        <v>0.09864700000000001</v>
       </c>
       <c r="E48" t="n">
         <v>0.2279416918754578</v>
@@ -1645,13 +1645,13 @@
         <v>87</v>
       </c>
       <c r="B49" t="n">
-        <v>3869.400616555556</v>
+        <v>3972.136480904435</v>
       </c>
       <c r="C49" t="n">
-        <v>11991.5924442742</v>
+        <v>11115.23939549371</v>
       </c>
       <c r="D49" t="n">
-        <v>0.540651</v>
+        <v>-0.3814044</v>
       </c>
       <c r="E49" t="n">
         <v>0.3464130163192749</v>
@@ -1670,13 +1670,13 @@
         <v>88</v>
       </c>
       <c r="B50" t="n">
-        <v>3886.731932007937</v>
+        <v>4000.418942696498</v>
       </c>
       <c r="C50" t="n">
-        <v>11771.06759789669</v>
+        <v>10920.54598966498</v>
       </c>
       <c r="D50" t="n">
-        <v>0.719848</v>
+        <v>-0.5612010000000001</v>
       </c>
       <c r="E50" t="n">
         <v>0.2848648130893707</v>
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B51" t="n">
-        <v>3831.997755619048</v>
+        <v>3942.883703017165</v>
       </c>
       <c r="C51" t="n">
-        <v>11882.00593066152</v>
+        <v>11016.41318104261</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.8052520000000001</v>
+        <v>0.3299030000000001</v>
       </c>
       <c r="E51" t="n">
         <v>0.3439965844154358</v>
@@ -1720,13 +1720,13 @@
         <v>90</v>
       </c>
       <c r="B52" t="n">
-        <v>3869.172523171429</v>
+        <v>3987.854060034184</v>
       </c>
       <c r="C52" t="n">
-        <v>12172.07202071778</v>
+        <v>11274.21097841595</v>
       </c>
       <c r="D52" t="n">
-        <v>0.376698</v>
+        <v>-0.522292</v>
       </c>
       <c r="E52" t="n">
         <v>0.3653849959373474</v>
@@ -1745,13 +1745,13 @@
         <v>92</v>
       </c>
       <c r="B53" t="n">
-        <v>3868.202947755555</v>
+        <v>3988.750346911082</v>
       </c>
       <c r="C53" t="n">
-        <v>11923.32057309232</v>
+        <v>11053.42118284842</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.2885641</v>
+        <v>-0.004835999999999993</v>
       </c>
       <c r="E53" t="n">
         <v>0.3609646558761597</v>
@@ -1770,13 +1770,13 @@
         <v>93</v>
       </c>
       <c r="B54" t="n">
-        <v>3852.532666055556</v>
+        <v>3972.325435690113</v>
       </c>
       <c r="C54" t="n">
-        <v>11634.02780872166</v>
+        <v>10794.25809645032</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.343851</v>
+        <v>-0.2995420000000001</v>
       </c>
       <c r="E54" t="n">
         <v>0.3714932203292847</v>
@@ -1795,13 +1795,13 @@
         <v>95</v>
       </c>
       <c r="B55" t="n">
-        <v>4500.334640396825</v>
+        <v>4936.472253500665</v>
       </c>
       <c r="C55" t="n">
-        <v>10409.7329329438</v>
+        <v>9718.578035840143</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1812281</v>
+        <v>-0.004326000000000002</v>
       </c>
       <c r="E55" t="n">
         <v>0.3863250315189362</v>
@@ -1820,13 +1820,13 @@
         <v>96</v>
       </c>
       <c r="B56" t="n">
-        <v>3883.669593239682</v>
+        <v>4021.773485596604</v>
       </c>
       <c r="C56" t="n">
-        <v>11839.40274261987</v>
+        <v>10978.12083522658</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.819078</v>
+        <v>0.473526</v>
       </c>
       <c r="E56" t="n">
         <v>0.3241146206855774</v>
@@ -1845,13 +1845,13 @@
         <v>97</v>
       </c>
       <c r="B57" t="n">
-        <v>3886.053933087302</v>
+        <v>4010.436470639443</v>
       </c>
       <c r="C57" t="n">
-        <v>11679.4609922436</v>
+        <v>10839.67867517043</v>
       </c>
       <c r="D57" t="n">
-        <v>0.651325</v>
+        <v>-0.5135358000000001</v>
       </c>
       <c r="E57" t="n">
         <v>0.3618713319301605</v>
@@ -1870,13 +1870,13 @@
         <v>98</v>
       </c>
       <c r="B58" t="n">
-        <v>3904.900690571428</v>
+        <v>4036.154852988961</v>
       </c>
       <c r="C58" t="n">
-        <v>11647.24396038303</v>
+        <v>10811.76828393486</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3138127</v>
+        <v>-0.1989396</v>
       </c>
       <c r="E58" t="n">
         <v>0.3444554805755615</v>
@@ -1895,13 +1895,13 @@
         <v>100</v>
       </c>
       <c r="B59" t="n">
-        <v>3903.685664171428</v>
+        <v>4027.613731774383</v>
       </c>
       <c r="C59" t="n">
-        <v>11713.12545355832</v>
+        <v>10866.89788114978</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.5173752</v>
+        <v>0.261233</v>
       </c>
       <c r="E59" t="n">
         <v>0.3196444511413574</v>
@@ -1920,13 +1920,13 @@
         <v>102</v>
       </c>
       <c r="B60" t="n">
-        <v>3904.004270571429</v>
+        <v>4040.01967725046</v>
       </c>
       <c r="C60" t="n">
-        <v>11858.14120260571</v>
+        <v>10996.86349681303</v>
       </c>
       <c r="D60" t="n">
-        <v>0.157215</v>
+        <v>0.224087</v>
       </c>
       <c r="E60" t="n">
         <v>0.3192424774169922</v>
@@ -1945,13 +1945,13 @@
         <v>103</v>
       </c>
       <c r="B61" t="n">
-        <v>3921.148921071429</v>
+        <v>4050.827962526163</v>
       </c>
       <c r="C61" t="n">
-        <v>11754.79857430526</v>
+        <v>10906.4113791833</v>
       </c>
       <c r="D61" t="n">
-        <v>0.549426</v>
+        <v>-0.262425</v>
       </c>
       <c r="E61" t="n">
         <v>0.3505704402923584</v>
@@ -1970,13 +1970,13 @@
         <v>106</v>
       </c>
       <c r="B62" t="n">
-        <v>3886.515585087302</v>
+        <v>4011.29384679361</v>
       </c>
       <c r="C62" t="n">
-        <v>11573.33895133252</v>
+        <v>10744.32113502154</v>
       </c>
       <c r="D62" t="n">
-        <v>0.67778552</v>
+        <v>-0.05543159999999997</v>
       </c>
       <c r="E62" t="n">
         <v>0.3298690915107727</v>
@@ -1995,13 +1995,13 @@
         <v>107</v>
       </c>
       <c r="B63" t="n">
-        <v>3867.407118587302</v>
+        <v>3988.295281172281</v>
       </c>
       <c r="C63" t="n">
-        <v>11856.52348993668</v>
+        <v>10993.07775822936</v>
       </c>
       <c r="D63" t="n">
-        <v>0.181965</v>
+        <v>-0.1707904</v>
       </c>
       <c r="E63" t="n">
         <v>0.4078971743583679</v>
@@ -2020,13 +2020,13 @@
         <v>108</v>
       </c>
       <c r="B64" t="n">
-        <v>3902.078881987302</v>
+        <v>4027.477735835036</v>
       </c>
       <c r="C64" t="n">
-        <v>11867.52484131667</v>
+        <v>11006.23873232276</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.1554508</v>
+        <v>0.2262165</v>
       </c>
       <c r="E64" t="n">
         <v>0.3345603346824646</v>
@@ -2045,13 +2045,13 @@
         <v>109</v>
       </c>
       <c r="B65" t="n">
-        <v>3904.477300971429</v>
+        <v>4034.611015468736</v>
       </c>
       <c r="C65" t="n">
-        <v>11865.95444625166</v>
+        <v>11006.81535516934</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.299229</v>
+        <v>0.340125</v>
       </c>
       <c r="E65" t="n">
         <v>0.3361167907714844</v>
@@ -2070,13 +2070,13 @@
         <v>111</v>
       </c>
       <c r="B66" t="n">
-        <v>3921.344934887301</v>
+        <v>4052.946278623278</v>
       </c>
       <c r="C66" t="n">
-        <v>11725.04711928533</v>
+        <v>10880.96236318777</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.1795624</v>
+        <v>-0.175461</v>
       </c>
       <c r="E66" t="n">
         <v>0.3619206845760345</v>
@@ -2095,13 +2095,13 @@
         <v>112</v>
       </c>
       <c r="B67" t="n">
-        <v>3920.804566671428</v>
+        <v>4061.70205668005</v>
       </c>
       <c r="C67" t="n">
-        <v>11643.45694908866</v>
+        <v>10807.97707103987</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08405000000000001</v>
+        <v>0.417245</v>
       </c>
       <c r="E67" t="n">
         <v>0.3660061955451965</v>
@@ -2120,13 +2120,13 @@
         <v>113</v>
       </c>
       <c r="B68" t="n">
-        <v>4416.993021547619</v>
+        <v>4922.210929341607</v>
       </c>
       <c r="C68" t="n">
-        <v>9690.664435558732</v>
+        <v>9061.911710711171</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0957789</v>
+        <v>0.02845600000000001</v>
       </c>
       <c r="E68" t="n">
         <v>0.4930038452148438</v>
@@ -2145,13 +2145,13 @@
         <v>114</v>
       </c>
       <c r="B69" t="n">
-        <v>4329.804763968254</v>
+        <v>4696.367807467565</v>
       </c>
       <c r="C69" t="n">
-        <v>10377.47110910941</v>
+        <v>9684.202806899048</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.363765</v>
+        <v>0.462775</v>
       </c>
       <c r="E69" t="n">
         <v>0.3066600859165192</v>
@@ -2170,13 +2170,13 @@
         <v>115</v>
       </c>
       <c r="B70" t="n">
-        <v>3920.267030087302</v>
+        <v>4047.529685242756</v>
       </c>
       <c r="C70" t="n">
-        <v>12069.64392426467</v>
+        <v>11186.84562014882</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.02185</v>
+        <v>-0.125634</v>
       </c>
       <c r="E70" t="n">
         <v>0.3166759610176086</v>
@@ -2195,13 +2195,13 @@
         <v>116</v>
       </c>
       <c r="B71" t="n">
-        <v>3920.376924487301</v>
+        <v>4054.684287294885</v>
       </c>
       <c r="C71" t="n">
-        <v>12070.48042349749</v>
+        <v>11187.67371618041</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.3859435</v>
+        <v>0.190708</v>
       </c>
       <c r="E71" t="n">
         <v>0.3761717081069946</v>
@@ -2220,13 +2220,13 @@
         <v>119</v>
       </c>
       <c r="B72" t="n">
-        <v>4453.118513214285</v>
+        <v>4851.225997693152</v>
       </c>
       <c r="C72" t="n">
-        <v>10075.27027844736</v>
+        <v>9414.245059316265</v>
       </c>
       <c r="D72" t="n">
-        <v>0.285475</v>
+        <v>-0.361339</v>
       </c>
       <c r="E72" t="n">
         <v>0.3909133672714233</v>
@@ -2245,13 +2245,13 @@
         <v>121</v>
       </c>
       <c r="B73" t="n">
-        <v>4259.578007301588</v>
+        <v>4717.261133520176</v>
       </c>
       <c r="C73" t="n">
-        <v>9564.997375316725</v>
+        <v>8957.773651993553</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.0225751</v>
+        <v>0.0408183</v>
       </c>
       <c r="E73" t="n">
         <v>0.3823809027671814</v>
@@ -2270,13 +2270,13 @@
         <v>122</v>
       </c>
       <c r="B74" t="n">
-        <v>3888.370919055555</v>
+        <v>4020.195892722775</v>
       </c>
       <c r="C74" t="n">
-        <v>11672.38623789933</v>
+        <v>10830.45270131397</v>
       </c>
       <c r="D74" t="n">
-        <v>0.399314</v>
+        <v>-0.5896520000000001</v>
       </c>
       <c r="E74" t="n">
         <v>0.3574503064155579</v>
@@ -2295,13 +2295,13 @@
         <v>123</v>
       </c>
       <c r="B75" t="n">
-        <v>3919.040514087301</v>
+        <v>4048.794366588098</v>
       </c>
       <c r="C75" t="n">
-        <v>12227.43476964248</v>
+        <v>11329.56532413943</v>
       </c>
       <c r="D75" t="n">
-        <v>1.319577</v>
+        <v>-1.198194</v>
       </c>
       <c r="E75" t="n">
         <v>0.3574751615524292</v>
@@ -2320,13 +2320,13 @@
         <v>125</v>
       </c>
       <c r="B76" t="n">
-        <v>3920.443902087301</v>
+        <v>4050.46028421315</v>
       </c>
       <c r="C76" t="n">
-        <v>11706.15382814799</v>
+        <v>10866.3631078736</v>
       </c>
       <c r="D76" t="n">
-        <v>1.62328</v>
+        <v>-1.268632</v>
       </c>
       <c r="E76" t="n">
         <v>0.3723783493041992</v>
@@ -2345,13 +2345,13 @@
         <v>126</v>
       </c>
       <c r="B77" t="n">
-        <v>3900.609528603174</v>
+        <v>4023.134425867211</v>
       </c>
       <c r="C77" t="n">
-        <v>12004.114762373</v>
+        <v>11127.7575119919</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.547287</v>
+        <v>0.647303</v>
       </c>
       <c r="E77" t="n">
         <v>0.3463893234729767</v>
@@ -2370,13 +2370,13 @@
         <v>127</v>
       </c>
       <c r="B78" t="n">
-        <v>3903.156958571429</v>
+        <v>4034.058003464852</v>
       </c>
       <c r="C78" t="n">
-        <v>11703.23841906594</v>
+        <v>10861.31328568179</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1502638</v>
+        <v>0.139216</v>
       </c>
       <c r="E78" t="n">
         <v>0.3581941723823547</v>
@@ -2395,13 +2395,13 @@
         <v>129</v>
       </c>
       <c r="B79" t="n">
-        <v>4123.068587936507</v>
+        <v>4475.135412041405</v>
       </c>
       <c r="C79" t="n">
-        <v>9383.326055000982</v>
+        <v>8786.862630839398</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1118344</v>
+        <v>-0.0625776</v>
       </c>
       <c r="E79" t="n">
         <v>0.2964995205402374</v>
@@ -2420,13 +2420,13 @@
         <v>132</v>
       </c>
       <c r="B80" t="n">
-        <v>3937.047518555555</v>
+        <v>4062.86396124325</v>
       </c>
       <c r="C80" t="n">
-        <v>12149.8905059139</v>
+        <v>11260.62593845963</v>
       </c>
       <c r="D80" t="n">
-        <v>0.06620213000000001</v>
+        <v>0.005269400000000001</v>
       </c>
       <c r="E80" t="n">
         <v>0.3248679637908936</v>
@@ -2445,13 +2445,13 @@
         <v>134</v>
       </c>
       <c r="B81" t="n">
-        <v>3919.715749655556</v>
+        <v>4052.608952641203</v>
       </c>
       <c r="C81" t="n">
-        <v>11966.51433655218</v>
+        <v>11094.46372679609</v>
       </c>
       <c r="D81" t="n">
-        <v>0.303903</v>
+        <v>-0.462176</v>
       </c>
       <c r="E81" t="n">
         <v>0.3710368573665619</v>
@@ -2470,13 +2470,13 @@
         <v>138</v>
       </c>
       <c r="B82" t="n">
-        <v>3904.356102571429</v>
+        <v>4035.586014635436</v>
       </c>
       <c r="C82" t="n">
-        <v>11702.52607601668</v>
+        <v>10860.5883378307</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.341504</v>
+        <v>0.2689708</v>
       </c>
       <c r="E82" t="n">
         <v>0.3768153190612793</v>
@@ -2495,13 +2495,13 @@
         <v>140</v>
       </c>
       <c r="B83" t="n">
-        <v>3871.339367539682</v>
+        <v>3989.781716762485</v>
       </c>
       <c r="C83" t="n">
-        <v>11675.23079395206</v>
+        <v>10835.4526784795</v>
       </c>
       <c r="D83" t="n">
-        <v>1.113563</v>
+        <v>-0.8353780000000001</v>
       </c>
       <c r="E83" t="n">
         <v>0.3444229364395142</v>
@@ -2520,13 +2520,13 @@
         <v>142</v>
       </c>
       <c r="B84" t="n">
-        <v>4139.17481545238</v>
+        <v>4507.807484523514</v>
       </c>
       <c r="C84" t="n">
-        <v>9364.843126797368</v>
+        <v>8766.232684724198</v>
       </c>
       <c r="D84" t="n">
-        <v>0.484971</v>
+        <v>-0.475745</v>
       </c>
       <c r="E84" t="n">
         <v>0.3310630619525909</v>
@@ -2545,13 +2545,13 @@
         <v>144</v>
       </c>
       <c r="B85" t="n">
-        <v>3851.509101103175</v>
+        <v>3980.338087694122</v>
       </c>
       <c r="C85" t="n">
-        <v>11622.91513599078</v>
+        <v>10783.14542371944</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.52305</v>
+        <v>0.3791252</v>
       </c>
       <c r="E85" t="n">
         <v>0.3465378880500793</v>
@@ -2570,13 +2570,13 @@
         <v>147</v>
       </c>
       <c r="B86" t="n">
-        <v>3849.811160087301</v>
+        <v>3972.434999356679</v>
       </c>
       <c r="C86" t="n">
-        <v>11710.49398279295</v>
+        <v>10864.25800718319</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.1765301</v>
+        <v>0.4249545</v>
       </c>
       <c r="E86" t="n">
         <v>0.3731749653816223</v>
@@ -2595,13 +2595,13 @@
         <v>148</v>
       </c>
       <c r="B87" t="n">
-        <v>3838.549464571429</v>
+        <v>4072.717796278964</v>
       </c>
       <c r="C87" t="n">
-        <v>10256.16632118059</v>
+        <v>9560.662767445832</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.02185279999999998</v>
+        <v>0.257906</v>
       </c>
       <c r="E87" t="n">
         <v>0.3199853897094727</v>
@@ -2620,13 +2620,13 @@
         <v>150</v>
       </c>
       <c r="B88" t="n">
-        <v>3871.559723603174</v>
+        <v>4022.920607995159</v>
       </c>
       <c r="C88" t="n">
-        <v>11251.04453882838</v>
+        <v>10454.33282960582</v>
       </c>
       <c r="D88" t="n">
-        <v>0.482386</v>
+        <v>-0.440144</v>
       </c>
       <c r="E88" t="n">
         <v>0.2959308922290802</v>
@@ -2645,13 +2645,13 @@
         <v>155</v>
       </c>
       <c r="B89" t="n">
-        <v>3781.896725325397</v>
+        <v>3858.284254786392</v>
       </c>
       <c r="C89" t="n">
-        <v>8048.230016389849</v>
+        <v>7615.412633577349</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.7109719999999999</v>
+        <v>0.897729</v>
       </c>
       <c r="E89" t="n">
         <v>0.3756849765777588</v>
@@ -2670,13 +2670,13 @@
         <v>158</v>
       </c>
       <c r="B90" t="n">
-        <v>3744.018660325397</v>
+        <v>3813.90737671779</v>
       </c>
       <c r="C90" t="n">
-        <v>12113.87349586825</v>
+        <v>11226.73073672191</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.420055</v>
+        <v>1.393668</v>
       </c>
       <c r="E90" t="n">
         <v>0.324804961681366</v>
@@ -2695,13 +2695,13 @@
         <v>171</v>
       </c>
       <c r="B91" t="n">
-        <v>3761.888401225396</v>
+        <v>3839.067100783001</v>
       </c>
       <c r="C91" t="n">
-        <v>12106.93793974896</v>
+        <v>11221.9379969136</v>
       </c>
       <c r="D91" t="n">
-        <v>0.343822</v>
+        <v>-0.606958</v>
       </c>
       <c r="E91" t="n">
         <v>0.4582082331180573</v>
@@ -2720,13 +2720,13 @@
         <v>185</v>
       </c>
       <c r="B92" t="n">
-        <v>4292.250110460318</v>
+        <v>4729.968104352512</v>
       </c>
       <c r="C92" t="n">
-        <v>10279.30952582014</v>
+        <v>9579.503533060997</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2285571</v>
+        <v>0.102377</v>
       </c>
       <c r="E92" t="n">
         <v>0.5131728053092957</v>
@@ -2745,13 +2745,13 @@
         <v>188</v>
       </c>
       <c r="B93" t="n">
-        <v>3783.505889261905</v>
+        <v>3885.219506655262</v>
       </c>
       <c r="C93" t="n">
-        <v>12095.51286859256</v>
+        <v>11208.38271424805</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1420263</v>
+        <v>-0.6829385000000001</v>
       </c>
       <c r="E93" t="n">
         <v>0.3681440055370331</v>
@@ -2770,13 +2770,13 @@
         <v>192</v>
       </c>
       <c r="B94" t="n">
-        <v>3780.920881198413</v>
+        <v>3897.387693353711</v>
       </c>
       <c r="C94" t="n">
-        <v>11654.1387386793</v>
+        <v>10816.50764111833</v>
       </c>
       <c r="D94" t="n">
-        <v>1.441069</v>
+        <v>-0.630756</v>
       </c>
       <c r="E94" t="n">
         <v>0.3775992691516876</v>
@@ -2795,13 +2795,13 @@
         <v>193</v>
       </c>
       <c r="B95" t="n">
-        <v>4483.666964880953</v>
+        <v>4880.259742229477</v>
       </c>
       <c r="C95" t="n">
-        <v>10857.10656919411</v>
+        <v>10129.30531157216</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.2181162</v>
+        <v>0.1777462</v>
       </c>
       <c r="E95" t="n">
         <v>0.4056164920330048</v>
@@ -2817,122 +2817,122 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B96" t="n">
-        <v>8112.40126797619</v>
+        <v>5214.029026329629</v>
       </c>
       <c r="C96" t="n">
-        <v>19339.19193664264</v>
+        <v>6433.131253406922</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.7519027</v>
+        <v>-0.07813899999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6706891655921936</v>
+        <v>0.3889858424663544</v>
       </c>
       <c r="F96" t="n">
         <v>4069.775390625</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>ramphocelus dimidiatus 2</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B97" t="n">
-        <v>4472.437419841271</v>
+        <v>3574.461534059606</v>
       </c>
       <c r="C97" t="n">
-        <v>6766.868591440458</v>
+        <v>10151.23799060659</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2160183</v>
+        <v>-0.550197</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3889858424663544</v>
+        <v>0.3980333805084229</v>
       </c>
       <c r="F97" t="n">
-        <v>4069.775390625</v>
+        <v>559.86328125</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B98" t="n">
-        <v>3488.465841555556</v>
+        <v>5420.267407244353</v>
       </c>
       <c r="C98" t="n">
-        <v>10945.78587551512</v>
+        <v>6537.076575250827</v>
       </c>
       <c r="D98" t="n">
-        <v>0.628679</v>
+        <v>-0.346654</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3980333805084229</v>
+        <v>0.4524046778678894</v>
       </c>
       <c r="F98" t="n">
-        <v>559.86328125</v>
+        <v>4220.5078125</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B99" t="n">
-        <v>4594.161123373015</v>
+        <v>3805.79738146093</v>
       </c>
       <c r="C99" t="n">
-        <v>6898.7797669429</v>
+        <v>10641.99314382047</v>
       </c>
       <c r="D99" t="n">
-        <v>0.347676</v>
+        <v>-0.444635</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4524046778678894</v>
+        <v>0.3177550733089447</v>
       </c>
       <c r="F99" t="n">
-        <v>4220.5078125</v>
+        <v>602.9296875</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B100" t="n">
-        <v>3696.841209650794</v>
+        <v>3956.91220460541</v>
       </c>
       <c r="C100" t="n">
-        <v>11473.15377644242</v>
+        <v>10934.56055909774</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.4348580000000001</v>
+        <v>-0.81998876</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3177550733089447</v>
+        <v>0.3189653754234314</v>
       </c>
       <c r="F100" t="n">
-        <v>602.9296875</v>
+        <v>689.0625</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -2942,97 +2942,97 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B101" t="n">
-        <v>3850.012735198413</v>
+        <v>7605.241935091824</v>
       </c>
       <c r="C101" t="n">
-        <v>11787.25439484469</v>
+        <v>6512.547860987273</v>
       </c>
       <c r="D101" t="n">
-        <v>1.120085</v>
+        <v>0.824584</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3189653754234314</v>
+        <v>0.2848235964775085</v>
       </c>
       <c r="F101" t="n">
-        <v>689.0625</v>
+        <v>6890.625</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B102" t="n">
-        <v>2887.019092912698</v>
+        <v>3967.099847334892</v>
       </c>
       <c r="C102" t="n">
-        <v>8449.366395317949</v>
+        <v>11066.78857708377</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.783935</v>
+        <v>-0.6653290000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5351879000663757</v>
+        <v>0.2379759103059769</v>
       </c>
       <c r="F102" t="n">
-        <v>732.12890625</v>
+        <v>839.794921875</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Pitangus sulphuratus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B103" t="n">
-        <v>6721.476186428571</v>
+        <v>3981.715724547233</v>
       </c>
       <c r="C103" t="n">
-        <v>6844.129777908005</v>
+        <v>10795.05989171984</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.937379</v>
+        <v>-0.453731</v>
       </c>
       <c r="E103" t="n">
-        <v>0.2848235964775085</v>
+        <v>0.2591888308525085</v>
       </c>
       <c r="F103" t="n">
-        <v>6890.625</v>
+        <v>796.728515625</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B104" t="n">
-        <v>3851.213340214285</v>
+        <v>4004.36963383331</v>
       </c>
       <c r="C104" t="n">
-        <v>11936.66275772402</v>
+        <v>10855.98726559755</v>
       </c>
       <c r="D104" t="n">
-        <v>0.301473</v>
+        <v>0.4260536</v>
       </c>
       <c r="E104" t="n">
-        <v>0.2379759103059769</v>
+        <v>0.289605975151062</v>
       </c>
       <c r="F104" t="n">
-        <v>839.794921875</v>
+        <v>796.728515625</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3045,44 +3045,44 @@
         <v>235</v>
       </c>
       <c r="B105" t="n">
-        <v>3865.525890714286</v>
+        <v>5328.788703353364</v>
       </c>
       <c r="C105" t="n">
-        <v>11630.5271649668</v>
+        <v>6182.332395268662</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1577506</v>
+        <v>0.009218800000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2591888308525085</v>
+        <v>0.3921566307544708</v>
       </c>
       <c r="F105" t="n">
-        <v>796.728515625</v>
+        <v>4198.974609375</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B106" t="n">
-        <v>3884.108028566667</v>
+        <v>4029.49151921329</v>
       </c>
       <c r="C106" t="n">
-        <v>11697.9123989817</v>
+        <v>10774.87697216108</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.5424099999999999</v>
+        <v>-0.742829</v>
       </c>
       <c r="E106" t="n">
-        <v>0.289605975151062</v>
+        <v>0.2818488776683807</v>
       </c>
       <c r="F106" t="n">
-        <v>796.728515625</v>
+        <v>839.794921875</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3092,72 +3092,72 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B107" t="n">
-        <v>4574.855811349206</v>
+        <v>4288.362954814476</v>
       </c>
       <c r="C107" t="n">
-        <v>6501.011196716832</v>
+        <v>9473.479897184485</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.03279876</v>
+        <v>-0.145613</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3921566307544708</v>
+        <v>0.2680481672286987</v>
       </c>
       <c r="F107" t="n">
-        <v>4198.974609375</v>
+        <v>1636.5234375</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B108" t="n">
-        <v>8819.330475714287</v>
+        <v>4026.524434219954</v>
       </c>
       <c r="C108" t="n">
-        <v>17740.05582244871</v>
+        <v>11059.73460219207</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.153221</v>
+        <v>0.053713</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5706930160522461</v>
+        <v>0.2711438238620758</v>
       </c>
       <c r="F108" t="n">
-        <v>5167.96875</v>
+        <v>861.328125</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>ramphocelus dimidiatus 2</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B109" t="n">
-        <v>3904.720604666667</v>
+        <v>4047.747609566084</v>
       </c>
       <c r="C109" t="n">
-        <v>11606.04180638364</v>
+        <v>10712.47379392303</v>
       </c>
       <c r="D109" t="n">
-        <v>0.385863</v>
+        <v>-0.445079</v>
       </c>
       <c r="E109" t="n">
-        <v>0.2818488776683807</v>
+        <v>0.2458178699016571</v>
       </c>
       <c r="F109" t="n">
-        <v>839.794921875</v>
+        <v>861.328125</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3167,47 +3167,47 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B110" t="n">
-        <v>3994.801172087301</v>
+        <v>11624.53849503874</v>
       </c>
       <c r="C110" t="n">
-        <v>10160.37857287046</v>
+        <v>13555.74850232476</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3651445</v>
+        <v>-0.6327199999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2680481672286987</v>
+        <v>0.3928955793380737</v>
       </c>
       <c r="F110" t="n">
-        <v>1636.5234375</v>
+        <v>8225.68359375</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B111" t="n">
-        <v>3901.49242568254</v>
+        <v>3996.963685916956</v>
       </c>
       <c r="C111" t="n">
-        <v>11927.46596652134</v>
+        <v>10741.26778044657</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5929206</v>
+        <v>-0.7997529999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2711438238620758</v>
+        <v>0.3080992698669434</v>
       </c>
       <c r="F111" t="n">
-        <v>861.328125</v>
+        <v>775.1953125</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3217,72 +3217,72 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B112" t="n">
-        <v>3922.335385198413</v>
+        <v>5246.265324449898</v>
       </c>
       <c r="C112" t="n">
-        <v>11535.03375009681</v>
+        <v>6736.384746209425</v>
       </c>
       <c r="D112" t="n">
-        <v>0.792363</v>
+        <v>-0.13743768</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2458178699016571</v>
+        <v>0.3900727033615112</v>
       </c>
       <c r="F112" t="n">
-        <v>861.328125</v>
+        <v>4112.841796875</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B113" t="n">
-        <v>9816.015668849206</v>
+        <v>4013.298459962502</v>
       </c>
       <c r="C113" t="n">
-        <v>14436.38298212659</v>
+        <v>10706.13028805769</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.401775</v>
+        <v>0.437813</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3928955793380737</v>
+        <v>0.2952807247638702</v>
       </c>
       <c r="F113" t="n">
-        <v>8225.68359375</v>
+        <v>839.794921875</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B114" t="n">
-        <v>3867.56436388254</v>
+        <v>3979.666495647766</v>
       </c>
       <c r="C114" t="n">
-        <v>11572.43681626974</v>
+        <v>10728.04909658357</v>
       </c>
       <c r="D114" t="n">
-        <v>0.96762</v>
+        <v>0.936405</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3080992698669434</v>
+        <v>0.2276796698570251</v>
       </c>
       <c r="F114" t="n">
-        <v>775.1953125</v>
+        <v>882.861328125</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3292,72 +3292,72 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B115" t="n">
-        <v>4555.674967896826</v>
+        <v>4170.4879786104</v>
       </c>
       <c r="C115" t="n">
-        <v>7117.461518313085</v>
+        <v>10400.39086092474</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1901748</v>
+        <v>0.9842850000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3900727033615112</v>
+        <v>0.1846644133329391</v>
       </c>
       <c r="F115" t="n">
-        <v>4112.841796875</v>
+        <v>1162.79296875</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B116" t="n">
-        <v>3885.611486166667</v>
+        <v>6949.70019135639</v>
       </c>
       <c r="C116" t="n">
-        <v>11532.98848165525</v>
+        <v>6902.610947442106</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.491084</v>
+        <v>0.123661</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2952807247638702</v>
+        <v>0.2363682687282562</v>
       </c>
       <c r="F116" t="n">
-        <v>839.794921875</v>
+        <v>6201.5625</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B117" t="n">
-        <v>3851.853133166666</v>
+        <v>3997.992394513075</v>
       </c>
       <c r="C117" t="n">
-        <v>11559.19292280308</v>
+        <v>10749.03947184683</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.629151</v>
+        <v>-1.5515</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2276796698570251</v>
+        <v>0.3407484292984009</v>
       </c>
       <c r="F117" t="n">
-        <v>882.861328125</v>
+        <v>753.662109375</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -3367,22 +3367,22 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B118" t="n">
-        <v>4026.850558166667</v>
+        <v>4029.069423488304</v>
       </c>
       <c r="C118" t="n">
-        <v>11188.49769209852</v>
+        <v>10731.48019725787</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.466144</v>
+        <v>-0.6481790000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1846644133329391</v>
+        <v>0.2753348648548126</v>
       </c>
       <c r="F118" t="n">
-        <v>1162.79296875</v>
+        <v>818.26171875</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -3392,72 +3392,72 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B119" t="n">
-        <v>6222.353008531747</v>
+        <v>3923.568092496871</v>
       </c>
       <c r="C119" t="n">
-        <v>7264.3225423354</v>
+        <v>10737.21610536806</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.0360539</v>
+        <v>0.2083894</v>
       </c>
       <c r="E119" t="n">
-        <v>0.2363682687282562</v>
+        <v>0.3038162887096405</v>
       </c>
       <c r="F119" t="n">
-        <v>6201.5625</v>
+        <v>732.12890625</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B120" t="n">
-        <v>8190.428186761905</v>
+        <v>5125.407467820108</v>
       </c>
       <c r="C120" t="n">
-        <v>23293.81693881537</v>
+        <v>6313.276366748498</v>
       </c>
       <c r="D120" t="n">
-        <v>0.395709025</v>
+        <v>0.120159</v>
       </c>
       <c r="E120" t="n">
-        <v>0.6890008449554443</v>
+        <v>0.2820907235145569</v>
       </c>
       <c r="F120" t="n">
-        <v>2174.853515625</v>
+        <v>4177.44140625</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>ramphocelus dimidiatus 2</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B121" t="n">
-        <v>3867.752958498413</v>
+        <v>3977.73517621831</v>
       </c>
       <c r="C121" t="n">
-        <v>11578.06148975842</v>
+        <v>11030.39127862874</v>
       </c>
       <c r="D121" t="n">
-        <v>1.393181</v>
+        <v>-0.0483341</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3407484292984009</v>
+        <v>0.3166232705116272</v>
       </c>
       <c r="F121" t="n">
-        <v>753.662109375</v>
+        <v>775.1953125</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -3467,22 +3467,22 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B122" t="n">
-        <v>3885.636941150794</v>
+        <v>3999.440831536655</v>
       </c>
       <c r="C122" t="n">
-        <v>11562.64503148043</v>
+        <v>10873.73289587874</v>
       </c>
       <c r="D122" t="n">
-        <v>0.735248</v>
+        <v>0.432867</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2753348648548126</v>
+        <v>0.2840993404388428</v>
       </c>
       <c r="F122" t="n">
-        <v>818.26171875</v>
+        <v>839.794921875</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -3492,22 +3492,22 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B123" t="n">
-        <v>3800.456648650793</v>
+        <v>4040.819320974254</v>
       </c>
       <c r="C123" t="n">
-        <v>11572.6791770144</v>
+        <v>10927.62598873695</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.2679412</v>
+        <v>-0.01970600000000004</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3038162887096405</v>
+        <v>0.2482411712408066</v>
       </c>
       <c r="F123" t="n">
-        <v>732.12890625</v>
+        <v>904.39453125</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -3517,22 +3517,22 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B124" t="n">
-        <v>4540.542113968254</v>
+        <v>5019.345066050228</v>
       </c>
       <c r="C124" t="n">
-        <v>6627.648527571669</v>
+        <v>6298.475933076961</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0487769</v>
+        <v>0.06030700000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2820907235145569</v>
+        <v>0.2277911454439163</v>
       </c>
       <c r="F124" t="n">
-        <v>4177.44140625</v>
+        <v>4091.30859375</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -3542,22 +3542,22 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B125" t="n">
-        <v>3849.279279566666</v>
+        <v>4025.600862404839</v>
       </c>
       <c r="C125" t="n">
-        <v>11898.12684455862</v>
+        <v>10579.25414990148</v>
       </c>
       <c r="D125" t="n">
-        <v>0.24992707</v>
+        <v>-0.6645</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3166232705116272</v>
+        <v>0.1995283365249634</v>
       </c>
       <c r="F125" t="n">
-        <v>775.1953125</v>
+        <v>925.927734375</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -3567,44 +3567,44 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B126" t="n">
-        <v>3865.284131666667</v>
+        <v>5341.835487441229</v>
       </c>
       <c r="C126" t="n">
-        <v>11719.94786348545</v>
+        <v>7099.911633525392</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.973467</v>
+        <v>0.03965750000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>0.2840993404388428</v>
+        <v>0.1713317632675171</v>
       </c>
       <c r="F126" t="n">
-        <v>839.794921875</v>
+        <v>4414.306640625</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B127" t="n">
-        <v>3903.723158850794</v>
+        <v>4039.840788019595</v>
       </c>
       <c r="C127" t="n">
-        <v>11782.44163279183</v>
+        <v>10669.82628490759</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5146517</v>
+        <v>-0.119897</v>
       </c>
       <c r="E127" t="n">
-        <v>0.2482411712408066</v>
+        <v>0.183479055762291</v>
       </c>
       <c r="F127" t="n">
         <v>904.39453125</v>
@@ -3617,22 +3617,22 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B128" t="n">
-        <v>4471.01205095238</v>
+        <v>5307.06508744631</v>
       </c>
       <c r="C128" t="n">
-        <v>6617.150532924521</v>
+        <v>6497.872472339775</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1279238</v>
+        <v>-0.0705794</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2277911454439163</v>
+        <v>0.2579222321510315</v>
       </c>
       <c r="F128" t="n">
-        <v>4091.30859375</v>
+        <v>4414.306640625</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -3642,47 +3642,47 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B129" t="n">
-        <v>9695.056181190475</v>
+        <v>3893.387348724325</v>
       </c>
       <c r="C129" t="n">
-        <v>13532.56376032628</v>
+        <v>11071.72159511057</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5275719999999999</v>
+        <v>-0.404515</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3922455310821533</v>
+        <v>0.2905837893486023</v>
       </c>
       <c r="F129" t="n">
-        <v>8225.68359375</v>
+        <v>516.796875</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>ramphocelus dimidiatus 2</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B130" t="n">
-        <v>3905.509513619048</v>
+        <v>3894.826178013461</v>
       </c>
       <c r="C130" t="n">
-        <v>11388.88998259965</v>
+        <v>7566.97527689025</v>
       </c>
       <c r="D130" t="n">
-        <v>0.712374</v>
+        <v>0.048535</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1995283365249634</v>
+        <v>0.3086844682693481</v>
       </c>
       <c r="F130" t="n">
-        <v>925.927734375</v>
+        <v>516.796875</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -3692,47 +3692,47 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B131" t="n">
-        <v>4817.490159047619</v>
+        <v>3906.000085816048</v>
       </c>
       <c r="C131" t="n">
-        <v>7500.353582839416</v>
+        <v>11197.03979232822</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0638591</v>
+        <v>0.369152</v>
       </c>
       <c r="E131" t="n">
-        <v>0.1713317632675171</v>
+        <v>0.3014267385005951</v>
       </c>
       <c r="F131" t="n">
-        <v>4414.306640625</v>
+        <v>473.73046875</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B132" t="n">
-        <v>3922.529528119048</v>
+        <v>3930.057664434495</v>
       </c>
       <c r="C132" t="n">
-        <v>11490.22661836795</v>
+        <v>11014.48599806962</v>
       </c>
       <c r="D132" t="n">
-        <v>0.06946250000000001</v>
+        <v>-0.26055892</v>
       </c>
       <c r="E132" t="n">
-        <v>0.183479055762291</v>
+        <v>0.262865424156189</v>
       </c>
       <c r="F132" t="n">
-        <v>904.39453125</v>
+        <v>581.396484375</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -3742,22 +3742,22 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B133" t="n">
-        <v>4680.252646666667</v>
+        <v>5211.44988163378</v>
       </c>
       <c r="C133" t="n">
-        <v>6829.441784458679</v>
+        <v>6513.415625340785</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0759857</v>
+        <v>-0.0585232</v>
       </c>
       <c r="E133" t="n">
-        <v>0.2579222321510315</v>
+        <v>0.2608446776866913</v>
       </c>
       <c r="F133" t="n">
-        <v>4414.306640625</v>
+        <v>4220.5078125</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -3767,22 +3767,22 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B134" t="n">
-        <v>3814.459974261904</v>
+        <v>3941.526353884594</v>
       </c>
       <c r="C134" t="n">
-        <v>11937.34795753435</v>
+        <v>11309.61206311553</v>
       </c>
       <c r="D134" t="n">
-        <v>0.233613</v>
+        <v>-0.31922255</v>
       </c>
       <c r="E134" t="n">
-        <v>0.2905837893486023</v>
+        <v>0.2469711750745773</v>
       </c>
       <c r="F134" t="n">
-        <v>516.796875</v>
+        <v>538.330078125</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -3792,22 +3792,22 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B135" t="n">
-        <v>3814.955171366666</v>
+        <v>3909.560774761254</v>
       </c>
       <c r="C135" t="n">
-        <v>7995.48601907775</v>
+        <v>11265.99214367835</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.1630511</v>
+        <v>0.4965579999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3086844682693481</v>
+        <v>0.258684366941452</v>
       </c>
       <c r="F135" t="n">
-        <v>516.796875</v>
+        <v>495.263671875</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -3817,22 +3817,22 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B136" t="n">
-        <v>3812.967242046032</v>
+        <v>3939.941693374887</v>
       </c>
       <c r="C136" t="n">
-        <v>12077.73309453859</v>
+        <v>11187.14352738118</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.305105</v>
+        <v>0.541127</v>
       </c>
       <c r="E136" t="n">
-        <v>0.3014267385005951</v>
+        <v>0.2520054876804352</v>
       </c>
       <c r="F136" t="n">
-        <v>473.73046875</v>
+        <v>581.396484375</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -3842,22 +3842,22 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B137" t="n">
-        <v>3848.499600277777</v>
+        <v>3933.561613602458</v>
       </c>
       <c r="C137" t="n">
-        <v>11871.50328084401</v>
+        <v>11214.34036766951</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3529369999999999</v>
+        <v>-0.70282975</v>
       </c>
       <c r="E137" t="n">
-        <v>0.262865424156189</v>
+        <v>0.2659854590892792</v>
       </c>
       <c r="F137" t="n">
-        <v>581.396484375</v>
+        <v>559.86328125</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -3867,47 +3867,47 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B138" t="n">
-        <v>4591.385081785715</v>
+        <v>3984.831079621245</v>
       </c>
       <c r="C138" t="n">
-        <v>6857.909060935298</v>
+        <v>7678.3086645493</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0292839</v>
+        <v>0.007268000000000012</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2608446776866913</v>
+        <v>0.2628146708011627</v>
       </c>
       <c r="F138" t="n">
-        <v>4220.5078125</v>
+        <v>559.86328125</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B139" t="n">
-        <v>3863.722868282539</v>
+        <v>3933.695368582631</v>
       </c>
       <c r="C139" t="n">
-        <v>12198.91024337467</v>
+        <v>11082.0558055788</v>
       </c>
       <c r="D139" t="n">
-        <v>0.10823079</v>
+        <v>-0.547608</v>
       </c>
       <c r="E139" t="n">
-        <v>0.2469711750745773</v>
+        <v>0.2154809534549713</v>
       </c>
       <c r="F139" t="n">
-        <v>538.330078125</v>
+        <v>581.396484375</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -3917,47 +3917,47 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B140" t="n">
-        <v>3831.811158298413</v>
+        <v>5095.738119355293</v>
       </c>
       <c r="C140" t="n">
-        <v>12148.83666540091</v>
+        <v>6507.302558757035</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.118035</v>
+        <v>-0.4547450000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>0.258684366941452</v>
+        <v>0.4501658380031586</v>
       </c>
       <c r="F140" t="n">
-        <v>495.263671875</v>
+        <v>3746.77734375</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B141" t="n">
-        <v>3854.156959134921</v>
+        <v>3627.510949902737</v>
       </c>
       <c r="C141" t="n">
-        <v>12061.37056625313</v>
+        <v>10594.23033687411</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.6559550000000001</v>
+        <v>0.2678372</v>
       </c>
       <c r="E141" t="n">
-        <v>0.2520054876804352</v>
+        <v>0.6074351072311401</v>
       </c>
       <c r="F141" t="n">
-        <v>581.396484375</v>
+        <v>430.6640625</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -3967,22 +3967,22 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B142" t="n">
-        <v>3849.625946119048</v>
+        <v>3765.301590412546</v>
       </c>
       <c r="C142" t="n">
-        <v>12092.87404716646</v>
+        <v>10653.52835637494</v>
       </c>
       <c r="D142" t="n">
-        <v>0.21558495</v>
+        <v>-0.99444</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2659854590892792</v>
+        <v>0.6542943716049194</v>
       </c>
       <c r="F142" t="n">
-        <v>559.86328125</v>
+        <v>495.263671875</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -3992,47 +3992,47 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B143" t="n">
-        <v>3902.78949143492</v>
+        <v>4430.192088623694</v>
       </c>
       <c r="C143" t="n">
-        <v>8113.2793676743</v>
+        <v>7789.572495263756</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1792341</v>
+        <v>-0.2159526</v>
       </c>
       <c r="E143" t="n">
-        <v>0.2628146708011627</v>
+        <v>0.563585102558136</v>
       </c>
       <c r="F143" t="n">
-        <v>559.86328125</v>
+        <v>2282.51953125</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B144" t="n">
-        <v>3848.419140277778</v>
+        <v>3560.105292454155</v>
       </c>
       <c r="C144" t="n">
-        <v>11943.37552737758</v>
+        <v>10619.16999961405</v>
       </c>
       <c r="D144" t="n">
-        <v>1.084871</v>
+        <v>0.416245</v>
       </c>
       <c r="E144" t="n">
-        <v>0.2154809534549713</v>
+        <v>0.5068813562393188</v>
       </c>
       <c r="F144" t="n">
-        <v>581.396484375</v>
+        <v>301.46484375</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4042,72 +4042,72 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B145" t="n">
-        <v>4366.426326428571</v>
+        <v>3586.296849747047</v>
       </c>
       <c r="C145" t="n">
-        <v>6886.253320952157</v>
+        <v>10691.76885594891</v>
       </c>
       <c r="D145" t="n">
-        <v>0.487353</v>
+        <v>-0.036271</v>
       </c>
       <c r="E145" t="n">
-        <v>0.4501658380031586</v>
+        <v>0.6627400517463684</v>
       </c>
       <c r="F145" t="n">
-        <v>3746.77734375</v>
+        <v>322.998046875</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B146" t="n">
-        <v>3538.008149119048</v>
+        <v>4891.06243104661</v>
       </c>
       <c r="C146" t="n">
-        <v>11438.29408496862</v>
+        <v>6215.873382593691</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.317182</v>
+        <v>0.325368</v>
       </c>
       <c r="E146" t="n">
-        <v>0.6074351072311401</v>
+        <v>0.5718967318534851</v>
       </c>
       <c r="F146" t="n">
-        <v>430.6640625</v>
+        <v>3552.978515625</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B147" t="n">
-        <v>3660.106988587302</v>
+        <v>3544.622092909628</v>
       </c>
       <c r="C147" t="n">
-        <v>11497.60891087189</v>
+        <v>7135.482576632017</v>
       </c>
       <c r="D147" t="n">
-        <v>1.265684</v>
+        <v>2.046695</v>
       </c>
       <c r="E147" t="n">
-        <v>0.6542943716049194</v>
+        <v>0.6470839381217957</v>
       </c>
       <c r="F147" t="n">
-        <v>495.263671875</v>
+        <v>279.931640625</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -4117,22 +4117,22 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B148" t="n">
-        <v>3948.754986301587</v>
+        <v>4672.840411888153</v>
       </c>
       <c r="C148" t="n">
-        <v>8327.898371788146</v>
+        <v>6796.476672882778</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3184798</v>
+        <v>-0.3310078</v>
       </c>
       <c r="E148" t="n">
-        <v>0.563585102558136</v>
+        <v>0.5898582339286804</v>
       </c>
       <c r="F148" t="n">
-        <v>2282.51953125</v>
+        <v>2971.58203125</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -4142,97 +4142,97 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B149" t="n">
-        <v>3504.275377261905</v>
+        <v>4920.363479087026</v>
       </c>
       <c r="C149" t="n">
-        <v>11465.4017736232</v>
+        <v>6307.030647600368</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.223174</v>
+        <v>-0.298349</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5068813562393188</v>
+        <v>0.6630143523216248</v>
       </c>
       <c r="F149" t="n">
-        <v>301.46484375</v>
+        <v>3445.3125</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B150" t="n">
-        <v>3521.014276714285</v>
+        <v>4715.592988831076</v>
       </c>
       <c r="C150" t="n">
-        <v>11546.60550800684</v>
+        <v>6339.586469653394</v>
       </c>
       <c r="D150" t="n">
-        <v>0.5872232000000001</v>
+        <v>-0.1466784</v>
       </c>
       <c r="E150" t="n">
-        <v>0.6627400517463684</v>
+        <v>0.4297657012939453</v>
       </c>
       <c r="F150" t="n">
-        <v>322.998046875</v>
+        <v>3466.845703125</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B151" t="n">
-        <v>4193.197765238096</v>
+        <v>3571.645610878613</v>
       </c>
       <c r="C151" t="n">
-        <v>6566.854089529666</v>
+        <v>10580.83309278336</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.294685</v>
+        <v>-0.205091</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5718967318534851</v>
+        <v>0.6639760732650757</v>
       </c>
       <c r="F151" t="n">
-        <v>3552.978515625</v>
+        <v>301.46484375</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B152" t="n">
-        <v>3485.987793746032</v>
+        <v>3630.610124028462</v>
       </c>
       <c r="C152" t="n">
-        <v>7546.766756319517</v>
+        <v>7172.222162707514</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.121969</v>
+        <v>-1.023535</v>
       </c>
       <c r="E152" t="n">
-        <v>0.6470839381217957</v>
+        <v>0.6396822333335876</v>
       </c>
       <c r="F152" t="n">
-        <v>279.931640625</v>
+        <v>344.53125</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -4242,22 +4242,22 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B153" t="n">
-        <v>4088.417167380952</v>
+        <v>4977.008306144286</v>
       </c>
       <c r="C153" t="n">
-        <v>7231.443174407168</v>
+        <v>6326.598581345545</v>
       </c>
       <c r="D153" t="n">
-        <v>0.473024</v>
+        <v>-0.12648865</v>
       </c>
       <c r="E153" t="n">
-        <v>0.5898582339286804</v>
+        <v>0.5078771710395813</v>
       </c>
       <c r="F153" t="n">
-        <v>2971.58203125</v>
+        <v>3682.177734375</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -4267,122 +4267,122 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B154" t="n">
-        <v>4143.408010436508</v>
+        <v>3562.36992187523</v>
       </c>
       <c r="C154" t="n">
-        <v>6664.473416274149</v>
+        <v>10539.22902617109</v>
       </c>
       <c r="D154" t="n">
-        <v>0.242824</v>
+        <v>-1.663716</v>
       </c>
       <c r="E154" t="n">
-        <v>0.6630143523216248</v>
+        <v>0.613507866859436</v>
       </c>
       <c r="F154" t="n">
-        <v>3445.3125</v>
+        <v>301.46484375</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B155" t="n">
-        <v>4158.413126269841</v>
+        <v>3603.845727442446</v>
       </c>
       <c r="C155" t="n">
-        <v>6701.331677351564</v>
+        <v>10624.5341238869</v>
       </c>
       <c r="D155" t="n">
-        <v>0.188254</v>
+        <v>-0.378903</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4297657012939453</v>
+        <v>0.6802361011505127</v>
       </c>
       <c r="F155" t="n">
-        <v>3466.845703125</v>
+        <v>387.59765625</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B156" t="n">
-        <v>3500.681194277778</v>
+        <v>4766.093264520549</v>
       </c>
       <c r="C156" t="n">
-        <v>11422.76242776812</v>
+        <v>6298.452799670242</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1000491</v>
+        <v>0.120544</v>
       </c>
       <c r="E156" t="n">
-        <v>0.6639760732650757</v>
+        <v>0.5199732184410095</v>
       </c>
       <c r="F156" t="n">
-        <v>301.46484375</v>
+        <v>3402.24609375</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B157" t="n">
-        <v>3557.836988698413</v>
+        <v>4689.762135626588</v>
       </c>
       <c r="C157" t="n">
-        <v>7585.659662707514</v>
+        <v>6055.37774801084</v>
       </c>
       <c r="D157" t="n">
-        <v>0.8762289999999999</v>
+        <v>-0.1135084</v>
       </c>
       <c r="E157" t="n">
-        <v>0.6396822333335876</v>
+        <v>0.5439461469650269</v>
       </c>
       <c r="F157" t="n">
-        <v>344.53125</v>
+        <v>3380.712890625</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B158" t="n">
-        <v>4300.338266904763</v>
+        <v>4651.469098760494</v>
       </c>
       <c r="C158" t="n">
-        <v>6684.032946818105</v>
+        <v>7905.487960498826</v>
       </c>
       <c r="D158" t="n">
-        <v>0.03562007</v>
+        <v>0.0590746</v>
       </c>
       <c r="E158" t="n">
-        <v>0.5078771710395813</v>
+        <v>0.4842812716960907</v>
       </c>
       <c r="F158" t="n">
-        <v>3682.177734375</v>
+        <v>2519.384765625</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -4392,19 +4392,19 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B159" t="n">
-        <v>3501.090978277777</v>
+        <v>3585.881817378385</v>
       </c>
       <c r="C159" t="n">
-        <v>11374.70470261926</v>
+        <v>7161.437609541568</v>
       </c>
       <c r="D159" t="n">
-        <v>1.600089</v>
+        <v>-1.0059392</v>
       </c>
       <c r="E159" t="n">
-        <v>0.613507866859436</v>
+        <v>0.6011495590209961</v>
       </c>
       <c r="F159" t="n">
         <v>301.46484375</v>
@@ -4417,22 +4417,22 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B160" t="n">
-        <v>3522.699625666667</v>
+        <v>3546.302850281274</v>
       </c>
       <c r="C160" t="n">
-        <v>11472.90451260641</v>
+        <v>7131.132331133696</v>
       </c>
       <c r="D160" t="n">
-        <v>0.229977</v>
+        <v>-0.5397606</v>
       </c>
       <c r="E160" t="n">
-        <v>0.6802361011505127</v>
+        <v>0.6858065724372864</v>
       </c>
       <c r="F160" t="n">
-        <v>387.59765625</v>
+        <v>279.931640625</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -4442,22 +4442,22 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B161" t="n">
-        <v>4071.29117281746</v>
+        <v>4687.359171660207</v>
       </c>
       <c r="C161" t="n">
-        <v>6658.038384654998</v>
+        <v>6383.456871305457</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1753303</v>
+        <v>-0.2532152</v>
       </c>
       <c r="E161" t="n">
-        <v>0.5199732184410095</v>
+        <v>0.5833697319030762</v>
       </c>
       <c r="F161" t="n">
-        <v>3402.24609375</v>
+        <v>3337.646484375</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -4467,22 +4467,22 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B162" t="n">
-        <v>4052.65946047619</v>
+        <v>4471.798764438762</v>
       </c>
       <c r="C162" t="n">
-        <v>6406.358454946816</v>
+        <v>5917.383953476572</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1861214</v>
+        <v>0.153175</v>
       </c>
       <c r="E162" t="n">
-        <v>0.5439461469650269</v>
+        <v>0.5411797165870667</v>
       </c>
       <c r="F162" t="n">
-        <v>3380.712890625</v>
+        <v>3186.9140625</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -4492,22 +4492,22 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B163" t="n">
-        <v>4154.124410523809</v>
+        <v>4374.30793521637</v>
       </c>
       <c r="C163" t="n">
-        <v>8454.574136184801</v>
+        <v>8025.03669658676</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.1138362</v>
+        <v>0.2147085</v>
       </c>
       <c r="E163" t="n">
-        <v>0.4842812716960907</v>
+        <v>0.3982822895050049</v>
       </c>
       <c r="F163" t="n">
-        <v>2519.384765625</v>
+        <v>2239.453125</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -4517,72 +4517,72 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B164" t="n">
-        <v>3522.962672930159</v>
+        <v>4771.209662326912</v>
       </c>
       <c r="C164" t="n">
-        <v>7574.875109541568</v>
+        <v>6216.99363004611</v>
       </c>
       <c r="D164" t="n">
-        <v>1.357371</v>
+        <v>-0.214564</v>
       </c>
       <c r="E164" t="n">
-        <v>0.6011495590209961</v>
+        <v>0.4441517889499664</v>
       </c>
       <c r="F164" t="n">
-        <v>301.46484375</v>
+        <v>3574.51171875</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B165" t="n">
-        <v>3485.672133746032</v>
+        <v>5013.800509892973</v>
       </c>
       <c r="C165" t="n">
-        <v>7542.416510821196</v>
+        <v>6408.577221180944</v>
       </c>
       <c r="D165" t="n">
-        <v>0.6730750000000001</v>
+        <v>0.342455</v>
       </c>
       <c r="E165" t="n">
-        <v>0.6858065724372864</v>
+        <v>0.5341187119483948</v>
       </c>
       <c r="F165" t="n">
-        <v>279.931640625</v>
+        <v>3660.64453125</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B166" t="n">
-        <v>4017.927301507936</v>
+        <v>4622.819694014958</v>
       </c>
       <c r="C166" t="n">
-        <v>6760.252212387773</v>
+        <v>8343.106221869071</v>
       </c>
       <c r="D166" t="n">
-        <v>0.276709</v>
+        <v>-0.1456514</v>
       </c>
       <c r="E166" t="n">
-        <v>0.5833697319030762</v>
+        <v>0.6634252667427063</v>
       </c>
       <c r="F166" t="n">
-        <v>3337.646484375</v>
+        <v>2282.51953125</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -4592,22 +4592,22 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B167" t="n">
-        <v>3895.681298039683</v>
+        <v>4620.500686780699</v>
       </c>
       <c r="C167" t="n">
-        <v>6274.818318949132</v>
+        <v>8021.749433750534</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.0925709</v>
+        <v>-0.06178</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5411797165870667</v>
+        <v>0.4867027997970581</v>
       </c>
       <c r="F167" t="n">
-        <v>3186.9140625</v>
+        <v>2454.78515625</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -4617,22 +4617,22 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="B168" t="n">
-        <v>3995.859205103175</v>
+        <v>4672.303868668683</v>
       </c>
       <c r="C168" t="n">
-        <v>8612.861629894687</v>
+        <v>6289.189658579298</v>
       </c>
       <c r="D168" t="n">
-        <v>0.005271700000000018</v>
+        <v>-0.1531305</v>
       </c>
       <c r="E168" t="n">
-        <v>0.3982822895050049</v>
+        <v>0.5347205400466919</v>
       </c>
       <c r="F168" t="n">
-        <v>2239.453125</v>
+        <v>3337.646484375</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -4642,22 +4642,22 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="B169" t="n">
-        <v>4190.267039523809</v>
+        <v>4862.249777814028</v>
       </c>
       <c r="C169" t="n">
-        <v>6580.877452454646</v>
+        <v>6782.806809429956</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1612091</v>
+        <v>-0.114003</v>
       </c>
       <c r="E169" t="n">
-        <v>0.4441517889499664</v>
+        <v>0.5817247629165649</v>
       </c>
       <c r="F169" t="n">
-        <v>3574.51171875</v>
+        <v>3466.845703125</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -4667,22 +4667,22 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="B170" t="n">
-        <v>4295.010153571428</v>
+        <v>4495.285567551216</v>
       </c>
       <c r="C170" t="n">
-        <v>6772.469446790699</v>
+        <v>7987.013216331005</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.291776</v>
+        <v>0.0907955</v>
       </c>
       <c r="E170" t="n">
-        <v>0.5341187119483948</v>
+        <v>0.5353156924247742</v>
       </c>
       <c r="F170" t="n">
-        <v>3660.64453125</v>
+        <v>2260.986328125</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -4692,22 +4692,22 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="B171" t="n">
-        <v>4085.135641285714</v>
+        <v>4666.729244224573</v>
       </c>
       <c r="C171" t="n">
-        <v>8933.094979491023</v>
+        <v>6337.625930738093</v>
       </c>
       <c r="D171" t="n">
-        <v>0.2432908</v>
+        <v>-0.150888</v>
       </c>
       <c r="E171" t="n">
-        <v>0.6634252667427063</v>
+        <v>0.5287635922431946</v>
       </c>
       <c r="F171" t="n">
-        <v>2282.51953125</v>
+        <v>3423.779296875</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -4717,22 +4717,22 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="B172" t="n">
-        <v>4153.255667539683</v>
+        <v>4679.396729160694</v>
       </c>
       <c r="C172" t="n">
-        <v>8590.209189848096</v>
+        <v>8104.566049390563</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1689322</v>
+        <v>0.4448744</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4867027997970581</v>
+        <v>0.5457456111907959</v>
       </c>
       <c r="F172" t="n">
-        <v>2454.78515625</v>
+        <v>2519.384765625</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -4742,97 +4742,97 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B173" t="n">
-        <v>4018.120488492063</v>
+        <v>3895.032123574882</v>
       </c>
       <c r="C173" t="n">
-        <v>6659.53134112503</v>
+        <v>7605.864546219316</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.03676540000000002</v>
+        <v>0.492539</v>
       </c>
       <c r="E173" t="n">
-        <v>0.5347205400466919</v>
+        <v>0.5469157099723816</v>
       </c>
       <c r="F173" t="n">
-        <v>3337.646484375</v>
+        <v>452.197265625</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B174" t="n">
-        <v>4155.288495476191</v>
+        <v>3877.480749397149</v>
       </c>
       <c r="C174" t="n">
-        <v>7206.937382981785</v>
+        <v>7658.612706119755</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.02272300000000001</v>
+        <v>-0.0162183</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5817247629165649</v>
+        <v>0.5064195394515991</v>
       </c>
       <c r="F174" t="n">
-        <v>3466.845703125</v>
+        <v>409.130859375</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B175" t="n">
-        <v>4031.003114039682</v>
+        <v>3881.677097163065</v>
       </c>
       <c r="C175" t="n">
-        <v>8551.178936605396</v>
+        <v>11258.12764668398</v>
       </c>
       <c r="D175" t="n">
-        <v>0.03201569999999999</v>
+        <v>0.3592150000000001</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5353156924247742</v>
+        <v>0.4942649900913239</v>
       </c>
       <c r="F175" t="n">
-        <v>2260.986328125</v>
+        <v>387.59765625</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B176" t="n">
-        <v>4051.890152539682</v>
+        <v>4455.160845433786</v>
       </c>
       <c r="C176" t="n">
-        <v>6720.866527155777</v>
+        <v>8215.536432825851</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.06832680000000002</v>
+        <v>-0.0570052</v>
       </c>
       <c r="E176" t="n">
-        <v>0.5287635922431946</v>
+        <v>0.5133434534072876</v>
       </c>
       <c r="F176" t="n">
-        <v>3423.779296875</v>
+        <v>2260.986328125</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -4842,47 +4842,47 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B177" t="n">
-        <v>4135.438721992064</v>
+        <v>3899.950408593668</v>
       </c>
       <c r="C177" t="n">
-        <v>8692.369974695443</v>
+        <v>11320.38215861128</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.5483479999999999</v>
+        <v>-0.0667985</v>
       </c>
       <c r="E177" t="n">
-        <v>0.5457456111907959</v>
+        <v>0.4293949604034424</v>
       </c>
       <c r="F177" t="n">
-        <v>2519.384765625</v>
+        <v>452.197265625</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B178" t="n">
-        <v>3817.730391214286</v>
+        <v>3937.080367784566</v>
       </c>
       <c r="C178" t="n">
-        <v>8040.835249344316</v>
+        <v>11158.59717184149</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.683175</v>
+        <v>-0.2745124</v>
       </c>
       <c r="E178" t="n">
-        <v>0.5469157099723816</v>
+        <v>0.4842788279056549</v>
       </c>
       <c r="F178" t="n">
-        <v>452.197265625</v>
+        <v>516.796875</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -4892,22 +4892,22 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B179" t="n">
-        <v>3799.370467571429</v>
+        <v>3956.649223839277</v>
       </c>
       <c r="C179" t="n">
-        <v>8095.736729557255</v>
+        <v>11372.90038876792</v>
       </c>
       <c r="D179" t="n">
-        <v>0.32505931</v>
+        <v>0.03380160000000001</v>
       </c>
       <c r="E179" t="n">
-        <v>0.5064195394515991</v>
+        <v>0.5600021481513977</v>
       </c>
       <c r="F179" t="n">
-        <v>409.130859375</v>
+        <v>495.263671875</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -4917,72 +4917,72 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B180" t="n">
-        <v>3814.872103087301</v>
+        <v>4522.72225840926</v>
       </c>
       <c r="C180" t="n">
-        <v>12145.29141383337</v>
+        <v>8130.067955272416</v>
       </c>
       <c r="D180" t="n">
-        <v>0.243038</v>
+        <v>-0.2425672</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4942649900913239</v>
+        <v>0.4596482515335083</v>
       </c>
       <c r="F180" t="n">
-        <v>387.59765625</v>
+        <v>2282.51953125</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Ramphocelus dimidiatus</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B181" t="n">
-        <v>3949.929356904762</v>
+        <v>3978.243289384502</v>
       </c>
       <c r="C181" t="n">
-        <v>8773.227486560607</v>
+        <v>11484.99320894491</v>
       </c>
       <c r="D181" t="n">
-        <v>0.0927859</v>
+        <v>1.01148</v>
       </c>
       <c r="E181" t="n">
-        <v>0.5133434534072876</v>
+        <v>0.4429691433906555</v>
       </c>
       <c r="F181" t="n">
-        <v>2260.986328125</v>
+        <v>581.396484375</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B182" t="n">
-        <v>3829.801032634921</v>
+        <v>4021.424883114325</v>
       </c>
       <c r="C182" t="n">
-        <v>12213.99118109603</v>
+        <v>11218.82430875827</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.0508983</v>
+        <v>0.417074</v>
       </c>
       <c r="E182" t="n">
-        <v>0.4293949604034424</v>
+        <v>0.4564569890499115</v>
       </c>
       <c r="F182" t="n">
-        <v>452.197265625</v>
+        <v>753.662109375</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -4992,19 +4992,19 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B183" t="n">
-        <v>3851.960259071428</v>
+        <v>3978.61842229906</v>
       </c>
       <c r="C183" t="n">
-        <v>12032.83681551527</v>
+        <v>11506.90497648915</v>
       </c>
       <c r="D183" t="n">
-        <v>0.07909771999999998</v>
+        <v>-0.080842</v>
       </c>
       <c r="E183" t="n">
-        <v>0.4842788279056549</v>
+        <v>0.5287003517150879</v>
       </c>
       <c r="F183" t="n">
         <v>516.796875</v>
@@ -5017,22 +5017,22 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B184" t="n">
-        <v>3866.428170460317</v>
+        <v>3997.121209428082</v>
       </c>
       <c r="C184" t="n">
-        <v>12270.81185027707</v>
+        <v>11327.31498692046</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.15251112</v>
+        <v>0.1253174</v>
       </c>
       <c r="E184" t="n">
-        <v>0.5600021481513977</v>
+        <v>0.5381126999855042</v>
       </c>
       <c r="F184" t="n">
-        <v>495.263671875</v>
+        <v>516.796875</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -5042,47 +5042,47 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B185" t="n">
-        <v>3998.862048849206</v>
+        <v>3976.222046212863</v>
       </c>
       <c r="C185" t="n">
-        <v>8694.221070744978</v>
+        <v>10910.37783018895</v>
       </c>
       <c r="D185" t="n">
-        <v>0.3437031</v>
+        <v>0.03648169999999996</v>
       </c>
       <c r="E185" t="n">
-        <v>0.4596482515335083</v>
+        <v>0.4912011623382568</v>
       </c>
       <c r="F185" t="n">
-        <v>2282.51953125</v>
+        <v>732.12890625</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Ramphocelus dimidiatus</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B186" t="n">
-        <v>3885.172882319047</v>
+        <v>4166.54603207655</v>
       </c>
       <c r="C186" t="n">
-        <v>12397.9506022376</v>
+        <v>11011.2308652375</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.493278</v>
+        <v>-0.15634</v>
       </c>
       <c r="E186" t="n">
-        <v>0.4429691433906555</v>
+        <v>0.4746626615524292</v>
       </c>
       <c r="F186" t="n">
-        <v>581.396484375</v>
+        <v>839.794921875</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -5092,47 +5092,47 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B187" t="n">
-        <v>3885.408979119048</v>
+        <v>9406.474828980314</v>
       </c>
       <c r="C187" t="n">
-        <v>12101.63101607534</v>
+        <v>19295.91511922895</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.293546</v>
+        <v>0.297729</v>
       </c>
       <c r="E187" t="n">
-        <v>0.4564569890499115</v>
+        <v>0.4383725225925446</v>
       </c>
       <c r="F187" t="n">
-        <v>753.662109375</v>
+        <v>4155.908203125</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Basileuterus sp</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="B188" t="n">
-        <v>3882.638290103175</v>
+        <v>4064.542280180233</v>
       </c>
       <c r="C188" t="n">
-        <v>12422.02619409586</v>
+        <v>11028.15906597122</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.136697</v>
+        <v>-0.657796</v>
       </c>
       <c r="E188" t="n">
-        <v>0.5287003517150879</v>
+        <v>0.450365424156189</v>
       </c>
       <c r="F188" t="n">
-        <v>516.796875</v>
+        <v>732.12890625</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -5142,22 +5142,22 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B189" t="n">
-        <v>3901.198726571429</v>
+        <v>4097.128935681233</v>
       </c>
       <c r="C189" t="n">
-        <v>12218.77699149363</v>
+        <v>11053.4303177258</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.1151901</v>
+        <v>0.05792969999999999</v>
       </c>
       <c r="E189" t="n">
-        <v>0.5381126999855042</v>
+        <v>0.4416683912277222</v>
       </c>
       <c r="F189" t="n">
-        <v>516.796875</v>
+        <v>775.1953125</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -5167,22 +5167,22 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="B190" t="n">
-        <v>3849.707888087301</v>
+        <v>4091.785344136816</v>
       </c>
       <c r="C190" t="n">
-        <v>11758.76082371029</v>
+        <v>11020.98381592584</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.5065933899999999</v>
+        <v>0.02921700000000002</v>
       </c>
       <c r="E190" t="n">
-        <v>0.4912011623382568</v>
+        <v>0.4668835401535034</v>
       </c>
       <c r="F190" t="n">
-        <v>732.12890625</v>
+        <v>710.595703125</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -5192,47 +5192,47 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="B191" t="n">
-        <v>4012.677442269841</v>
+        <v>9329.312075051395</v>
       </c>
       <c r="C191" t="n">
-        <v>11874.68920174665</v>
+        <v>18208.0287026784</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.273549</v>
+        <v>0.212675</v>
       </c>
       <c r="E191" t="n">
-        <v>0.4746626615524292</v>
+        <v>0.4125043451786041</v>
       </c>
       <c r="F191" t="n">
-        <v>839.794921875</v>
+        <v>4608.10546875</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Basileuterus sp</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B192" t="n">
-        <v>8512.398226571428</v>
+        <v>9357.142770462742</v>
       </c>
       <c r="C192" t="n">
-        <v>20783.67248393931</v>
+        <v>19840.7282934974</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.728878</v>
+        <v>0.1060552</v>
       </c>
       <c r="E192" t="n">
-        <v>0.4383725225925446</v>
+        <v>0.344047337770462</v>
       </c>
       <c r="F192" t="n">
-        <v>4155.908203125</v>
+        <v>4112.841796875</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -5242,47 +5242,47 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B193" t="n">
-        <v>3939.397844828572</v>
+        <v>4940.454762695382</v>
       </c>
       <c r="C193" t="n">
-        <v>11889.47038456879</v>
+        <v>7499.760765657118</v>
       </c>
       <c r="D193" t="n">
-        <v>0.594702</v>
+        <v>0.013914</v>
       </c>
       <c r="E193" t="n">
-        <v>0.450365424156189</v>
+        <v>0.3357683718204498</v>
       </c>
       <c r="F193" t="n">
-        <v>732.12890625</v>
+        <v>3186.9140625</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Sing bird 1</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="B194" t="n">
-        <v>3957.495854680953</v>
+        <v>4097.479854075687</v>
       </c>
       <c r="C194" t="n">
-        <v>11916.88865423495</v>
+        <v>10925.75095169794</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.36524529</v>
+        <v>-0.848939</v>
       </c>
       <c r="E194" t="n">
-        <v>0.4416683912277222</v>
+        <v>0.4396944940090179</v>
       </c>
       <c r="F194" t="n">
-        <v>775.1953125</v>
+        <v>796.728515625</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -5292,347 +5292,347 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="B195" t="n">
-        <v>3958.120129648572</v>
+        <v>9544.842217586414</v>
       </c>
       <c r="C195" t="n">
-        <v>11882.30353772462</v>
+        <v>17873.79513033433</v>
       </c>
       <c r="D195" t="n">
-        <v>0.2048835</v>
+        <v>0.188291</v>
       </c>
       <c r="E195" t="n">
-        <v>0.4668835401535034</v>
+        <v>0.4782217442989349</v>
       </c>
       <c r="F195" t="n">
-        <v>710.595703125</v>
+        <v>4780.37109375</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Basileuterus sp</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="B196" t="n">
-        <v>8361.150537484125</v>
+        <v>4084.262120390337</v>
       </c>
       <c r="C196" t="n">
-        <v>19557.98197058998</v>
+        <v>10944.43805545574</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.9950661000000001</v>
+        <v>0.0605255</v>
       </c>
       <c r="E196" t="n">
-        <v>0.4125043451786041</v>
+        <v>0.4556012749671936</v>
       </c>
       <c r="F196" t="n">
-        <v>4608.10546875</v>
+        <v>839.794921875</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Basileuterus sp</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="B197" t="n">
-        <v>8494.792858960316</v>
+        <v>4608.313497547301</v>
       </c>
       <c r="C197" t="n">
-        <v>21371.51425005227</v>
+        <v>10678.56930534553</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.82049894</v>
+        <v>-0.161999</v>
       </c>
       <c r="E197" t="n">
-        <v>0.344047337770462</v>
+        <v>0.3935619294643402</v>
       </c>
       <c r="F197" t="n">
-        <v>4112.841796875</v>
+        <v>1421.19140625</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Basileuterus sp</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="B198" t="n">
-        <v>4353.677371547619</v>
+        <v>4953.301611195228</v>
       </c>
       <c r="C198" t="n">
-        <v>7960.562909330898</v>
+        <v>7169.79412760959</v>
       </c>
       <c r="D198" t="n">
-        <v>0.0597622</v>
+        <v>0.346434</v>
       </c>
       <c r="E198" t="n">
-        <v>0.3357683718204498</v>
+        <v>0.454278290271759</v>
       </c>
       <c r="F198" t="n">
-        <v>3186.9140625</v>
+        <v>3165.380859375</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>ave 1</t>
+          <t>Sing bird 1</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B199" t="n">
-        <v>3957.02650797619</v>
+        <v>9294.620231944917</v>
       </c>
       <c r="C199" t="n">
-        <v>11776.29776953331</v>
+        <v>19343.09187765309</v>
       </c>
       <c r="D199" t="n">
-        <v>0.577808</v>
+        <v>0.146737</v>
       </c>
       <c r="E199" t="n">
-        <v>0.4396944940090179</v>
+        <v>0.4445548057556152</v>
       </c>
       <c r="F199" t="n">
-        <v>796.728515625</v>
+        <v>4091.30859375</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Basileuterus sp</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B200" t="n">
-        <v>8446.73698468254</v>
+        <v>5352.661995893337</v>
       </c>
       <c r="C200" t="n">
-        <v>19223.73579344409</v>
+        <v>5449.86795654138</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.9349539000000001</v>
+        <v>-0.212387</v>
       </c>
       <c r="E200" t="n">
-        <v>0.4782217442989349</v>
+        <v>0.4055695533752441</v>
       </c>
       <c r="F200" t="n">
-        <v>4780.37109375</v>
+        <v>4435.83984375</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Basileuterus sp</t>
+          <t>Sing bird 1</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B201" t="n">
-        <v>3937.769097692064</v>
+        <v>9433.899958657063</v>
       </c>
       <c r="C201" t="n">
-        <v>11801.42592702586</v>
+        <v>19375.6697838017</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.0632185</v>
+        <v>-0.08472499999999998</v>
       </c>
       <c r="E201" t="n">
-        <v>0.4556012749671936</v>
+        <v>0.3914630115032196</v>
       </c>
       <c r="F201" t="n">
-        <v>839.794921875</v>
+        <v>4220.5078125</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Basileuterus sp</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B202" t="n">
-        <v>4358.29608547619</v>
+        <v>4510.748147084419</v>
       </c>
       <c r="C202" t="n">
-        <v>11494.67140138211</v>
+        <v>5605.652221681563</v>
       </c>
       <c r="D202" t="n">
-        <v>0.525529</v>
+        <v>0.214525</v>
       </c>
       <c r="E202" t="n">
-        <v>0.3935619294643402</v>
+        <v>0.5157358646392822</v>
       </c>
       <c r="F202" t="n">
-        <v>1421.19140625</v>
+        <v>3251.513671875</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Sing bird 1</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B203" t="n">
-        <v>4348.628924563492</v>
+        <v>9385.476405569054</v>
       </c>
       <c r="C203" t="n">
-        <v>7639.205350932761</v>
+        <v>19436.39991978147</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.1906544</v>
+        <v>-0.00136300000000001</v>
       </c>
       <c r="E203" t="n">
-        <v>0.454278290271759</v>
+        <v>0.4191933870315552</v>
       </c>
       <c r="F203" t="n">
-        <v>3165.380859375</v>
+        <v>4198.974609375</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>ave 1</t>
+          <t>Basileuterus sp</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B204" t="n">
-        <v>8427.79968724603</v>
+        <v>4674.766192421393</v>
       </c>
       <c r="C204" t="n">
-        <v>20817.93352208906</v>
+        <v>7159.348927501565</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.8324370000000001</v>
+        <v>-0.159544</v>
       </c>
       <c r="E204" t="n">
-        <v>0.4445548057556152</v>
+        <v>0.492092490196228</v>
       </c>
       <c r="F204" t="n">
-        <v>4091.30859375</v>
+        <v>3014.6484375</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Basileuterus sp</t>
+          <t>Sing bird 1</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B205" t="n">
-        <v>4419.330313611111</v>
+        <v>9593.492761880047</v>
       </c>
       <c r="C205" t="n">
-        <v>5718.984677196869</v>
+        <v>18189.22481854793</v>
       </c>
       <c r="D205" t="n">
-        <v>0.1903294</v>
+        <v>0.182578</v>
       </c>
       <c r="E205" t="n">
-        <v>0.4055695533752441</v>
+        <v>0.3671734929084778</v>
       </c>
       <c r="F205" t="n">
-        <v>4435.83984375</v>
+        <v>4995.703125</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>ave 1</t>
+          <t>Basileuterus sp</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B206" t="n">
-        <v>8566.939363992062</v>
+        <v>4850.931391642616</v>
       </c>
       <c r="C206" t="n">
-        <v>20852.67105095109</v>
+        <v>7784.668351486258</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.804486</v>
+        <v>-0.43567</v>
       </c>
       <c r="E206" t="n">
-        <v>0.3914630115032196</v>
+        <v>0.412855476140976</v>
       </c>
       <c r="F206" t="n">
-        <v>4220.5078125</v>
+        <v>2993.115234375</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Basileuterus sp</t>
+          <t>Sing bird 1</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="B207" t="n">
-        <v>3830.2093175</v>
+        <v>4805.494811362584</v>
       </c>
       <c r="C207" t="n">
-        <v>5926.486444242539</v>
+        <v>7125.076477073559</v>
       </c>
       <c r="D207" t="n">
-        <v>0.02492400000000002</v>
+        <v>0.0151313</v>
       </c>
       <c r="E207" t="n">
-        <v>0.5157358646392822</v>
+        <v>0.4161770343780518</v>
       </c>
       <c r="F207" t="n">
-        <v>3251.513671875</v>
+        <v>3100.78125</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>ave 1</t>
+          <t>Sing bird 1</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="B208" t="n">
-        <v>8549.829635428572</v>
+        <v>8680.184444814849</v>
       </c>
       <c r="C208" t="n">
-        <v>20924.15728449184</v>
+        <v>19329.97951059813</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.9827019000000001</v>
+        <v>0.156424</v>
       </c>
       <c r="E208" t="n">
-        <v>0.4191933870315552</v>
+        <v>0.3906069099903107</v>
       </c>
       <c r="F208" t="n">
-        <v>4198.974609375</v>
+        <v>3466.845703125</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -5642,47 +5642,47 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="B209" t="n">
-        <v>4107.141229563493</v>
+        <v>9075.205412287873</v>
       </c>
       <c r="C209" t="n">
-        <v>7643.789276205835</v>
+        <v>20583.43322974656</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.1404962</v>
+        <v>-0.08558900000000001</v>
       </c>
       <c r="E209" t="n">
-        <v>0.492092490196228</v>
+        <v>0.5165995359420776</v>
       </c>
       <c r="F209" t="n">
-        <v>3014.6484375</v>
+        <v>3466.845703125</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>ave 1</t>
+          <t>Basileuterus sp</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="B210" t="n">
-        <v>8602.210042103174</v>
+        <v>8739.504650588053</v>
       </c>
       <c r="C210" t="n">
-        <v>19575.73201176439</v>
+        <v>18149.42412641418</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.9581376</v>
+        <v>0.02102030000000001</v>
       </c>
       <c r="E210" t="n">
-        <v>0.3671734929084778</v>
+        <v>0.4706869423389435</v>
       </c>
       <c r="F210" t="n">
-        <v>4995.703125</v>
+        <v>3423.779296875</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -5692,247 +5692,247 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="B211" t="n">
-        <v>4262.801280952382</v>
+        <v>4773.467965969614</v>
       </c>
       <c r="C211" t="n">
-        <v>8314.326325952721</v>
+        <v>7620.138765229534</v>
       </c>
       <c r="D211" t="n">
-        <v>0.1715594</v>
+        <v>0.241376</v>
       </c>
       <c r="E211" t="n">
-        <v>0.412855476140976</v>
+        <v>0.428582489490509</v>
       </c>
       <c r="F211" t="n">
-        <v>2993.115234375</v>
+        <v>2928.515625</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>ave 1</t>
+          <t>Sing bird 1</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="B212" t="n">
-        <v>4226.211438174602</v>
+        <v>10683.79716412776</v>
       </c>
       <c r="C212" t="n">
-        <v>7600.924552530875</v>
+        <v>10118.46085367129</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.03291409</v>
+        <v>0.06816069999999996</v>
       </c>
       <c r="E212" t="n">
-        <v>0.4161770343780518</v>
+        <v>0.4263865649700165</v>
       </c>
       <c r="F212" t="n">
-        <v>3100.78125</v>
+        <v>9280.810546875</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>ave 1</t>
+          <t>Basileuterus sp</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="B213" t="n">
-        <v>7991.169366190476</v>
+        <v>4682.251109861354</v>
       </c>
       <c r="C213" t="n">
-        <v>20785.47698582679</v>
+        <v>7530.085957558392</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.4947584999999999</v>
+        <v>-0.1487746</v>
       </c>
       <c r="E213" t="n">
-        <v>0.3906069099903107</v>
+        <v>0.5258585214614868</v>
       </c>
       <c r="F213" t="n">
-        <v>3466.845703125</v>
+        <v>2842.3828125</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Basileuterus sp</t>
+          <t>Sing bird 1</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="B214" t="n">
-        <v>8404.426672546035</v>
+        <v>4821.172509934177</v>
       </c>
       <c r="C214" t="n">
-        <v>22163.80227509716</v>
+        <v>4977.681131300296</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.3399211</v>
+        <v>0.08279</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5165995359420776</v>
+        <v>0.3879822492599487</v>
       </c>
       <c r="F214" t="n">
-        <v>3466.845703125</v>
+        <v>3875.9765625</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Basileuterus sp</t>
+          <t>Sing bird 1</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="B215" t="n">
-        <v>7908.561276960318</v>
+        <v>3895.594376828294</v>
       </c>
       <c r="C215" t="n">
-        <v>19533.91875293857</v>
+        <v>11429.16501235365</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.32580611</v>
+        <v>0.6026659999999999</v>
       </c>
       <c r="E215" t="n">
-        <v>0.4706869423389435</v>
+        <v>0.4353636801242828</v>
       </c>
       <c r="F215" t="n">
-        <v>3423.779296875</v>
+        <v>366.064453125</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Basileuterus sp</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B216" t="n">
-        <v>4191.736920158731</v>
+        <v>6286.272920185213</v>
       </c>
       <c r="C216" t="n">
-        <v>8147.641318583192</v>
+        <v>11115.89034551643</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.02248079999999999</v>
+        <v>-0.3020942</v>
       </c>
       <c r="E216" t="n">
-        <v>0.428582489490509</v>
+        <v>0.3794967532157898</v>
       </c>
       <c r="F216" t="n">
-        <v>2928.515625</v>
+        <v>3488.37890625</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>ave 1</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="B217" t="n">
-        <v>8661.09214595238</v>
+        <v>3993.389276662934</v>
       </c>
       <c r="C217" t="n">
-        <v>10628.59819170482</v>
+        <v>11187.24253740752</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.62114969</v>
+        <v>-0.3084</v>
       </c>
       <c r="E217" t="n">
-        <v>0.4263865649700165</v>
+        <v>0.4570063948631287</v>
       </c>
       <c r="F217" t="n">
-        <v>9280.810546875</v>
+        <v>581.396484375</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Basileuterus sp</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="B218" t="n">
-        <v>4106.499543214286</v>
+        <v>3973.068136351779</v>
       </c>
       <c r="C218" t="n">
-        <v>8031.769675165098</v>
+        <v>11329.43592416608</v>
       </c>
       <c r="D218" t="n">
-        <v>0.1579874</v>
+        <v>0.117156</v>
       </c>
       <c r="E218" t="n">
-        <v>0.5258585214614868</v>
+        <v>0.4389214515686035</v>
       </c>
       <c r="F218" t="n">
-        <v>2842.3828125</v>
+        <v>495.263671875</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>ave 1</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B219" t="n">
-        <v>4002.191430753968</v>
+        <v>4052.920468306775</v>
       </c>
       <c r="C219" t="n">
-        <v>5214.537962474076</v>
+        <v>11233.42526783723</v>
       </c>
       <c r="D219" t="n">
-        <v>0.1198155</v>
+        <v>-0.9678909999999998</v>
       </c>
       <c r="E219" t="n">
-        <v>0.3879822492599487</v>
+        <v>0.486061155796051</v>
       </c>
       <c r="F219" t="n">
-        <v>3875.9765625</v>
+        <v>645.99609375</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>ave 1</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B220" t="n">
-        <v>3833.225477066667</v>
+        <v>3995.730505401354</v>
       </c>
       <c r="C220" t="n">
-        <v>12329.24449977743</v>
+        <v>11379.86761682565</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.627757</v>
+        <v>-0.0923494</v>
       </c>
       <c r="E220" t="n">
-        <v>0.4353636801242828</v>
+        <v>0.4669179320335388</v>
       </c>
       <c r="F220" t="n">
-        <v>366.064453125</v>
+        <v>495.263671875</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -5942,47 +5942,47 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B221" t="n">
-        <v>5731.188889007935</v>
+        <v>4148.683547654245</v>
       </c>
       <c r="C221" t="n">
-        <v>11884.59418507436</v>
+        <v>11304.90076588979</v>
       </c>
       <c r="D221" t="n">
-        <v>0.371256</v>
+        <v>-0.0252111</v>
       </c>
       <c r="E221" t="n">
-        <v>0.3794967532157898</v>
+        <v>0.3738939762115479</v>
       </c>
       <c r="F221" t="n">
-        <v>3488.37890625</v>
+        <v>753.662109375</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B222" t="n">
-        <v>3886.767541087301</v>
+        <v>3969.108668699841</v>
       </c>
       <c r="C222" t="n">
-        <v>12057.17554045631</v>
+        <v>11431.34285221218</v>
       </c>
       <c r="D222" t="n">
-        <v>0.396259</v>
+        <v>-0.274236</v>
       </c>
       <c r="E222" t="n">
-        <v>0.4570063948631287</v>
+        <v>0.4111570715904236</v>
       </c>
       <c r="F222" t="n">
-        <v>581.396484375</v>
+        <v>495.263671875</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -5992,22 +5992,22 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B223" t="n">
-        <v>3887.372467119048</v>
+        <v>4026.393849607765</v>
       </c>
       <c r="C223" t="n">
-        <v>12214.44427020266</v>
+        <v>11121.54342566472</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.4155699</v>
+        <v>0.0191025</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4389214515686035</v>
+        <v>0.4562970995903015</v>
       </c>
       <c r="F223" t="n">
-        <v>495.263671875</v>
+        <v>624.462890625</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -6017,22 +6017,22 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B224" t="n">
-        <v>3941.484077539682</v>
+        <v>3962.455165379593</v>
       </c>
       <c r="C224" t="n">
-        <v>12105.50949039821</v>
+        <v>11622.93770304807</v>
       </c>
       <c r="D224" t="n">
-        <v>0.7504489999999999</v>
+        <v>-0.780322</v>
       </c>
       <c r="E224" t="n">
-        <v>0.486061155796051</v>
+        <v>0.4465092420578003</v>
       </c>
       <c r="F224" t="n">
-        <v>645.99609375</v>
+        <v>495.263671875</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -6042,47 +6042,47 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B225" t="n">
-        <v>3905.609116539682</v>
+        <v>6296.670460986163</v>
       </c>
       <c r="C225" t="n">
-        <v>12271.33382299943</v>
+        <v>12909.52562117209</v>
       </c>
       <c r="D225" t="n">
-        <v>0.1767487</v>
+        <v>0.5041330000000001</v>
       </c>
       <c r="E225" t="n">
-        <v>0.4669179320335388</v>
+        <v>0.4197844564914703</v>
       </c>
       <c r="F225" t="n">
-        <v>495.263671875</v>
+        <v>2993.115234375</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B226" t="n">
-        <v>4043.295477619048</v>
+        <v>3972.3817975809</v>
       </c>
       <c r="C226" t="n">
-        <v>12183.44284858796</v>
+        <v>11468.66647402049</v>
       </c>
       <c r="D226" t="n">
-        <v>0.26858967</v>
+        <v>0.3316250000000001</v>
       </c>
       <c r="E226" t="n">
-        <v>0.3738939762115479</v>
+        <v>0.4612756073474884</v>
       </c>
       <c r="F226" t="n">
-        <v>753.662109375</v>
+        <v>473.73046875</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -6092,47 +6092,47 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B227" t="n">
-        <v>3883.827426903175</v>
+        <v>4907.29479683197</v>
       </c>
       <c r="C227" t="n">
-        <v>12329.25851532193</v>
+        <v>11551.70393933149</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.05766000000000003</v>
+        <v>0.1597845</v>
       </c>
       <c r="E227" t="n">
-        <v>0.4111570715904236</v>
+        <v>0.494004100561142</v>
       </c>
       <c r="F227" t="n">
-        <v>495.263671875</v>
+        <v>1442.724609375</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B228" t="n">
-        <v>3906.291441492063</v>
+        <v>3942.520153669089</v>
       </c>
       <c r="C228" t="n">
-        <v>11982.86734906411</v>
+        <v>11699.25673753205</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.05967014</v>
+        <v>-0.8898569999999999</v>
       </c>
       <c r="E228" t="n">
-        <v>0.4562970995903015</v>
+        <v>0.4643582701683044</v>
       </c>
       <c r="F228" t="n">
-        <v>624.462890625</v>
+        <v>409.130859375</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -6142,72 +6142,72 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B229" t="n">
-        <v>3869.563156555556</v>
+        <v>6136.520826101337</v>
       </c>
       <c r="C229" t="n">
-        <v>12546.66379870356</v>
+        <v>11694.71005769237</v>
       </c>
       <c r="D229" t="n">
-        <v>1.526336</v>
+        <v>-0.0290865</v>
       </c>
       <c r="E229" t="n">
-        <v>0.4465092420578003</v>
+        <v>0.4131926298141479</v>
       </c>
       <c r="F229" t="n">
-        <v>495.263671875</v>
+        <v>2928.515625</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B230" t="n">
-        <v>5816.928668492064</v>
+        <v>3970.961861323359</v>
       </c>
       <c r="C230" t="n">
-        <v>13882.71295920563</v>
+        <v>11510.14586617344</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.402047</v>
+        <v>0.8504930000000001</v>
       </c>
       <c r="E230" t="n">
-        <v>0.4197844564914703</v>
+        <v>0.46224644780159</v>
       </c>
       <c r="F230" t="n">
-        <v>2993.115234375</v>
+        <v>538.330078125</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B231" t="n">
-        <v>3887.026592503175</v>
+        <v>3931.098263747219</v>
       </c>
       <c r="C231" t="n">
-        <v>12373.03999726744</v>
+        <v>7751.840808751937</v>
       </c>
       <c r="D231" t="n">
-        <v>0.109575</v>
+        <v>-0.806961</v>
       </c>
       <c r="E231" t="n">
-        <v>0.4612756073474884</v>
+        <v>0.4818947315216064</v>
       </c>
       <c r="F231" t="n">
-        <v>473.73046875</v>
+        <v>430.6640625</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -6217,97 +6217,97 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B232" t="n">
-        <v>4582.393007055555</v>
+        <v>6114.335466921902</v>
       </c>
       <c r="C232" t="n">
-        <v>12417.33450335588</v>
+        <v>11934.11044769797</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.07709000000000001</v>
+        <v>0.008760000000000006</v>
       </c>
       <c r="E232" t="n">
-        <v>0.494004100561142</v>
+        <v>0.4708978533744812</v>
       </c>
       <c r="F232" t="n">
-        <v>1442.724609375</v>
+        <v>2756.25</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B233" t="n">
-        <v>3866.894352834921</v>
+        <v>5912.97210377136</v>
       </c>
       <c r="C233" t="n">
-        <v>12631.60451763876</v>
+        <v>11918.86692376883</v>
       </c>
       <c r="D233" t="n">
-        <v>0.637605</v>
+        <v>0.280993</v>
       </c>
       <c r="E233" t="n">
-        <v>0.4643582701683044</v>
+        <v>0.2222174108028412</v>
       </c>
       <c r="F233" t="n">
-        <v>409.130859375</v>
+        <v>2820.849609375</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B234" t="n">
-        <v>5625.456620039684</v>
+        <v>5160.240323398897</v>
       </c>
       <c r="C234" t="n">
-        <v>12534.48817316493</v>
+        <v>11796.35062259429</v>
       </c>
       <c r="D234" t="n">
-        <v>0.21746235</v>
+        <v>-0.561734</v>
       </c>
       <c r="E234" t="n">
-        <v>0.4131926298141479</v>
+        <v>0.3909539580345154</v>
       </c>
       <c r="F234" t="n">
-        <v>2928.515625</v>
+        <v>1701.123046875</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="B235" t="n">
-        <v>3885.141913087302</v>
+        <v>3960.510569199054</v>
       </c>
       <c r="C235" t="n">
-        <v>12420.96044315515</v>
+        <v>11485.4399838449</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.590302</v>
+        <v>-0.8348059999999999</v>
       </c>
       <c r="E235" t="n">
-        <v>0.46224644780159</v>
+        <v>0.5702017545700073</v>
       </c>
       <c r="F235" t="n">
-        <v>538.330078125</v>
+        <v>495.263671875</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -6317,847 +6317,847 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B236" t="n">
-        <v>3853.352232150793</v>
+        <v>7249.497098018408</v>
       </c>
       <c r="C236" t="n">
-        <v>8193.271472814438</v>
+        <v>16819.84242438313</v>
       </c>
       <c r="D236" t="n">
-        <v>0.446014</v>
+        <v>-0.128901</v>
       </c>
       <c r="E236" t="n">
-        <v>0.4818947315216064</v>
+        <v>0.5974416732788086</v>
       </c>
       <c r="F236" t="n">
-        <v>430.6640625</v>
+        <v>2088.720703125</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="B237" t="n">
-        <v>5542.562413888889</v>
+        <v>3912.005919689566</v>
       </c>
       <c r="C237" t="n">
-        <v>12814.77433870407</v>
+        <v>7711.282642101113</v>
       </c>
       <c r="D237" t="n">
-        <v>0.2005072</v>
+        <v>0.62644</v>
       </c>
       <c r="E237" t="n">
-        <v>0.4708978533744812</v>
+        <v>0.5014625787734985</v>
       </c>
       <c r="F237" t="n">
-        <v>2756.25</v>
+        <v>430.6640625</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B238" t="n">
-        <v>5555.030542103174</v>
+        <v>3891.322783630962</v>
       </c>
       <c r="C238" t="n">
-        <v>12769.40533840297</v>
+        <v>11400.44017687378</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.6632573</v>
+        <v>0.236481</v>
       </c>
       <c r="E238" t="n">
-        <v>0.2222174108028412</v>
+        <v>0.4648246765136719</v>
       </c>
       <c r="F238" t="n">
-        <v>2820.849609375</v>
+        <v>387.59765625</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Hyloxalus</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B239" t="n">
-        <v>4790.524646071429</v>
+        <v>6405.111361194972</v>
       </c>
       <c r="C239" t="n">
-        <v>12661.98118661868</v>
+        <v>11676.66614086758</v>
       </c>
       <c r="D239" t="n">
-        <v>0.273921</v>
+        <v>-0.32201</v>
       </c>
       <c r="E239" t="n">
-        <v>0.3909539580345154</v>
+        <v>0.4084689319133759</v>
       </c>
       <c r="F239" t="n">
-        <v>1701.123046875</v>
+        <v>3337.646484375</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="B240" t="n">
-        <v>3868.08911147619</v>
+        <v>5750.475956577229</v>
       </c>
       <c r="C240" t="n">
-        <v>12394.10754291502</v>
+        <v>12240.84488783147</v>
       </c>
       <c r="D240" t="n">
-        <v>0.6406559999999999</v>
+        <v>-0.025684</v>
       </c>
       <c r="E240" t="n">
-        <v>0.5702017545700073</v>
+        <v>0.3658051192760468</v>
       </c>
       <c r="F240" t="n">
-        <v>495.263671875</v>
+        <v>2411.71875</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="B241" t="n">
-        <v>6796.305995119047</v>
+        <v>6717.995159832659</v>
       </c>
       <c r="C241" t="n">
-        <v>18113.9774281941</v>
+        <v>9482.05016599084</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.2386615</v>
+        <v>-0.4968939999999999</v>
       </c>
       <c r="E241" t="n">
-        <v>0.5974416732788086</v>
+        <v>0.3677509427070618</v>
       </c>
       <c r="F241" t="n">
-        <v>2088.720703125</v>
+        <v>4823.4375</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="B242" t="n">
-        <v>3831.823590603174</v>
+        <v>6248.926423243893</v>
       </c>
       <c r="C242" t="n">
-        <v>8150.559985851113</v>
+        <v>12246.37686730142</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.488982</v>
+        <v>0.062614</v>
       </c>
       <c r="E242" t="n">
-        <v>0.5014625787734985</v>
+        <v>0.3586937189102173</v>
       </c>
       <c r="F242" t="n">
-        <v>430.6640625</v>
+        <v>3014.6484375</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="B243" t="n">
-        <v>3812.921991214286</v>
+        <v>5954.676943084976</v>
       </c>
       <c r="C243" t="n">
-        <v>12300.51126109634</v>
+        <v>11285.5986908455</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.196173</v>
+        <v>0.309994</v>
       </c>
       <c r="E243" t="n">
-        <v>0.4648246765136719</v>
+        <v>0.5131331086158752</v>
       </c>
       <c r="F243" t="n">
-        <v>387.59765625</v>
+        <v>2950.048828125</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Hyloxalus</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="B244" t="n">
-        <v>5817.140663412698</v>
+        <v>5136.380207641731</v>
       </c>
       <c r="C244" t="n">
-        <v>12512.10820451087</v>
+        <v>12429.79659055492</v>
       </c>
       <c r="D244" t="n">
-        <v>0.1193644</v>
+        <v>-0.1925948</v>
       </c>
       <c r="E244" t="n">
-        <v>0.4084689319133759</v>
+        <v>0.3260004818439484</v>
       </c>
       <c r="F244" t="n">
-        <v>3337.646484375</v>
+        <v>1507.32421875</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="B245" t="n">
-        <v>5294.949601555555</v>
+        <v>5921.045948218459</v>
       </c>
       <c r="C245" t="n">
-        <v>13138.72693813635</v>
+        <v>12754.12608689178</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.2212012</v>
+        <v>0.006867899999999997</v>
       </c>
       <c r="E245" t="n">
-        <v>0.3658051192760468</v>
+        <v>0.3752983510494232</v>
       </c>
       <c r="F245" t="n">
-        <v>2411.71875</v>
+        <v>2217.919921875</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="B246" t="n">
-        <v>5991.531871587302</v>
+        <v>6203.192599047895</v>
       </c>
       <c r="C246" t="n">
-        <v>10052.64433519816</v>
+        <v>11726.23659727319</v>
       </c>
       <c r="D246" t="n">
-        <v>0.437589</v>
+        <v>0.0425392</v>
       </c>
       <c r="E246" t="n">
-        <v>0.3677509427070618</v>
+        <v>0.3936578035354614</v>
       </c>
       <c r="F246" t="n">
-        <v>4823.4375</v>
+        <v>3100.78125</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="B247" t="n">
-        <v>5780.885834603174</v>
+        <v>5631.127945754144</v>
       </c>
       <c r="C247" t="n">
-        <v>13144.2589176063</v>
+        <v>11939.64215156181</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.2269314</v>
+        <v>0.2529775</v>
       </c>
       <c r="E247" t="n">
-        <v>0.3586937189102173</v>
+        <v>0.3363303244113922</v>
       </c>
       <c r="F247" t="n">
-        <v>3014.6484375</v>
+        <v>2282.51953125</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="B248" t="n">
-        <v>5385.195845674602</v>
+        <v>5920.533703191933</v>
       </c>
       <c r="C248" t="n">
-        <v>12077.98695304062</v>
+        <v>12668.60189005317</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.278141</v>
+        <v>0.474382</v>
       </c>
       <c r="E248" t="n">
-        <v>0.5131331086158752</v>
+        <v>0.381014496088028</v>
       </c>
       <c r="F248" t="n">
-        <v>2950.048828125</v>
+        <v>2217.919921875</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="B249" t="n">
-        <v>4806.332272634921</v>
+        <v>6213.865638876971</v>
       </c>
       <c r="C249" t="n">
-        <v>13368.61063400005</v>
+        <v>12015.29267251713</v>
       </c>
       <c r="D249" t="n">
-        <v>0.2069695</v>
+        <v>-0.0852769</v>
       </c>
       <c r="E249" t="n">
-        <v>0.3260004818439484</v>
+        <v>0.4283446967601776</v>
       </c>
       <c r="F249" t="n">
-        <v>1507.32421875</v>
+        <v>2885.44921875</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B250" t="n">
-        <v>5483.865965119048</v>
+        <v>6060.406660476212</v>
       </c>
       <c r="C250" t="n">
-        <v>13705.87265701373</v>
+        <v>11975.06988282642</v>
       </c>
       <c r="D250" t="n">
-        <v>0.06223731000000001</v>
+        <v>-0.3021668</v>
       </c>
       <c r="E250" t="n">
-        <v>0.3752983510494232</v>
+        <v>0.3728378117084503</v>
       </c>
       <c r="F250" t="n">
-        <v>2217.919921875</v>
+        <v>2756.25</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B251" t="n">
-        <v>5693.883397023809</v>
+        <v>5643.916333167292</v>
       </c>
       <c r="C251" t="n">
-        <v>12559.54424780673</v>
+        <v>11734.18612257767</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.1203568</v>
+        <v>-0.2054215</v>
       </c>
       <c r="E251" t="n">
-        <v>0.3936578035354614</v>
+        <v>0.3864788115024567</v>
       </c>
       <c r="F251" t="n">
-        <v>3100.78125</v>
+        <v>2325.5859375</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="B252" t="n">
-        <v>5222.919533650793</v>
+        <v>6187.555283756743</v>
       </c>
       <c r="C252" t="n">
-        <v>12811.71797092156</v>
+        <v>12744.8574432067</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.006539099999999978</v>
+        <v>-0.469397</v>
       </c>
       <c r="E252" t="n">
-        <v>0.3363303244113922</v>
+        <v>0.3525626063346863</v>
       </c>
       <c r="F252" t="n">
-        <v>2282.51953125</v>
+        <v>2605.517578125</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="B253" t="n">
-        <v>5500.066234603175</v>
+        <v>5063.408048123566</v>
       </c>
       <c r="C253" t="n">
-        <v>13624.65510080013</v>
+        <v>12960.49688576488</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.542073</v>
+        <v>-0.5889848</v>
       </c>
       <c r="E253" t="n">
-        <v>0.381014496088028</v>
+        <v>0.4931949973106384</v>
       </c>
       <c r="F253" t="n">
-        <v>2217.919921875</v>
+        <v>1399.658203125</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="B254" t="n">
-        <v>5712.541741428569</v>
+        <v>3087.487811202635</v>
       </c>
       <c r="C254" t="n">
-        <v>12878.76361382811</v>
+        <v>5335.510193088303</v>
       </c>
       <c r="D254" t="n">
-        <v>0.0437585</v>
+        <v>0.1974002</v>
       </c>
       <c r="E254" t="n">
-        <v>0.4283446967601776</v>
+        <v>0.5518948435783386</v>
       </c>
       <c r="F254" t="n">
-        <v>2885.44921875</v>
+        <v>1614.990234375</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Henicorhina leucosticta</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="B255" t="n">
-        <v>5588.709988055556</v>
+        <v>3019.56610550384</v>
       </c>
       <c r="C255" t="n">
-        <v>12844.99028107337</v>
+        <v>5735.205265436666</v>
       </c>
       <c r="D255" t="n">
-        <v>0.443574</v>
+        <v>0.0247785</v>
       </c>
       <c r="E255" t="n">
-        <v>0.3728378117084503</v>
+        <v>0.4762373268604279</v>
       </c>
       <c r="F255" t="n">
-        <v>2756.25</v>
+        <v>1485.791015625</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Henicorhina leucosticta</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="B256" t="n">
-        <v>5188.438001603174</v>
+        <v>5712.544860488169</v>
       </c>
       <c r="C256" t="n">
-        <v>12580.43050138864</v>
+        <v>9291.068777654304</v>
       </c>
       <c r="D256" t="n">
-        <v>0.1176567</v>
+        <v>-0.194585</v>
       </c>
       <c r="E256" t="n">
-        <v>0.3864788115024567</v>
+        <v>0.516711950302124</v>
       </c>
       <c r="F256" t="n">
-        <v>2325.5859375</v>
+        <v>3079.248046875</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="B257" t="n">
-        <v>5725.581447103174</v>
+        <v>6144.320147795942</v>
       </c>
       <c r="C257" t="n">
-        <v>13692.28476790183</v>
+        <v>9535.116326748906</v>
       </c>
       <c r="D257" t="n">
-        <v>0.5247120000000001</v>
+        <v>-0.02853399999999999</v>
       </c>
       <c r="E257" t="n">
-        <v>0.3525626063346863</v>
+        <v>0.585009753704071</v>
       </c>
       <c r="F257" t="n">
-        <v>2605.517578125</v>
+        <v>3552.978515625</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="B258" t="n">
-        <v>4735.546292234922</v>
+        <v>3563.395914750885</v>
       </c>
       <c r="C258" t="n">
-        <v>13978.91025276183</v>
+        <v>5613.022911296396</v>
       </c>
       <c r="D258" t="n">
-        <v>0.785479</v>
+        <v>0.1716195</v>
       </c>
       <c r="E258" t="n">
-        <v>0.4931949973106384</v>
+        <v>0.4687930941581726</v>
       </c>
       <c r="F258" t="n">
-        <v>1399.658203125</v>
+        <v>2110.25390625</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Henicorhina leucosticta</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="B259" t="n">
-        <v>2702.709333222222</v>
+        <v>5672.127119540486</v>
       </c>
       <c r="C259" t="n">
-        <v>5705.868682036474</v>
+        <v>9878.78954960489</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.1992355</v>
+        <v>0.1680675</v>
       </c>
       <c r="E259" t="n">
-        <v>0.5518948435783386</v>
+        <v>0.5628640651702881</v>
       </c>
       <c r="F259" t="n">
-        <v>1614.990234375</v>
+        <v>2993.115234375</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>Henicorhina leucosticta</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="B260" t="n">
-        <v>2668.297278444445</v>
+        <v>5765.601994565728</v>
       </c>
       <c r="C260" t="n">
-        <v>6135.697633958007</v>
+        <v>10007.45142248032</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.26121065</v>
+        <v>0.1001665</v>
       </c>
       <c r="E260" t="n">
-        <v>0.4762373268604279</v>
+        <v>0.5198061466217041</v>
       </c>
       <c r="F260" t="n">
-        <v>1485.791015625</v>
+        <v>3100.78125</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>Henicorhina leucosticta</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="B261" t="n">
-        <v>4938.493269246032</v>
+        <v>5687.064446897039</v>
       </c>
       <c r="C261" t="n">
-        <v>9915.527466678694</v>
+        <v>9890.945218785793</v>
       </c>
       <c r="D261" t="n">
-        <v>0.1662169</v>
+        <v>-0.2907028</v>
       </c>
       <c r="E261" t="n">
-        <v>0.516711950302124</v>
+        <v>0.5566231608390808</v>
       </c>
       <c r="F261" t="n">
         <v>3079.248046875</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="B262" t="n">
-        <v>5160.805105238096</v>
+        <v>5522.849985181072</v>
       </c>
       <c r="C262" t="n">
-        <v>10146.62988429464</v>
+        <v>10098.54375014606</v>
       </c>
       <c r="D262" t="n">
-        <v>0.2215402</v>
+        <v>0.1978245</v>
       </c>
       <c r="E262" t="n">
-        <v>0.585009753704071</v>
+        <v>0.532808780670166</v>
       </c>
       <c r="F262" t="n">
-        <v>3552.978515625</v>
+        <v>2906.982421875</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="B263" t="n">
-        <v>3135.471179849207</v>
+        <v>5669.75165877504</v>
       </c>
       <c r="C263" t="n">
-        <v>5983.389803445787</v>
+        <v>10224.45927911714</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.1308198</v>
+        <v>-0.2986295</v>
       </c>
       <c r="E263" t="n">
-        <v>0.4687930941581726</v>
+        <v>0.5040261149406433</v>
       </c>
       <c r="F263" t="n">
-        <v>2110.25390625</v>
+        <v>3122.314453125</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Henicorhina leucosticta</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="B264" t="n">
-        <v>4917.828401349206</v>
+        <v>5699.731812327169</v>
       </c>
       <c r="C264" t="n">
-        <v>10537.68035562623</v>
+        <v>15713.98531050817</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.1018552</v>
+        <v>-0.134384</v>
       </c>
       <c r="E264" t="n">
-        <v>0.5628640651702881</v>
+        <v>0.2996820211410522</v>
       </c>
       <c r="F264" t="n">
-        <v>2993.115234375</v>
+        <v>904.39453125</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Saltator maximus</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B265" t="n">
-        <v>5004.00726686508</v>
+        <v>5820.733034190718</v>
       </c>
       <c r="C265" t="n">
-        <v>10666.34222850166</v>
+        <v>9935.180826802984</v>
       </c>
       <c r="D265" t="n">
-        <v>0.001927900000000003</v>
+        <v>-0.0410635</v>
       </c>
       <c r="E265" t="n">
-        <v>0.5198061466217041</v>
+        <v>0.6519854068756104</v>
       </c>
       <c r="F265" t="n">
-        <v>3100.78125</v>
+        <v>3014.6484375</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="B266" t="n">
-        <v>4968.7623809127</v>
+        <v>5739.723424059246</v>
       </c>
       <c r="C266" t="n">
-        <v>10524.01718906019</v>
+        <v>9635.407091949797</v>
       </c>
       <c r="D266" t="n">
-        <v>0.323554</v>
+        <v>-0.179239</v>
       </c>
       <c r="E266" t="n">
-        <v>0.5566231608390808</v>
+        <v>0.6357070207595825</v>
       </c>
       <c r="F266" t="n">
-        <v>3079.248046875</v>
+        <v>2993.115234375</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="B267" t="n">
-        <v>4863.811602928571</v>
+        <v>5748.094548282459</v>
       </c>
       <c r="C267" t="n">
-        <v>10783.25339191435</v>
+        <v>9685.828654400237</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.0838868</v>
+        <v>0.06474850000000001</v>
       </c>
       <c r="E267" t="n">
-        <v>0.532808780670166</v>
+        <v>0.5949224233627319</v>
       </c>
       <c r="F267" t="n">
-        <v>2906.982421875</v>
+        <v>2971.58203125</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="B268" t="n">
-        <v>4968.584887896825</v>
+        <v>5899.087141284792</v>
       </c>
       <c r="C268" t="n">
-        <v>10907.0008949708</v>
+        <v>10246.68354176734</v>
       </c>
       <c r="D268" t="n">
-        <v>0.04785089999999999</v>
+        <v>0.349066</v>
       </c>
       <c r="E268" t="n">
-        <v>0.5040261149406433</v>
+        <v>0.5870410799980164</v>
       </c>
       <c r="F268" t="n">
         <v>3122.314453125</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="B269" t="n">
-        <v>5569.391192349207</v>
+        <v>6223.87847869669</v>
       </c>
       <c r="C269" t="n">
-        <v>16945.66772285574</v>
+        <v>15863.98506772847</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.1876647</v>
+        <v>-0.359791</v>
       </c>
       <c r="E269" t="n">
-        <v>0.2996820211410522</v>
+        <v>0.1923637390136719</v>
       </c>
       <c r="F269" t="n">
-        <v>904.39453125</v>
+        <v>1442.724609375</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -7167,272 +7167,272 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="B270" t="n">
-        <v>4971.693669484126</v>
+        <v>5873.16390134148</v>
       </c>
       <c r="C270" t="n">
-        <v>10626.34832870847</v>
+        <v>11448.39047595905</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.0265744</v>
+        <v>0.3113002</v>
       </c>
       <c r="E270" t="n">
-        <v>0.6519854068756104</v>
+        <v>0.5193952322006226</v>
       </c>
       <c r="F270" t="n">
-        <v>3014.6484375</v>
+        <v>2906.982421875</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B271" t="n">
-        <v>4970.389951071429</v>
+        <v>3276.129234840475</v>
       </c>
       <c r="C271" t="n">
-        <v>10287.85684423638</v>
+        <v>4748.456037197102</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.0728669</v>
+        <v>0.335511</v>
       </c>
       <c r="E271" t="n">
-        <v>0.6357070207595825</v>
+        <v>0.4440512657165527</v>
       </c>
       <c r="F271" t="n">
-        <v>2993.115234375</v>
+        <v>2088.720703125</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Henicorhina leucosticta</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B272" t="n">
-        <v>4899.460739801587</v>
+        <v>5777.614164385218</v>
       </c>
       <c r="C272" t="n">
-        <v>10344.71946042158</v>
+        <v>10201.51246111532</v>
       </c>
       <c r="D272" t="n">
-        <v>0.0169689</v>
+        <v>-0.1085065</v>
       </c>
       <c r="E272" t="n">
-        <v>0.5949224233627319</v>
+        <v>0.5513631105422974</v>
       </c>
       <c r="F272" t="n">
-        <v>2971.58203125</v>
+        <v>3014.6484375</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B273" t="n">
-        <v>5070.909540039683</v>
+        <v>5744.54153477013</v>
       </c>
       <c r="C273" t="n">
-        <v>10940.00646478563</v>
+        <v>10025.12111463818</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.247753</v>
+        <v>0.394247</v>
       </c>
       <c r="E273" t="n">
-        <v>0.5870410799980164</v>
+        <v>0.5347734093666077</v>
       </c>
       <c r="F273" t="n">
-        <v>3122.314453125</v>
+        <v>3208.447265625</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="B274" t="n">
-        <v>6019.54251931746</v>
+        <v>5676.190641633527</v>
       </c>
       <c r="C274" t="n">
-        <v>17087.06680362786</v>
+        <v>9351.315310204729</v>
       </c>
       <c r="D274" t="n">
-        <v>0.653089</v>
+        <v>-0.2650816</v>
       </c>
       <c r="E274" t="n">
-        <v>0.1923637390136719</v>
+        <v>0.5866594910621643</v>
       </c>
       <c r="F274" t="n">
-        <v>1442.724609375</v>
+        <v>3079.248046875</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Saltator maximus</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="B275" t="n">
-        <v>5207.769640039684</v>
+        <v>3090.474041851321</v>
       </c>
       <c r="C275" t="n">
-        <v>12236.44268632491</v>
+        <v>4882.98741215948</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.35217</v>
+        <v>0.437252</v>
       </c>
       <c r="E275" t="n">
-        <v>0.5193952322006226</v>
+        <v>0.4450651705265045</v>
       </c>
       <c r="F275" t="n">
-        <v>2906.982421875</v>
+        <v>1873.388671875</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Henicorhina leucosticta</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="B276" t="n">
-        <v>2805.403507460317</v>
+        <v>6011.15582003637</v>
       </c>
       <c r="C276" t="n">
-        <v>5058.513154194054</v>
+        <v>9615.179144161146</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.5731160000000001</v>
+        <v>-0.09645480000000001</v>
       </c>
       <c r="E276" t="n">
-        <v>0.4440512657165527</v>
+        <v>0.5460129976272583</v>
       </c>
       <c r="F276" t="n">
-        <v>2088.720703125</v>
+        <v>3251.513671875</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Henicorhina leucosticta</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="B277" t="n">
-        <v>5054.868079444444</v>
+        <v>5773.389577620855</v>
       </c>
       <c r="C277" t="n">
-        <v>10879.79365395068</v>
+        <v>10178.19124458275</v>
       </c>
       <c r="D277" t="n">
-        <v>0.0632527</v>
+        <v>0.4793926</v>
       </c>
       <c r="E277" t="n">
-        <v>0.5513631105422974</v>
+        <v>0.498643159866333</v>
       </c>
       <c r="F277" t="n">
-        <v>3014.6484375</v>
+        <v>2993.115234375</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="B278" t="n">
-        <v>5002.741611944445</v>
+        <v>5878.105653464961</v>
       </c>
       <c r="C278" t="n">
-        <v>10686.14213216866</v>
+        <v>16026.33179180862</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.334493</v>
+        <v>-0.07884200000000002</v>
       </c>
       <c r="E278" t="n">
-        <v>0.5347734093666077</v>
+        <v>0.2393325716257095</v>
       </c>
       <c r="F278" t="n">
-        <v>3208.447265625</v>
+        <v>1012.060546875</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Saltator maximus</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="B279" t="n">
-        <v>4866.194670674604</v>
+        <v>7048.329973402173</v>
       </c>
       <c r="C279" t="n">
-        <v>9973.605973314483</v>
+        <v>10693.43662344269</v>
       </c>
       <c r="D279" t="n">
-        <v>0.322711</v>
+        <v>0.05827700000000001</v>
       </c>
       <c r="E279" t="n">
-        <v>0.5866594910621643</v>
+        <v>0.4518710970878601</v>
       </c>
       <c r="F279" t="n">
-        <v>3079.248046875</v>
+        <v>4651.171875</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="B280" t="n">
-        <v>2649.026462992064</v>
+        <v>3672.604648603334</v>
       </c>
       <c r="C280" t="n">
-        <v>5210.258486854602</v>
+        <v>4824.590924649537</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.755655</v>
+        <v>-0.3793238</v>
       </c>
       <c r="E280" t="n">
-        <v>0.4450651705265045</v>
+        <v>0.3910621106624603</v>
       </c>
       <c r="F280" t="n">
-        <v>1873.388671875</v>
+        <v>2497.8515625</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -7442,72 +7442,72 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B281" t="n">
-        <v>5073.07590670635</v>
+        <v>6123.266116291845</v>
       </c>
       <c r="C281" t="n">
-        <v>10246.09149172212</v>
+        <v>9714.352287903886</v>
       </c>
       <c r="D281" t="n">
-        <v>0.1234379</v>
+        <v>-0.04214149999999998</v>
       </c>
       <c r="E281" t="n">
-        <v>0.5460129976272583</v>
+        <v>0.4740928113460541</v>
       </c>
       <c r="F281" t="n">
-        <v>3251.513671875</v>
+        <v>3725.244140625</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B282" t="n">
-        <v>5002.030097976191</v>
+        <v>5825.876114310659</v>
       </c>
       <c r="C282" t="n">
-        <v>10862.91769275348</v>
+        <v>10077.20296229873</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.63263</v>
+        <v>0.241006</v>
       </c>
       <c r="E282" t="n">
-        <v>0.498643159866333</v>
+        <v>0.518409252166748</v>
       </c>
       <c r="F282" t="n">
-        <v>2993.115234375</v>
+        <v>3100.78125</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B283" t="n">
-        <v>5758.713156865079</v>
+        <v>5781.103307096087</v>
       </c>
       <c r="C283" t="n">
-        <v>17288.15648693057</v>
+        <v>16514.53564007355</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.1922714</v>
+        <v>-0.001470999999999993</v>
       </c>
       <c r="E283" t="n">
-        <v>0.2393325716257095</v>
+        <v>0.2294644415378571</v>
       </c>
       <c r="F283" t="n">
-        <v>1012.060546875</v>
+        <v>796.728515625</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -7517,172 +7517,172 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B284" t="n">
-        <v>6218.9650625</v>
+        <v>5871.573265215639</v>
       </c>
       <c r="C284" t="n">
-        <v>11330.80683114086</v>
+        <v>9697.833401472823</v>
       </c>
       <c r="D284" t="n">
-        <v>0.09016159999999999</v>
+        <v>0.357463</v>
       </c>
       <c r="E284" t="n">
-        <v>0.4518710970878601</v>
+        <v>0.6173584461212158</v>
       </c>
       <c r="F284" t="n">
-        <v>4651.171875</v>
+        <v>3294.580078125</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Call bird 1</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B285" t="n">
-        <v>3134.190874960317</v>
+        <v>8882.331134207838</v>
       </c>
       <c r="C285" t="n">
-        <v>5138.950480670877</v>
+        <v>15135.90189249801</v>
       </c>
       <c r="D285" t="n">
-        <v>0.574191</v>
+        <v>-0.02092700000000002</v>
       </c>
       <c r="E285" t="n">
-        <v>0.3910621106624603</v>
+        <v>0.4455823004245758</v>
       </c>
       <c r="F285" t="n">
-        <v>2497.8515625</v>
+        <v>5211.03515625</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Henicorhina leucosticta</t>
+          <t>Coereba flaveola</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="B286" t="n">
-        <v>5296.364132539682</v>
+        <v>8853.840841299012</v>
       </c>
       <c r="C286" t="n">
-        <v>10302.20243081547</v>
+        <v>16476.18913715635</v>
       </c>
       <c r="D286" t="n">
-        <v>0.27752725</v>
+        <v>0.207687</v>
       </c>
       <c r="E286" t="n">
-        <v>0.4740928113460541</v>
+        <v>0.4441018402576447</v>
       </c>
       <c r="F286" t="n">
-        <v>3725.244140625</v>
+        <v>4629.638671875</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Coereba flaveola</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="B287" t="n">
-        <v>5053.954099444444</v>
+        <v>6335.941879175038</v>
       </c>
       <c r="C287" t="n">
-        <v>10744.71125117068</v>
+        <v>15243.11536884655</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.191249</v>
+        <v>-0.6464930000000001</v>
       </c>
       <c r="E287" t="n">
-        <v>0.518409252166748</v>
+        <v>0.5523778200149536</v>
       </c>
       <c r="F287" t="n">
-        <v>3100.78125</v>
+        <v>1851.85546875</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="B288" t="n">
-        <v>5669.181772428571</v>
+        <v>8850.663866182284</v>
       </c>
       <c r="C288" t="n">
-        <v>17836.61548954001</v>
+        <v>16427.06205080697</v>
       </c>
       <c r="D288" t="n">
-        <v>0.4673678</v>
+        <v>-0.104929</v>
       </c>
       <c r="E288" t="n">
-        <v>0.2294644415378571</v>
+        <v>0.3745413720607758</v>
       </c>
       <c r="F288" t="n">
-        <v>796.728515625</v>
+        <v>4737.3046875</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>Saltator maximus</t>
+          <t>Coereba flaveola</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="B289" t="n">
-        <v>5004.425249722222</v>
+        <v>7979.391488734329</v>
       </c>
       <c r="C289" t="n">
-        <v>10350.23273455209</v>
+        <v>23946.1663478202</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.207616</v>
+        <v>-0.3734175</v>
       </c>
       <c r="E289" t="n">
-        <v>0.6173584461212158</v>
+        <v>0.3357652127742767</v>
       </c>
       <c r="F289" t="n">
-        <v>3294.580078125</v>
+        <v>473.73046875</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Posible ave 1</t>
+          <t>Saltator maximus</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="B290" t="n">
-        <v>7884.78537202381</v>
+        <v>13648.47736815174</v>
       </c>
       <c r="C290" t="n">
-        <v>16205.96133419008</v>
+        <v>37764.69599414866</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.3106265</v>
+        <v>5.27684</v>
       </c>
       <c r="E290" t="n">
-        <v>0.4455823004245758</v>
+        <v>0.6234560608863831</v>
       </c>
       <c r="F290" t="n">
-        <v>5211.03515625</v>
+        <v>2131.787109375</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -7692,72 +7692,72 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="B291" t="n">
-        <v>8102.683274285714</v>
+        <v>7127.982084584288</v>
       </c>
       <c r="C291" t="n">
-        <v>17632.46542336062</v>
+        <v>16060.43233395796</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.6479373</v>
+        <v>-0.01294259999999999</v>
       </c>
       <c r="E291" t="n">
-        <v>0.4441018402576447</v>
+        <v>0.428424745798111</v>
       </c>
       <c r="F291" t="n">
-        <v>4629.638671875</v>
+        <v>2454.78515625</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Coereba flaveola</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>732</v>
+        <v>758</v>
       </c>
       <c r="B292" t="n">
-        <v>5897.110418134921</v>
+        <v>5908.182171616236</v>
       </c>
       <c r="C292" t="n">
-        <v>16375.73664361789</v>
+        <v>12319.33665783782</v>
       </c>
       <c r="D292" t="n">
-        <v>0.219272</v>
+        <v>-0.05826199999999999</v>
       </c>
       <c r="E292" t="n">
-        <v>0.5523778200149536</v>
+        <v>0.4778189063072205</v>
       </c>
       <c r="F292" t="n">
-        <v>1851.85546875</v>
+        <v>2368.65234375</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>736</v>
+        <v>761</v>
       </c>
       <c r="B293" t="n">
-        <v>8138.091548888889</v>
+        <v>8952.491519961628</v>
       </c>
       <c r="C293" t="n">
-        <v>17587.6281712338</v>
+        <v>18058.63343489179</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.3080786</v>
+        <v>-0.01409300000000005</v>
       </c>
       <c r="E293" t="n">
-        <v>0.3745413720607758</v>
+        <v>0.3147821128368378</v>
       </c>
       <c r="F293" t="n">
-        <v>4737.3046875</v>
+        <v>4457.373046875</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -7767,147 +7767,147 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>741</v>
+        <v>766</v>
       </c>
       <c r="B294" t="n">
-        <v>7069.683359285715</v>
+        <v>8747.788908669112</v>
       </c>
       <c r="C294" t="n">
-        <v>13286.64001283514</v>
+        <v>14692.75949715691</v>
       </c>
       <c r="D294" t="n">
-        <v>-2.463969</v>
+        <v>0.518972</v>
       </c>
       <c r="E294" t="n">
-        <v>0.4338502883911133</v>
+        <v>0.3000274002552032</v>
       </c>
       <c r="F294" t="n">
-        <v>5318.701171875</v>
+        <v>5534.033203125</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Thraupidae</t>
+          <t>Coereba flaveola</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>743</v>
+        <v>771</v>
       </c>
       <c r="B295" t="n">
-        <v>7909.542242698413</v>
+        <v>5750.367755759155</v>
       </c>
       <c r="C295" t="n">
-        <v>25849.68469766776</v>
+        <v>11372.62164106727</v>
       </c>
       <c r="D295" t="n">
-        <v>0.07979909999999998</v>
+        <v>0.0005010000000000014</v>
       </c>
       <c r="E295" t="n">
-        <v>0.3357652127742767</v>
+        <v>0.5231661200523376</v>
       </c>
       <c r="F295" t="n">
-        <v>473.73046875</v>
+        <v>2519.384765625</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Saltator maximus</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>744</v>
+        <v>772</v>
       </c>
       <c r="B296" t="n">
-        <v>13123.43084379365</v>
+        <v>5731.626487369891</v>
       </c>
       <c r="C296" t="n">
-        <v>40774.88653340171</v>
+        <v>16287.71535381224</v>
       </c>
       <c r="D296" t="n">
-        <v>-8.13219</v>
+        <v>-0.9926969999999999</v>
       </c>
       <c r="E296" t="n">
-        <v>0.6234560608863831</v>
+        <v>0.1655763536691666</v>
       </c>
       <c r="F296" t="n">
-        <v>2131.787109375</v>
+        <v>839.794921875</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Coereba flaveola</t>
+          <t>Saltator maximus</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="B297" t="n">
-        <v>6712.41752452381</v>
+        <v>5869.725292408807</v>
       </c>
       <c r="C297" t="n">
-        <v>17270.57734157991</v>
+        <v>12737.26272786087</v>
       </c>
       <c r="D297" t="n">
-        <v>0.16437512</v>
+        <v>-0.081201</v>
       </c>
       <c r="E297" t="n">
-        <v>0.428424745798111</v>
+        <v>0.5504520535469055</v>
       </c>
       <c r="F297" t="n">
-        <v>2454.78515625</v>
+        <v>2110.25390625</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Call bird 2</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="B298" t="n">
-        <v>5482.22479902381</v>
+        <v>8964.815735390823</v>
       </c>
       <c r="C298" t="n">
-        <v>13245.23918260916</v>
+        <v>13674.03986469809</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.2217572</v>
+        <v>0.0518135</v>
       </c>
       <c r="E298" t="n">
-        <v>0.4778189063072205</v>
+        <v>0.3902859687805176</v>
       </c>
       <c r="F298" t="n">
-        <v>2368.65234375</v>
+        <v>5792.431640625</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Coereba flaveola</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="B299" t="n">
-        <v>8309.164715793653</v>
+        <v>8610.255929012272</v>
       </c>
       <c r="C299" t="n">
-        <v>19415.05716774239</v>
+        <v>17451.85474748125</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.5712514</v>
+        <v>0.07470900000000001</v>
       </c>
       <c r="E299" t="n">
-        <v>0.3147821128368378</v>
+        <v>0.398851066827774</v>
       </c>
       <c r="F299" t="n">
-        <v>4457.373046875</v>
+        <v>4091.30859375</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -7917,244 +7917,244 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c r="B300" t="n">
-        <v>7949.218211071428</v>
+        <v>5965.279312362191</v>
       </c>
       <c r="C300" t="n">
-        <v>15648.75808709593</v>
+        <v>16715.01951354703</v>
       </c>
       <c r="D300" t="n">
-        <v>-1.174122</v>
+        <v>0.0261848</v>
       </c>
       <c r="E300" t="n">
-        <v>0.3000274002552032</v>
+        <v>0.4356667101383209</v>
       </c>
       <c r="F300" t="n">
-        <v>5534.033203125</v>
+        <v>796.728515625</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Coereba flaveola</t>
+          <t>Saltator maximus</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="B301" t="n">
-        <v>5243.498773992063</v>
+        <v>2775.22434861342</v>
       </c>
       <c r="C301" t="n">
-        <v>12197.32861515264</v>
+        <v>4854.297963810617</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.08575985</v>
+        <v>0.7448790000000001</v>
       </c>
       <c r="E301" t="n">
-        <v>0.5231661200523376</v>
+        <v>0.2779751121997833</v>
       </c>
       <c r="F301" t="n">
-        <v>2519.384765625</v>
+        <v>581.396484375</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Diasporus gularis</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="B302" t="n">
-        <v>5651.640946385715</v>
+        <v>2738.818481950446</v>
       </c>
       <c r="C302" t="n">
-        <v>17577.51430579394</v>
+        <v>7648.513769720816</v>
       </c>
       <c r="D302" t="n">
-        <v>0.7153160000000001</v>
+        <v>0.819006</v>
       </c>
       <c r="E302" t="n">
-        <v>0.1655763536691666</v>
+        <v>0.3085907995700836</v>
       </c>
       <c r="F302" t="n">
-        <v>839.794921875</v>
+        <v>473.73046875</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Saltator maximus</t>
+          <t>Diasporus gularis</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="B303" t="n">
-        <v>5414.688396071429</v>
+        <v>3598.357912327454</v>
       </c>
       <c r="C303" t="n">
-        <v>13704.0720361688</v>
+        <v>9813.914739744392</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.1492498</v>
+        <v>0.190339</v>
       </c>
       <c r="E303" t="n">
-        <v>0.5504520535469055</v>
+        <v>0.5519975423812866</v>
       </c>
       <c r="F303" t="n">
-        <v>2110.25390625</v>
+        <v>538.330078125</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Llamado ave 2</t>
+          <t>Diasporus gularis</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>785</v>
+        <v>812</v>
       </c>
       <c r="B304" t="n">
-        <v>8019.411464500001</v>
+        <v>2770.83296384957</v>
       </c>
       <c r="C304" t="n">
-        <v>14535.35118329565</v>
+        <v>7311.171763575071</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.5272463500000001</v>
+        <v>0.4186284</v>
       </c>
       <c r="E304" t="n">
-        <v>0.3902859687805176</v>
+        <v>0.3238067328929901</v>
       </c>
       <c r="F304" t="n">
-        <v>5792.431640625</v>
+        <v>538.330078125</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Coereba flaveola</t>
+          <t>Diasporus gularis</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>792</v>
+        <v>815</v>
       </c>
       <c r="B305" t="n">
-        <v>7963.738550854126</v>
+        <v>2825.697630540722</v>
       </c>
       <c r="C305" t="n">
-        <v>18722.21709504222</v>
+        <v>7432.278164214724</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.455214</v>
+        <v>-0.003697000000000013</v>
       </c>
       <c r="E305" t="n">
-        <v>0.398851066827774</v>
+        <v>0.2308726161718369</v>
       </c>
       <c r="F305" t="n">
-        <v>4091.30859375</v>
+        <v>689.0625</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Coereba flaveola</t>
+          <t>Diasporus gularis</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>793</v>
+        <v>819</v>
       </c>
       <c r="B306" t="n">
-        <v>8382.229305912699</v>
+        <v>2717.767649259996</v>
       </c>
       <c r="C306" t="n">
-        <v>23945.63857386464</v>
+        <v>7247.616935694354</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.1075147</v>
+        <v>0.01480479999999998</v>
       </c>
       <c r="E306" t="n">
-        <v>0.4127119481563568</v>
+        <v>0.2862644493579865</v>
       </c>
       <c r="F306" t="n">
-        <v>2648.583984375</v>
+        <v>473.73046875</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Thraupidae</t>
+          <t>Diasporus gularis</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>797</v>
+        <v>826</v>
       </c>
       <c r="B307" t="n">
-        <v>3288.391155047619</v>
+        <v>2718.596129462549</v>
       </c>
       <c r="C307" t="n">
-        <v>9027.984936189072</v>
+        <v>7528.149762282407</v>
       </c>
       <c r="D307" t="n">
-        <v>0.1241155</v>
+        <v>-0.471456</v>
       </c>
       <c r="E307" t="n">
-        <v>0.2237799763679504</v>
+        <v>0.3144614696502686</v>
       </c>
       <c r="F307" t="n">
-        <v>1227.392578125</v>
+        <v>473.73046875</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Myiopagis viridicata</t>
+          <t>Diasporus gularis</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>800</v>
+        <v>828</v>
       </c>
       <c r="B308" t="n">
-        <v>5825.847243880951</v>
+        <v>2714.723591001177</v>
       </c>
       <c r="C308" t="n">
-        <v>18037.13717741898</v>
+        <v>7286.696137600215</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.07606277</v>
+        <v>-0.566244</v>
       </c>
       <c r="E308" t="n">
-        <v>0.4356667101383209</v>
+        <v>0.2780390381813049</v>
       </c>
       <c r="F308" t="n">
-        <v>796.728515625</v>
+        <v>516.796875</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Saltator maximus</t>
+          <t>Diasporus gularis</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>803</v>
+        <v>836</v>
       </c>
       <c r="B309" t="n">
-        <v>2648.473440960317</v>
+        <v>2759.867716883048</v>
       </c>
       <c r="C309" t="n">
-        <v>5129.922963810617</v>
+        <v>7199.837000129507</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.552183</v>
+        <v>-0.6696435000000001</v>
       </c>
       <c r="E309" t="n">
-        <v>0.2779751121997833</v>
+        <v>0.2857031226158142</v>
       </c>
       <c r="F309" t="n">
         <v>581.396484375</v>
@@ -8167,19 +8167,19 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>814</v>
+        <v>845</v>
       </c>
       <c r="B310" t="n">
-        <v>2629.885024492064</v>
+        <v>2743.325917923625</v>
       </c>
       <c r="C310" t="n">
-        <v>8264.317161489109</v>
+        <v>7591.629594209218</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.851233</v>
+        <v>0.544061</v>
       </c>
       <c r="E310" t="n">
-        <v>0.3085907995700836</v>
+        <v>0.4109894931316376</v>
       </c>
       <c r="F310" t="n">
         <v>473.73046875</v>
@@ -8192,22 +8192,22 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>815</v>
+        <v>853</v>
       </c>
       <c r="B311" t="n">
-        <v>3463.467860555556</v>
+        <v>2754.175059412858</v>
       </c>
       <c r="C311" t="n">
-        <v>10586.94622793037</v>
+        <v>7325.835021397392</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.5515108000000001</v>
+        <v>-0.07789200000000002</v>
       </c>
       <c r="E311" t="n">
-        <v>0.5519975423812866</v>
+        <v>0.3097386956214905</v>
       </c>
       <c r="F311" t="n">
-        <v>538.330078125</v>
+        <v>495.263671875</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -8217,22 +8217,22 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>820</v>
+        <v>920</v>
       </c>
       <c r="B312" t="n">
-        <v>2643.675616487937</v>
+        <v>2756.369713986584</v>
       </c>
       <c r="C312" t="n">
-        <v>7888.244800922633</v>
+        <v>7462.408432207401</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.619936</v>
+        <v>-0.03646500000000004</v>
       </c>
       <c r="E312" t="n">
-        <v>0.3238067328929901</v>
+        <v>0.347942590713501</v>
       </c>
       <c r="F312" t="n">
-        <v>538.330078125</v>
+        <v>516.796875</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -8242,22 +8242,22 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>823</v>
+        <v>926</v>
       </c>
       <c r="B313" t="n">
-        <v>2698.935190644444</v>
+        <v>2775.108616921753</v>
       </c>
       <c r="C313" t="n">
-        <v>8032.997809793993</v>
+        <v>7374.193318921583</v>
       </c>
       <c r="D313" t="n">
-        <v>0.4325322</v>
+        <v>-0.007914000000000032</v>
       </c>
       <c r="E313" t="n">
-        <v>0.2308726161718369</v>
+        <v>0.3026096522808075</v>
       </c>
       <c r="F313" t="n">
-        <v>689.0625</v>
+        <v>538.330078125</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -8267,22 +8267,22 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>827</v>
+        <v>932</v>
       </c>
       <c r="B314" t="n">
-        <v>2597.987728507936</v>
+        <v>2763.569718398022</v>
       </c>
       <c r="C314" t="n">
-        <v>7818.23631450533</v>
+        <v>7453.376119283284</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.31127346</v>
+        <v>-0.1517585</v>
       </c>
       <c r="E314" t="n">
-        <v>0.2862644493579865</v>
+        <v>0.325267881155014</v>
       </c>
       <c r="F314" t="n">
-        <v>473.73046875</v>
+        <v>559.86328125</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -8292,22 +8292,22 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>834</v>
+        <v>941</v>
       </c>
       <c r="B315" t="n">
-        <v>2611.557913255555</v>
+        <v>2762.721950995045</v>
       </c>
       <c r="C315" t="n">
-        <v>8128.890415864725</v>
+        <v>7422.528307331703</v>
       </c>
       <c r="D315" t="n">
-        <v>0.750705</v>
+        <v>-1.086493</v>
       </c>
       <c r="E315" t="n">
-        <v>0.3144614696502686</v>
+        <v>0.3674872517585754</v>
       </c>
       <c r="F315" t="n">
-        <v>473.73046875</v>
+        <v>495.263671875</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -8317,22 +8317,22 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>836</v>
+        <v>956</v>
       </c>
       <c r="B316" t="n">
-        <v>2592.099898971429</v>
+        <v>2780.632332414459</v>
       </c>
       <c r="C316" t="n">
-        <v>7861.60955223436</v>
+        <v>7462.653102444759</v>
       </c>
       <c r="D316" t="n">
-        <v>0.5655209999999999</v>
+        <v>0.6160780000000001</v>
       </c>
       <c r="E316" t="n">
-        <v>0.2780390381813049</v>
+        <v>0.3199492394924164</v>
       </c>
       <c r="F316" t="n">
-        <v>516.796875</v>
+        <v>581.396484375</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -8342,19 +8342,19 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>844</v>
+        <v>968</v>
       </c>
       <c r="B317" t="n">
-        <v>2629.755456492064</v>
+        <v>2753.97682048791</v>
       </c>
       <c r="C317" t="n">
-        <v>7768.292554626459</v>
+        <v>7429.395879377003</v>
       </c>
       <c r="D317" t="n">
-        <v>0.1592535</v>
+        <v>-0.06011999999999999</v>
       </c>
       <c r="E317" t="n">
-        <v>0.2857031226158142</v>
+        <v>0.279223769903183</v>
       </c>
       <c r="F317" t="n">
         <v>581.396484375</v>
@@ -8367,22 +8367,22 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>853</v>
+        <v>979</v>
       </c>
       <c r="B318" t="n">
-        <v>2626.248816555556</v>
+        <v>2744.094618570703</v>
       </c>
       <c r="C318" t="n">
-        <v>8196.676888416536</v>
+        <v>7415.593617220325</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.458855</v>
+        <v>0.323619</v>
       </c>
       <c r="E318" t="n">
-        <v>0.4109894931316376</v>
+        <v>0.3571340441703796</v>
       </c>
       <c r="F318" t="n">
-        <v>473.73046875</v>
+        <v>495.263671875</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -8392,22 +8392,22 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>861</v>
+        <v>995</v>
       </c>
       <c r="B319" t="n">
-        <v>2626.913804923809</v>
+        <v>2758.802771508903</v>
       </c>
       <c r="C319" t="n">
-        <v>7898.609821321173</v>
+        <v>7258.244992327887</v>
       </c>
       <c r="D319" t="n">
-        <v>0.002388199999999997</v>
+        <v>0.302747</v>
       </c>
       <c r="E319" t="n">
-        <v>0.3097386956214905</v>
+        <v>0.3036279380321503</v>
       </c>
       <c r="F319" t="n">
-        <v>495.263671875</v>
+        <v>538.330078125</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -8417,19 +8417,19 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>928</v>
+        <v>998</v>
       </c>
       <c r="B320" t="n">
-        <v>2630.431894396825</v>
+        <v>2770.940718338813</v>
       </c>
       <c r="C320" t="n">
-        <v>8058.842445164719</v>
+        <v>7436.855635854312</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.2547387</v>
+        <v>-0.141752</v>
       </c>
       <c r="E320" t="n">
-        <v>0.347942590713501</v>
+        <v>0.2828925251960754</v>
       </c>
       <c r="F320" t="n">
         <v>516.796875</v>
@@ -8442,22 +8442,22 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>934</v>
+        <v>1001</v>
       </c>
       <c r="B321" t="n">
-        <v>2662.109880539683</v>
+        <v>2754.821411904516</v>
       </c>
       <c r="C321" t="n">
-        <v>7951.270557869753</v>
+        <v>7470.649944799912</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.4223014</v>
+        <v>0.113794</v>
       </c>
       <c r="E321" t="n">
-        <v>0.3026096522808075</v>
+        <v>0.3461067080497742</v>
       </c>
       <c r="F321" t="n">
-        <v>538.330078125</v>
+        <v>495.263671875</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -8467,22 +8467,22 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>940</v>
+        <v>1004</v>
       </c>
       <c r="B322" t="n">
-        <v>2627.795957228572</v>
+        <v>2778.391795522935</v>
       </c>
       <c r="C322" t="n">
-        <v>8049.801729039382</v>
+        <v>7401.415362654268</v>
       </c>
       <c r="D322" t="n">
-        <v>0.025706</v>
+        <v>0.446461</v>
       </c>
       <c r="E322" t="n">
-        <v>0.325267881155014</v>
+        <v>0.3026132583618164</v>
       </c>
       <c r="F322" t="n">
-        <v>559.86328125</v>
+        <v>538.330078125</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -8492,22 +8492,22 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>949</v>
+        <v>1008</v>
       </c>
       <c r="B323" t="n">
-        <v>2644.935914039682</v>
+        <v>2578.152128131401</v>
       </c>
       <c r="C323" t="n">
-        <v>8006.063406417069</v>
+        <v>7561.92076521024</v>
       </c>
       <c r="D323" t="n">
-        <v>0.947779</v>
+        <v>0.778385</v>
       </c>
       <c r="E323" t="n">
-        <v>0.3674872517585754</v>
+        <v>0.4492773413658142</v>
       </c>
       <c r="F323" t="n">
-        <v>495.263671875</v>
+        <v>279.931640625</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -8517,22 +8517,22 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>964</v>
+        <v>1011</v>
       </c>
       <c r="B324" t="n">
-        <v>2646.762851880952</v>
+        <v>2740.120904131475</v>
       </c>
       <c r="C324" t="n">
-        <v>8059.078712200856</v>
+        <v>7093.352527882231</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.5062770000000001</v>
+        <v>0.3938574</v>
       </c>
       <c r="E324" t="n">
-        <v>0.3199492394924164</v>
+        <v>0.2971603274345398</v>
       </c>
       <c r="F324" t="n">
-        <v>581.396484375</v>
+        <v>559.86328125</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -8542,22 +8542,22 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>976</v>
+        <v>1017</v>
       </c>
       <c r="B325" t="n">
-        <v>2627.782882460318</v>
+        <v>2745.577349829642</v>
       </c>
       <c r="C325" t="n">
-        <v>8025.81728753249</v>
+        <v>4998.645783247737</v>
       </c>
       <c r="D325" t="n">
-        <v>0.1811585</v>
+        <v>0.1304285</v>
       </c>
       <c r="E325" t="n">
-        <v>0.279223769903183</v>
+        <v>0.3888822793960571</v>
       </c>
       <c r="F325" t="n">
-        <v>581.396484375</v>
+        <v>495.263671875</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -8567,22 +8567,22 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>987</v>
+        <v>1024</v>
       </c>
       <c r="B326" t="n">
-        <v>2624.676576492063</v>
+        <v>2735.707521857182</v>
       </c>
       <c r="C326" t="n">
-        <v>8003.42695372947</v>
+        <v>7604.979468308726</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.4011479999999999</v>
+        <v>-0.08117880000000001</v>
       </c>
       <c r="E326" t="n">
-        <v>0.3571340441703796</v>
+        <v>0.3490855097770691</v>
       </c>
       <c r="F326" t="n">
-        <v>495.263671875</v>
+        <v>452.197265625</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -8592,22 +8592,22 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>1003</v>
+        <v>1037</v>
       </c>
       <c r="B327" t="n">
-        <v>2628.345245492445</v>
+        <v>2738.492221624246</v>
       </c>
       <c r="C327" t="n">
-        <v>7831.011389050449</v>
+        <v>7567.331843323006</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.606306</v>
+        <v>-0.421693</v>
       </c>
       <c r="E327" t="n">
-        <v>0.3036279380321503</v>
+        <v>0.3239328861236572</v>
       </c>
       <c r="F327" t="n">
-        <v>538.330078125</v>
+        <v>473.73046875</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -8617,22 +8617,22 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>1006</v>
+        <v>1043</v>
       </c>
       <c r="B328" t="n">
-        <v>2644.208768007936</v>
+        <v>2596.541646102712</v>
       </c>
       <c r="C328" t="n">
-        <v>8024.688972363458</v>
+        <v>5074.635742152312</v>
       </c>
       <c r="D328" t="n">
-        <v>0.406145</v>
+        <v>-0.119105</v>
       </c>
       <c r="E328" t="n">
-        <v>0.2828925251960754</v>
+        <v>0.3749678730964661</v>
       </c>
       <c r="F328" t="n">
-        <v>516.796875</v>
+        <v>301.46484375</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -8642,22 +8642,22 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>1009</v>
+        <v>1049</v>
       </c>
       <c r="B329" t="n">
-        <v>2645.959826255556</v>
+        <v>2757.666040313174</v>
       </c>
       <c r="C329" t="n">
-        <v>8058.487482909668</v>
+        <v>7478.772085478638</v>
       </c>
       <c r="D329" t="n">
-        <v>0.05232170000000001</v>
+        <v>-1.099002</v>
       </c>
       <c r="E329" t="n">
-        <v>0.3461067080497742</v>
+        <v>0.3135745525360107</v>
       </c>
       <c r="F329" t="n">
-        <v>495.263671875</v>
+        <v>516.796875</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -8667,224 +8667,24 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>1012</v>
+        <v>1053</v>
       </c>
       <c r="B330" t="n">
-        <v>2659.382262571429</v>
+        <v>2751.823383944808</v>
       </c>
       <c r="C330" t="n">
-        <v>7982.79504062683</v>
+        <v>7361.771620061925</v>
       </c>
       <c r="D330" t="n">
-        <v>-0.905649</v>
+        <v>0.2436524</v>
       </c>
       <c r="E330" t="n">
-        <v>0.3026132583618164</v>
+        <v>0.3206560015678406</v>
       </c>
       <c r="F330" t="n">
-        <v>538.330078125</v>
+        <v>516.796875</v>
       </c>
       <c r="G330" t="inlineStr">
-        <is>
-          <t>Diasporus gularis</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>1016</v>
-      </c>
-      <c r="B331" t="n">
-        <v>2516.932233746032</v>
-      </c>
-      <c r="C331" t="n">
-        <v>8164.829444707191</v>
-      </c>
-      <c r="D331" t="n">
-        <v>-0.7036830000000001</v>
-      </c>
-      <c r="E331" t="n">
-        <v>0.4492773413658142</v>
-      </c>
-      <c r="F331" t="n">
-        <v>279.931640625</v>
-      </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>Diasporus gularis</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>1019</v>
-      </c>
-      <c r="B332" t="n">
-        <v>2612.11919297619</v>
-      </c>
-      <c r="C332" t="n">
-        <v>7648.900765306013</v>
-      </c>
-      <c r="D332" t="n">
-        <v>-0.5771459999999999</v>
-      </c>
-      <c r="E332" t="n">
-        <v>0.2971603274345398</v>
-      </c>
-      <c r="F332" t="n">
-        <v>559.86328125</v>
-      </c>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>Diasporus gularis</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>1025</v>
-      </c>
-      <c r="B333" t="n">
-        <v>2626.542031107936</v>
-      </c>
-      <c r="C333" t="n">
-        <v>5280.730744185237</v>
-      </c>
-      <c r="D333" t="n">
-        <v>-0.0967884</v>
-      </c>
-      <c r="E333" t="n">
-        <v>0.3888822793960571</v>
-      </c>
-      <c r="F333" t="n">
-        <v>495.263671875</v>
-      </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>Diasporus gularis</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>1032</v>
-      </c>
-      <c r="B334" t="n">
-        <v>2627.138827539683</v>
-      </c>
-      <c r="C334" t="n">
-        <v>8210.030964116653</v>
-      </c>
-      <c r="D334" t="n">
-        <v>0.1706163</v>
-      </c>
-      <c r="E334" t="n">
-        <v>0.3490855097770691</v>
-      </c>
-      <c r="F334" t="n">
-        <v>452.197265625</v>
-      </c>
-      <c r="G334" t="inlineStr">
-        <is>
-          <t>Diasporus gularis</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>1045</v>
-      </c>
-      <c r="B335" t="n">
-        <v>2627.172044555556</v>
-      </c>
-      <c r="C335" t="n">
-        <v>8168.076698505934</v>
-      </c>
-      <c r="D335" t="n">
-        <v>0.275871</v>
-      </c>
-      <c r="E335" t="n">
-        <v>0.3239328861236572</v>
-      </c>
-      <c r="F335" t="n">
-        <v>473.73046875</v>
-      </c>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t>Diasporus gularis</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>1051</v>
-      </c>
-      <c r="B336" t="n">
-        <v>2535.852746861905</v>
-      </c>
-      <c r="C336" t="n">
-        <v>5365.333984339812</v>
-      </c>
-      <c r="D336" t="n">
-        <v>-0.03325020000000001</v>
-      </c>
-      <c r="E336" t="n">
-        <v>0.3749678730964661</v>
-      </c>
-      <c r="F336" t="n">
-        <v>301.46484375</v>
-      </c>
-      <c r="G336" t="inlineStr">
-        <is>
-          <t>Diasporus gularis</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>1057</v>
-      </c>
-      <c r="B337" t="n">
-        <v>2626.331411907937</v>
-      </c>
-      <c r="C337" t="n">
-        <v>8073.05487892376</v>
-      </c>
-      <c r="D337" t="n">
-        <v>1.516695</v>
-      </c>
-      <c r="E337" t="n">
-        <v>0.3135745525360107</v>
-      </c>
-      <c r="F337" t="n">
-        <v>516.796875</v>
-      </c>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>Diasporus gularis</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>1061</v>
-      </c>
-      <c r="B338" t="n">
-        <v>2644.079141023809</v>
-      </c>
-      <c r="C338" t="n">
-        <v>7936.697639497901</v>
-      </c>
-      <c r="D338" t="n">
-        <v>-0.3807817999999999</v>
-      </c>
-      <c r="E338" t="n">
-        <v>0.3206560015678406</v>
-      </c>
-      <c r="F338" t="n">
-        <v>516.796875</v>
-      </c>
-      <c r="G338" t="inlineStr">
         <is>
           <t>Diasporus gularis</t>
         </is>

--- a/data/Dataset_2/reduced_dataframe_FA2.xlsx
+++ b/data/Dataset_2/reduced_dataframe_FA2.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>spectral_flatness</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>DeltaFreq</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -479,10 +479,10 @@
         <v>0.03291599999999996</v>
       </c>
       <c r="E2" t="n">
+        <v>0.4643990929705216</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.4455689787864685</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4198.974609375</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
         <v>0.5895352</v>
       </c>
       <c r="E3" t="n">
+        <v>2.159455782312925</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.4866604804992676</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2347.119140625</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -529,10 +529,10 @@
         <v>-0.9326319999999999</v>
       </c>
       <c r="E4" t="n">
+        <v>3.842902494331066</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.6496953368186951</v>
-      </c>
-      <c r="F4" t="n">
-        <v>279.931640625</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -554,10 +554,10 @@
         <v>-0.1298318</v>
       </c>
       <c r="E5" t="n">
+        <v>6.838276643990929</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.4340538680553436</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2433.251953125</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -579,10 +579,10 @@
         <v>-0.3966268</v>
       </c>
       <c r="E6" t="n">
+        <v>7.37233560090703</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.411316841840744</v>
-      </c>
-      <c r="F6" t="n">
-        <v>366.064453125</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -604,10 +604,10 @@
         <v>-0.3446670000000001</v>
       </c>
       <c r="E7" t="n">
+        <v>8.126984126984127</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.2180296778678894</v>
-      </c>
-      <c r="F7" t="n">
-        <v>430.6640625</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -629,10 +629,10 @@
         <v>-0.07355299999999999</v>
       </c>
       <c r="E8" t="n">
+        <v>8.568163265306122</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.3577386438846588</v>
-      </c>
-      <c r="F8" t="n">
-        <v>495.263671875</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -654,10 +654,10 @@
         <v>0.157636</v>
       </c>
       <c r="E9" t="n">
+        <v>9.287981859410431</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.2040617913007736</v>
-      </c>
-      <c r="F9" t="n">
-        <v>559.86328125</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -679,10 +679,10 @@
         <v>0.873655</v>
       </c>
       <c r="E10" t="n">
+        <v>10.43736961451247</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.2519037127494812</v>
-      </c>
-      <c r="F10" t="n">
-        <v>602.9296875</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -704,10 +704,10 @@
         <v>0.02676400000000001</v>
       </c>
       <c r="E11" t="n">
+        <v>10.95981859410431</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.2411715388298035</v>
-      </c>
-      <c r="F11" t="n">
-        <v>581.396484375</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -729,10 +729,10 @@
         <v>0.579855</v>
       </c>
       <c r="E12" t="n">
+        <v>11.45904761904762</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.3559316992759705</v>
-      </c>
-      <c r="F12" t="n">
-        <v>559.86328125</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -754,10 +754,10 @@
         <v>0.06209495</v>
       </c>
       <c r="E13" t="n">
+        <v>11.96988662131519</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.3428803384304047</v>
-      </c>
-      <c r="F13" t="n">
-        <v>516.796875</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -779,10 +779,10 @@
         <v>-0.07375799999999999</v>
       </c>
       <c r="E14" t="n">
+        <v>12.44589569160998</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.2459251433610916</v>
-      </c>
-      <c r="F14" t="n">
-        <v>624.462890625</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -804,10 +804,10 @@
         <v>-0.470606</v>
       </c>
       <c r="E15" t="n">
+        <v>12.92190476190476</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.2714539766311646</v>
-      </c>
-      <c r="F15" t="n">
-        <v>624.462890625</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
         <v>-0.02568939999999999</v>
       </c>
       <c r="E16" t="n">
+        <v>13.4443537414966</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.4103755354881287</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2239.453125</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -854,10 +854,10 @@
         <v>0.9919790000000001</v>
       </c>
       <c r="E17" t="n">
+        <v>14.43120181405896</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.2984591722488403</v>
-      </c>
-      <c r="F17" t="n">
-        <v>538.330078125</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -879,10 +879,10 @@
         <v>0.1674006</v>
       </c>
       <c r="E18" t="n">
+        <v>14.81433106575964</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.2929583489894867</v>
-      </c>
-      <c r="F18" t="n">
-        <v>710.595703125</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -904,10 +904,10 @@
         <v>0.459443</v>
       </c>
       <c r="E19" t="n">
+        <v>15.41804988662131</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.2419058233499527</v>
-      </c>
-      <c r="F19" t="n">
-        <v>710.595703125</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -929,10 +929,10 @@
         <v>0.504266</v>
       </c>
       <c r="E20" t="n">
+        <v>15.88244897959184</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.2620352208614349</v>
-      </c>
-      <c r="F20" t="n">
-        <v>645.99609375</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -954,10 +954,10 @@
         <v>1.00679</v>
       </c>
       <c r="E21" t="n">
+        <v>16.34684807256236</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.2289713472127914</v>
-      </c>
-      <c r="F21" t="n">
-        <v>645.99609375</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -979,10 +979,10 @@
         <v>-0.3869669999999999</v>
       </c>
       <c r="E22" t="n">
+        <v>16.57904761904762</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.6758666634559631</v>
-      </c>
-      <c r="F22" t="n">
-        <v>559.86328125</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1004,10 +1004,10 @@
         <v>-1.409166</v>
       </c>
       <c r="E23" t="n">
+        <v>16.76480725623583</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.2705444395542145</v>
-      </c>
-      <c r="F23" t="n">
-        <v>689.0625</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
         <v>0.258779</v>
       </c>
       <c r="E24" t="n">
+        <v>17.79809523809524</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.2253943234682083</v>
-      </c>
-      <c r="F24" t="n">
-        <v>710.595703125</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         <v>0.216231</v>
       </c>
       <c r="E25" t="n">
+        <v>18.27410430839002</v>
+      </c>
+      <c r="F25" t="n">
         <v>0.2520084977149963</v>
-      </c>
-      <c r="F25" t="n">
-        <v>710.595703125</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1079,10 +1079,10 @@
         <v>0.2697415</v>
       </c>
       <c r="E26" t="n">
+        <v>18.76172335600907</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.3615876138210297</v>
-      </c>
-      <c r="F26" t="n">
-        <v>624.462890625</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         <v>0.8828710000000001</v>
       </c>
       <c r="E27" t="n">
+        <v>19.26095238095238</v>
+      </c>
+      <c r="F27" t="n">
         <v>0.3528262376785278</v>
-      </c>
-      <c r="F27" t="n">
-        <v>753.662109375</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1129,10 +1129,10 @@
         <v>0.482227</v>
       </c>
       <c r="E28" t="n">
+        <v>19.74857142857143</v>
+      </c>
+      <c r="F28" t="n">
         <v>0.2835486829280853</v>
-      </c>
-      <c r="F28" t="n">
-        <v>559.86328125</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         <v>0.095638</v>
       </c>
       <c r="E29" t="n">
+        <v>20.14331065759637</v>
+      </c>
+      <c r="F29" t="n">
         <v>0.3418993353843689</v>
-      </c>
-      <c r="F29" t="n">
-        <v>732.12890625</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1179,10 +1179,10 @@
         <v>0.61032</v>
       </c>
       <c r="E30" t="n">
+        <v>20.71219954648526</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.267776221036911</v>
-      </c>
-      <c r="F30" t="n">
-        <v>710.595703125</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1204,10 +1204,10 @@
         <v>-0.009956700000000004</v>
       </c>
       <c r="E31" t="n">
+        <v>21.2346485260771</v>
+      </c>
+      <c r="F31" t="n">
         <v>0.3027820587158203</v>
-      </c>
-      <c r="F31" t="n">
-        <v>710.595703125</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1229,10 +1229,10 @@
         <v>0.8685700000000001</v>
       </c>
       <c r="E32" t="n">
+        <v>21.73387755102041</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.2617036700248718</v>
-      </c>
-      <c r="F32" t="n">
-        <v>581.396484375</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1254,10 +1254,10 @@
         <v>-0.2709188</v>
       </c>
       <c r="E33" t="n">
+        <v>22.19827664399093</v>
+      </c>
+      <c r="F33" t="n">
         <v>0.3808356523513794</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3552.978515625</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1279,10 +1279,10 @@
         <v>0.5736519999999999</v>
       </c>
       <c r="E34" t="n">
+        <v>22.88326530612245</v>
+      </c>
+      <c r="F34" t="n">
         <v>0.2450205087661743</v>
-      </c>
-      <c r="F34" t="n">
-        <v>882.861328125</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1304,10 +1304,10 @@
         <v>-0.2520979999999999</v>
       </c>
       <c r="E35" t="n">
+        <v>23.88172335600907</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.3084115087985992</v>
-      </c>
-      <c r="F35" t="n">
-        <v>538.330078125</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1329,10 +1329,10 @@
         <v>0.28705</v>
       </c>
       <c r="E36" t="n">
+        <v>24.40417233560091</v>
+      </c>
+      <c r="F36" t="n">
         <v>0.2630535960197449</v>
-      </c>
-      <c r="F36" t="n">
-        <v>818.26171875</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1354,10 +1354,10 @@
         <v>0.102025</v>
       </c>
       <c r="E37" t="n">
+        <v>24.8453514739229</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.43234983086586</v>
-      </c>
-      <c r="F37" t="n">
-        <v>818.26171875</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>-0.972083</v>
       </c>
       <c r="E38" t="n">
+        <v>25.43746031746032</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.2850871384143829</v>
-      </c>
-      <c r="F38" t="n">
-        <v>645.99609375</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1404,10 +1404,10 @@
         <v>-0.44925048</v>
       </c>
       <c r="E39" t="n">
+        <v>27.10929705215419</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.3371286392211914</v>
-      </c>
-      <c r="F39" t="n">
-        <v>516.796875</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
         <v>-0.18190752</v>
       </c>
       <c r="E40" t="n">
+        <v>27.66657596371882</v>
+      </c>
+      <c r="F40" t="n">
         <v>0.2582423388957977</v>
-      </c>
-      <c r="F40" t="n">
-        <v>667.529296875</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1454,10 +1454,10 @@
         <v>-0.1621885</v>
       </c>
       <c r="E41" t="n">
+        <v>28.22385487528345</v>
+      </c>
+      <c r="F41" t="n">
         <v>0.3662774860858917</v>
-      </c>
-      <c r="F41" t="n">
-        <v>516.796875</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1479,10 +1479,10 @@
         <v>-0.6010150000000001</v>
       </c>
       <c r="E42" t="n">
+        <v>28.75791383219955</v>
+      </c>
+      <c r="F42" t="n">
         <v>0.3465336263179779</v>
-      </c>
-      <c r="F42" t="n">
-        <v>538.330078125</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1504,10 +1504,10 @@
         <v>0.1545904</v>
       </c>
       <c r="E43" t="n">
+        <v>29.76798185941043</v>
+      </c>
+      <c r="F43" t="n">
         <v>0.2540142238140106</v>
-      </c>
-      <c r="F43" t="n">
-        <v>581.396484375</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1529,10 +1529,10 @@
         <v>-0.5531848</v>
       </c>
       <c r="E44" t="n">
+        <v>30.31365079365079</v>
+      </c>
+      <c r="F44" t="n">
         <v>0.3672841787338257</v>
-      </c>
-      <c r="F44" t="n">
-        <v>645.99609375</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1554,10 +1554,10 @@
         <v>0.315715</v>
       </c>
       <c r="E45" t="n">
+        <v>30.85931972789116</v>
+      </c>
+      <c r="F45" t="n">
         <v>0.2683643102645874</v>
-      </c>
-      <c r="F45" t="n">
-        <v>775.1953125</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1579,10 +1579,10 @@
         <v>-0.32358</v>
       </c>
       <c r="E46" t="n">
+        <v>31.40498866213152</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.2652334570884705</v>
-      </c>
-      <c r="F46" t="n">
-        <v>753.662109375</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1604,10 +1604,10 @@
         <v>0.253869</v>
       </c>
       <c r="E47" t="n">
+        <v>31.90421768707483</v>
+      </c>
+      <c r="F47" t="n">
         <v>0.2661702334880829</v>
-      </c>
-      <c r="F47" t="n">
-        <v>753.662109375</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1629,10 +1629,10 @@
         <v>0.09864700000000001</v>
       </c>
       <c r="E48" t="n">
+        <v>32.51954648526077</v>
+      </c>
+      <c r="F48" t="n">
         <v>0.2279416918754578</v>
-      </c>
-      <c r="F48" t="n">
-        <v>710.595703125</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1654,10 +1654,10 @@
         <v>-0.3814044</v>
       </c>
       <c r="E49" t="n">
+        <v>34.42358276643991</v>
+      </c>
+      <c r="F49" t="n">
         <v>0.3464130163192749</v>
-      </c>
-      <c r="F49" t="n">
-        <v>732.12890625</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1679,10 +1679,10 @@
         <v>-0.5612010000000001</v>
       </c>
       <c r="E50" t="n">
+        <v>34.92281179138322</v>
+      </c>
+      <c r="F50" t="n">
         <v>0.2848648130893707</v>
-      </c>
-      <c r="F50" t="n">
-        <v>839.794921875</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1704,10 +1704,10 @@
         <v>0.3299030000000001</v>
       </c>
       <c r="E51" t="n">
+        <v>35.70068027210884</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.3439965844154358</v>
-      </c>
-      <c r="F51" t="n">
-        <v>710.595703125</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1729,10 +1729,10 @@
         <v>-0.522292</v>
       </c>
       <c r="E52" t="n">
+        <v>36.25795918367347</v>
+      </c>
+      <c r="F52" t="n">
         <v>0.3653849959373474</v>
-      </c>
-      <c r="F52" t="n">
-        <v>753.662109375</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1754,10 +1754,10 @@
         <v>-0.004835999999999993</v>
       </c>
       <c r="E53" t="n">
+        <v>36.78040816326531</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.3609646558761597</v>
-      </c>
-      <c r="F53" t="n">
-        <v>732.12890625</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1779,10 +1779,10 @@
         <v>-0.2995420000000001</v>
       </c>
       <c r="E54" t="n">
+        <v>37.65115646258504</v>
+      </c>
+      <c r="F54" t="n">
         <v>0.3714932203292847</v>
-      </c>
-      <c r="F54" t="n">
-        <v>775.1953125</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1804,10 +1804,10 @@
         <v>-0.004326000000000002</v>
       </c>
       <c r="E55" t="n">
+        <v>38.12716553287982</v>
+      </c>
+      <c r="F55" t="n">
         <v>0.3863250315189362</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2497.8515625</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -1829,10 +1829,10 @@
         <v>0.473526</v>
       </c>
       <c r="E56" t="n">
+        <v>38.56834467120181</v>
+      </c>
+      <c r="F56" t="n">
         <v>0.3241146206855774</v>
-      </c>
-      <c r="F56" t="n">
-        <v>818.26171875</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -1854,10 +1854,10 @@
         <v>-0.5135358000000001</v>
       </c>
       <c r="E57" t="n">
+        <v>39.0443537414966</v>
+      </c>
+      <c r="F57" t="n">
         <v>0.3618713319301605</v>
-      </c>
-      <c r="F57" t="n">
-        <v>753.662109375</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -1879,10 +1879,10 @@
         <v>-0.1989396</v>
       </c>
       <c r="E58" t="n">
+        <v>39.50875283446712</v>
+      </c>
+      <c r="F58" t="n">
         <v>0.3444554805755615</v>
-      </c>
-      <c r="F58" t="n">
-        <v>796.728515625</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -1904,10 +1904,10 @@
         <v>0.261233</v>
       </c>
       <c r="E59" t="n">
+        <v>40.03120181405896</v>
+      </c>
+      <c r="F59" t="n">
         <v>0.3196444511413574</v>
-      </c>
-      <c r="F59" t="n">
-        <v>818.26171875</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -1929,10 +1929,10 @@
         <v>0.224087</v>
       </c>
       <c r="E60" t="n">
+        <v>40.47238095238095</v>
+      </c>
+      <c r="F60" t="n">
         <v>0.3192424774169922</v>
-      </c>
-      <c r="F60" t="n">
-        <v>861.328125</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -1954,10 +1954,10 @@
         <v>-0.262425</v>
       </c>
       <c r="E61" t="n">
+        <v>40.93678004535148</v>
+      </c>
+      <c r="F61" t="n">
         <v>0.3505704402923584</v>
-      </c>
-      <c r="F61" t="n">
-        <v>796.728515625</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -1979,10 +1979,10 @@
         <v>-0.05543159999999997</v>
       </c>
       <c r="E62" t="n">
+        <v>41.4940589569161</v>
+      </c>
+      <c r="F62" t="n">
         <v>0.3298690915107727</v>
-      </c>
-      <c r="F62" t="n">
-        <v>796.728515625</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2004,10 +2004,10 @@
         <v>-0.1707904</v>
       </c>
       <c r="E63" t="n">
+        <v>42.37641723356009</v>
+      </c>
+      <c r="F63" t="n">
         <v>0.4078971743583679</v>
-      </c>
-      <c r="F63" t="n">
-        <v>732.12890625</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2029,10 +2029,10 @@
         <v>0.2262165</v>
       </c>
       <c r="E64" t="n">
+        <v>42.82920634920635</v>
+      </c>
+      <c r="F64" t="n">
         <v>0.3345603346824646</v>
-      </c>
-      <c r="F64" t="n">
-        <v>818.26171875</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         <v>0.340125</v>
       </c>
       <c r="E65" t="n">
+        <v>43.29360544217687</v>
+      </c>
+      <c r="F65" t="n">
         <v>0.3361167907714844</v>
-      </c>
-      <c r="F65" t="n">
-        <v>796.728515625</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2079,10 +2079,10 @@
         <v>-0.175461</v>
       </c>
       <c r="E66" t="n">
+        <v>43.8160544217687</v>
+      </c>
+      <c r="F66" t="n">
         <v>0.3619206845760345</v>
-      </c>
-      <c r="F66" t="n">
-        <v>796.728515625</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2104,10 +2104,10 @@
         <v>0.417245</v>
       </c>
       <c r="E67" t="n">
+        <v>44.31528344671202</v>
+      </c>
+      <c r="F67" t="n">
         <v>0.3660061955451965</v>
-      </c>
-      <c r="F67" t="n">
-        <v>796.728515625</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2129,10 +2129,10 @@
         <v>0.02845600000000001</v>
       </c>
       <c r="E68" t="n">
+        <v>44.44299319727891</v>
+      </c>
+      <c r="F68" t="n">
         <v>0.4930038452148438</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2476.318359375</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         <v>0.462775</v>
       </c>
       <c r="E69" t="n">
+        <v>45.29052154195011</v>
+      </c>
+      <c r="F69" t="n">
         <v>0.3066600859165192</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2476.318359375</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2179,10 +2179,10 @@
         <v>-0.125634</v>
       </c>
       <c r="E70" t="n">
+        <v>46.27736961451247</v>
+      </c>
+      <c r="F70" t="n">
         <v>0.3166759610176086</v>
-      </c>
-      <c r="F70" t="n">
-        <v>839.794921875</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2204,10 +2204,10 @@
         <v>0.190708</v>
       </c>
       <c r="E71" t="n">
+        <v>46.7069387755102</v>
+      </c>
+      <c r="F71" t="n">
         <v>0.3761717081069946</v>
-      </c>
-      <c r="F71" t="n">
-        <v>796.728515625</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2229,10 +2229,10 @@
         <v>-0.361339</v>
       </c>
       <c r="E72" t="n">
+        <v>47.42675736961451</v>
+      </c>
+      <c r="F72" t="n">
         <v>0.3909133672714233</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2497.8515625</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2254,10 +2254,10 @@
         <v>0.0408183</v>
       </c>
       <c r="E73" t="n">
+        <v>48.55292517006803</v>
+      </c>
+      <c r="F73" t="n">
         <v>0.3823809027671814</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2368.65234375</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2279,10 +2279,10 @@
         <v>-0.5896520000000001</v>
       </c>
       <c r="E74" t="n">
+        <v>49.04054421768708</v>
+      </c>
+      <c r="F74" t="n">
         <v>0.3574503064155579</v>
-      </c>
-      <c r="F74" t="n">
-        <v>753.662109375</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2304,10 +2304,10 @@
         <v>-1.198194</v>
       </c>
       <c r="E75" t="n">
+        <v>49.50494331065759</v>
+      </c>
+      <c r="F75" t="n">
         <v>0.3574751615524292</v>
-      </c>
-      <c r="F75" t="n">
-        <v>775.1953125</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2329,10 +2329,10 @@
         <v>-1.268632</v>
       </c>
       <c r="E76" t="n">
+        <v>49.95773242630386</v>
+      </c>
+      <c r="F76" t="n">
         <v>0.3723783493041992</v>
-      </c>
-      <c r="F76" t="n">
-        <v>753.662109375</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2354,10 +2354,10 @@
         <v>0.647303</v>
       </c>
       <c r="E77" t="n">
+        <v>50.45696145124717</v>
+      </c>
+      <c r="F77" t="n">
         <v>0.3463893234729767</v>
-      </c>
-      <c r="F77" t="n">
-        <v>753.662109375</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2379,10 +2379,10 @@
         <v>0.139216</v>
       </c>
       <c r="E78" t="n">
+        <v>50.89814058956916</v>
+      </c>
+      <c r="F78" t="n">
         <v>0.3581941723823547</v>
-      </c>
-      <c r="F78" t="n">
-        <v>818.26171875</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2404,10 +2404,10 @@
         <v>-0.0625776</v>
       </c>
       <c r="E79" t="n">
+        <v>52.19845804988662</v>
+      </c>
+      <c r="F79" t="n">
         <v>0.2964995205402374</v>
-      </c>
-      <c r="F79" t="n">
-        <v>2217.919921875</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2429,10 +2429,10 @@
         <v>0.005269400000000001</v>
       </c>
       <c r="E80" t="n">
+        <v>53.1156462585034</v>
+      </c>
+      <c r="F80" t="n">
         <v>0.3248679637908936</v>
-      </c>
-      <c r="F80" t="n">
-        <v>796.728515625</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2454,10 +2454,10 @@
         <v>-0.462176</v>
       </c>
       <c r="E81" t="n">
+        <v>53.5568253968254</v>
+      </c>
+      <c r="F81" t="n">
         <v>0.3710368573665619</v>
-      </c>
-      <c r="F81" t="n">
-        <v>796.728515625</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2479,10 +2479,10 @@
         <v>0.2689708</v>
       </c>
       <c r="E82" t="n">
+        <v>55.83238095238095</v>
+      </c>
+      <c r="F82" t="n">
         <v>0.3768153190612793</v>
-      </c>
-      <c r="F82" t="n">
-        <v>753.662109375</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2504,10 +2504,10 @@
         <v>-0.8353780000000001</v>
       </c>
       <c r="E83" t="n">
+        <v>56.28517006802721</v>
+      </c>
+      <c r="F83" t="n">
         <v>0.3444229364395142</v>
-      </c>
-      <c r="F83" t="n">
-        <v>753.662109375</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2529,10 +2529,10 @@
         <v>-0.475745</v>
       </c>
       <c r="E84" t="n">
+        <v>56.73795918367347</v>
+      </c>
+      <c r="F84" t="n">
         <v>0.3310630619525909</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2260.986328125</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>0.3791252</v>
       </c>
       <c r="E85" t="n">
+        <v>57.63192743764172</v>
+      </c>
+      <c r="F85" t="n">
         <v>0.3465378880500793</v>
-      </c>
-      <c r="F85" t="n">
-        <v>775.1953125</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -2579,10 +2579,10 @@
         <v>0.4249545</v>
       </c>
       <c r="E86" t="n">
+        <v>58.52589569160997</v>
+      </c>
+      <c r="F86" t="n">
         <v>0.3731749653816223</v>
-      </c>
-      <c r="F86" t="n">
-        <v>710.595703125</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -2604,10 +2604,10 @@
         <v>0.257906</v>
       </c>
       <c r="E87" t="n">
+        <v>58.97868480725624</v>
+      </c>
+      <c r="F87" t="n">
         <v>0.3199853897094727</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1442.724609375</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -2629,10 +2629,10 @@
         <v>-0.440144</v>
       </c>
       <c r="E88" t="n">
+        <v>59.48952380952381</v>
+      </c>
+      <c r="F88" t="n">
         <v>0.2959308922290802</v>
-      </c>
-      <c r="F88" t="n">
-        <v>968.994140625</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -2654,10 +2654,10 @@
         <v>0.897729</v>
       </c>
       <c r="E89" t="n">
+        <v>1.160997732426304</v>
+      </c>
+      <c r="F89" t="n">
         <v>0.3756849765777588</v>
-      </c>
-      <c r="F89" t="n">
-        <v>430.6640625</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -2679,10 +2679,10 @@
         <v>1.393668</v>
       </c>
       <c r="E90" t="n">
+        <v>1.637006802721088</v>
+      </c>
+      <c r="F90" t="n">
         <v>0.324804961681366</v>
-      </c>
-      <c r="F90" t="n">
-        <v>409.130859375</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -2704,10 +2704,10 @@
         <v>-0.606958</v>
       </c>
       <c r="E91" t="n">
+        <v>4.446621315192743</v>
+      </c>
+      <c r="F91" t="n">
         <v>0.4582082331180573</v>
-      </c>
-      <c r="F91" t="n">
-        <v>387.59765625</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -2729,10 +2729,10 @@
         <v>0.102377</v>
       </c>
       <c r="E92" t="n">
+        <v>12.26013605442177</v>
+      </c>
+      <c r="F92" t="n">
         <v>0.5131728053092957</v>
-      </c>
-      <c r="F92" t="n">
-        <v>2002.587890625</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -2754,10 +2754,10 @@
         <v>-0.6829385000000001</v>
       </c>
       <c r="E93" t="n">
+        <v>13.67655328798186</v>
+      </c>
+      <c r="F93" t="n">
         <v>0.3681440055370331</v>
-      </c>
-      <c r="F93" t="n">
-        <v>516.796875</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -2779,10 +2779,10 @@
         <v>-0.630756</v>
       </c>
       <c r="E94" t="n">
+        <v>16.70675736961451</v>
+      </c>
+      <c r="F94" t="n">
         <v>0.3775992691516876</v>
-      </c>
-      <c r="F94" t="n">
-        <v>624.462890625</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -2804,10 +2804,10 @@
         <v>0.1777462</v>
       </c>
       <c r="E95" t="n">
+        <v>17.0550566893424</v>
+      </c>
+      <c r="F95" t="n">
         <v>0.4056164920330048</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2088.720703125</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -2829,10 +2829,10 @@
         <v>-0.07813899999999999</v>
       </c>
       <c r="E96" t="n">
+        <v>25.65804988662132</v>
+      </c>
+      <c r="F96" t="n">
         <v>0.3889858424663544</v>
-      </c>
-      <c r="F96" t="n">
-        <v>4069.775390625</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -2854,10 +2854,10 @@
         <v>-0.550197</v>
       </c>
       <c r="E97" t="n">
+        <v>26.86548752834467</v>
+      </c>
+      <c r="F97" t="n">
         <v>0.3980333805084229</v>
-      </c>
-      <c r="F97" t="n">
-        <v>559.86328125</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -2879,10 +2879,10 @@
         <v>-0.346654</v>
       </c>
       <c r="E98" t="n">
+        <v>27.44598639455782</v>
+      </c>
+      <c r="F98" t="n">
         <v>0.4524046778678894</v>
-      </c>
-      <c r="F98" t="n">
-        <v>4220.5078125</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -2904,10 +2904,10 @@
         <v>-0.444635</v>
       </c>
       <c r="E99" t="n">
+        <v>28.59537414965986</v>
+      </c>
+      <c r="F99" t="n">
         <v>0.3177550733089447</v>
-      </c>
-      <c r="F99" t="n">
-        <v>602.9296875</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -2929,10 +2929,10 @@
         <v>-0.81998876</v>
       </c>
       <c r="E100" t="n">
+        <v>30.499410430839</v>
+      </c>
+      <c r="F100" t="n">
         <v>0.3189653754234314</v>
-      </c>
-      <c r="F100" t="n">
-        <v>689.0625</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -2954,10 +2954,10 @@
         <v>0.824584</v>
       </c>
       <c r="E101" t="n">
+        <v>32.07836734693878</v>
+      </c>
+      <c r="F101" t="n">
         <v>0.2848235964775085</v>
-      </c>
-      <c r="F101" t="n">
-        <v>6890.625</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -2979,10 +2979,10 @@
         <v>-0.6653290000000001</v>
       </c>
       <c r="E102" t="n">
+        <v>32.67047619047619</v>
+      </c>
+      <c r="F102" t="n">
         <v>0.2379759103059769</v>
-      </c>
-      <c r="F102" t="n">
-        <v>839.794921875</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         <v>-0.453731</v>
       </c>
       <c r="E103" t="n">
+        <v>33.76181405895692</v>
+      </c>
+      <c r="F103" t="n">
         <v>0.2591888308525085</v>
-      </c>
-      <c r="F103" t="n">
-        <v>796.728515625</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3029,10 +3029,10 @@
         <v>0.4260536</v>
       </c>
       <c r="E104" t="n">
+        <v>34.30748299319728</v>
+      </c>
+      <c r="F104" t="n">
         <v>0.289605975151062</v>
-      </c>
-      <c r="F104" t="n">
-        <v>796.728515625</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3054,10 +3054,10 @@
         <v>0.009218800000000001</v>
       </c>
       <c r="E105" t="n">
+        <v>34.76027210884354</v>
+      </c>
+      <c r="F105" t="n">
         <v>0.3921566307544708</v>
-      </c>
-      <c r="F105" t="n">
-        <v>4198.974609375</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3079,10 +3079,10 @@
         <v>-0.742829</v>
       </c>
       <c r="E106" t="n">
+        <v>35.77034013605442</v>
+      </c>
+      <c r="F106" t="n">
         <v>0.2818488776683807</v>
-      </c>
-      <c r="F106" t="n">
-        <v>839.794921875</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3104,10 +3104,10 @@
         <v>-0.145613</v>
       </c>
       <c r="E107" t="n">
+        <v>36.22312925170068</v>
+      </c>
+      <c r="F107" t="n">
         <v>0.2680481672286987</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1636.5234375</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3129,10 +3129,10 @@
         <v>0.053713</v>
       </c>
       <c r="E108" t="n">
+        <v>37.3144671201814</v>
+      </c>
+      <c r="F108" t="n">
         <v>0.2711438238620758</v>
-      </c>
-      <c r="F108" t="n">
-        <v>861.328125</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3154,10 +3154,10 @@
         <v>-0.445079</v>
       </c>
       <c r="E109" t="n">
+        <v>37.74403628117914</v>
+      </c>
+      <c r="F109" t="n">
         <v>0.2458178699016571</v>
-      </c>
-      <c r="F109" t="n">
-        <v>861.328125</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3179,10 +3179,10 @@
         <v>-0.6327199999999999</v>
       </c>
       <c r="E110" t="n">
+        <v>38.22004535147392</v>
+      </c>
+      <c r="F110" t="n">
         <v>0.3928955793380737</v>
-      </c>
-      <c r="F110" t="n">
-        <v>8225.68359375</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3204,10 +3204,10 @@
         <v>-0.7997529999999999</v>
       </c>
       <c r="E111" t="n">
+        <v>38.80054421768708</v>
+      </c>
+      <c r="F111" t="n">
         <v>0.3080992698669434</v>
-      </c>
-      <c r="F111" t="n">
-        <v>775.1953125</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3229,10 +3229,10 @@
         <v>-0.13743768</v>
       </c>
       <c r="E112" t="n">
+        <v>39.23011337868481</v>
+      </c>
+      <c r="F112" t="n">
         <v>0.3900727033615112</v>
-      </c>
-      <c r="F112" t="n">
-        <v>4112.841796875</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3254,10 +3254,10 @@
         <v>0.437813</v>
       </c>
       <c r="E113" t="n">
+        <v>39.82222222222222</v>
+      </c>
+      <c r="F113" t="n">
         <v>0.2952807247638702</v>
-      </c>
-      <c r="F113" t="n">
-        <v>839.794921875</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3279,10 +3279,10 @@
         <v>0.936405</v>
       </c>
       <c r="E114" t="n">
+        <v>40.739410430839</v>
+      </c>
+      <c r="F114" t="n">
         <v>0.2276796698570251</v>
-      </c>
-      <c r="F114" t="n">
-        <v>882.861328125</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3304,10 +3304,10 @@
         <v>0.9842850000000001</v>
       </c>
       <c r="E115" t="n">
+        <v>41.180589569161</v>
+      </c>
+      <c r="F115" t="n">
         <v>0.1846644133329391</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1162.79296875</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -3329,10 +3329,10 @@
         <v>0.123661</v>
       </c>
       <c r="E116" t="n">
+        <v>41.63337868480725</v>
+      </c>
+      <c r="F116" t="n">
         <v>0.2363682687282562</v>
-      </c>
-      <c r="F116" t="n">
-        <v>6201.5625</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -3354,10 +3354,10 @@
         <v>-1.5515</v>
       </c>
       <c r="E117" t="n">
+        <v>42.55056689342403</v>
+      </c>
+      <c r="F117" t="n">
         <v>0.3407484292984009</v>
-      </c>
-      <c r="F117" t="n">
-        <v>753.662109375</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -3379,10 +3379,10 @@
         <v>-0.6481790000000001</v>
       </c>
       <c r="E118" t="n">
+        <v>43.46775510204082</v>
+      </c>
+      <c r="F118" t="n">
         <v>0.2753348648548126</v>
-      </c>
-      <c r="F118" t="n">
-        <v>818.26171875</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -3404,10 +3404,10 @@
         <v>0.2083894</v>
       </c>
       <c r="E119" t="n">
+        <v>44.09469387755102</v>
+      </c>
+      <c r="F119" t="n">
         <v>0.3038162887096405</v>
-      </c>
-      <c r="F119" t="n">
-        <v>732.12890625</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -3429,10 +3429,10 @@
         <v>0.120159</v>
       </c>
       <c r="E120" t="n">
+        <v>44.54748299319728</v>
+      </c>
+      <c r="F120" t="n">
         <v>0.2820907235145569</v>
-      </c>
-      <c r="F120" t="n">
-        <v>4177.44140625</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         <v>-0.0483341</v>
       </c>
       <c r="E121" t="n">
+        <v>45.47628117913832</v>
+      </c>
+      <c r="F121" t="n">
         <v>0.3166232705116272</v>
-      </c>
-      <c r="F121" t="n">
-        <v>775.1953125</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -3479,10 +3479,10 @@
         <v>0.432867</v>
       </c>
       <c r="E122" t="n">
+        <v>45.92907029478458</v>
+      </c>
+      <c r="F122" t="n">
         <v>0.2840993404388428</v>
-      </c>
-      <c r="F122" t="n">
-        <v>839.794921875</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -3504,10 +3504,10 @@
         <v>-0.01970600000000004</v>
       </c>
       <c r="E123" t="n">
+        <v>46.38185941043084</v>
+      </c>
+      <c r="F123" t="n">
         <v>0.2482411712408066</v>
-      </c>
-      <c r="F123" t="n">
-        <v>904.39453125</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -3529,10 +3529,10 @@
         <v>0.06030700000000001</v>
       </c>
       <c r="E124" t="n">
+        <v>46.85786848072562</v>
+      </c>
+      <c r="F124" t="n">
         <v>0.2277911454439163</v>
-      </c>
-      <c r="F124" t="n">
-        <v>4091.30859375</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -3554,10 +3554,10 @@
         <v>-0.6645</v>
       </c>
       <c r="E125" t="n">
+        <v>48.73868480725623</v>
+      </c>
+      <c r="F125" t="n">
         <v>0.1995283365249634</v>
-      </c>
-      <c r="F125" t="n">
-        <v>925.927734375</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -3579,10 +3579,10 @@
         <v>0.03965750000000001</v>
       </c>
       <c r="E126" t="n">
+        <v>49.66748299319728</v>
+      </c>
+      <c r="F126" t="n">
         <v>0.1713317632675171</v>
-      </c>
-      <c r="F126" t="n">
-        <v>4414.306640625</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -3604,10 +3604,10 @@
         <v>-0.119897</v>
       </c>
       <c r="E127" t="n">
+        <v>51.3277097505669</v>
+      </c>
+      <c r="F127" t="n">
         <v>0.183479055762291</v>
-      </c>
-      <c r="F127" t="n">
-        <v>904.39453125</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -3629,10 +3629,10 @@
         <v>-0.0705794</v>
       </c>
       <c r="E128" t="n">
+        <v>51.66439909297052</v>
+      </c>
+      <c r="F128" t="n">
         <v>0.2579222321510315</v>
-      </c>
-      <c r="F128" t="n">
-        <v>4414.306640625</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -3654,10 +3654,10 @@
         <v>-0.404515</v>
       </c>
       <c r="E129" t="n">
+        <v>53.52199546485261</v>
+      </c>
+      <c r="F129" t="n">
         <v>0.2905837893486023</v>
-      </c>
-      <c r="F129" t="n">
-        <v>516.796875</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -3679,10 +3679,10 @@
         <v>0.048535</v>
       </c>
       <c r="E130" t="n">
+        <v>53.97478458049886</v>
+      </c>
+      <c r="F130" t="n">
         <v>0.3086844682693481</v>
-      </c>
-      <c r="F130" t="n">
-        <v>516.796875</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -3704,10 +3704,10 @@
         <v>0.369152</v>
       </c>
       <c r="E131" t="n">
+        <v>54.54367346938776</v>
+      </c>
+      <c r="F131" t="n">
         <v>0.3014267385005951</v>
-      </c>
-      <c r="F131" t="n">
-        <v>473.73046875</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -3729,10 +3729,10 @@
         <v>-0.26055892</v>
       </c>
       <c r="E132" t="n">
+        <v>55.58857142857143</v>
+      </c>
+      <c r="F132" t="n">
         <v>0.262865424156189</v>
-      </c>
-      <c r="F132" t="n">
-        <v>581.396484375</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -3754,10 +3754,10 @@
         <v>-0.0585232</v>
       </c>
       <c r="E133" t="n">
+        <v>55.9136507936508</v>
+      </c>
+      <c r="F133" t="n">
         <v>0.2608446776866913</v>
-      </c>
-      <c r="F133" t="n">
-        <v>4220.5078125</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -3779,10 +3779,10 @@
         <v>-0.31922255</v>
       </c>
       <c r="E134" t="n">
+        <v>56.6334693877551</v>
+      </c>
+      <c r="F134" t="n">
         <v>0.2469711750745773</v>
-      </c>
-      <c r="F134" t="n">
-        <v>538.330078125</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -3804,10 +3804,10 @@
         <v>0.4965579999999999</v>
       </c>
       <c r="E135" t="n">
+        <v>57.15591836734694</v>
+      </c>
+      <c r="F135" t="n">
         <v>0.258684366941452</v>
-      </c>
-      <c r="F135" t="n">
-        <v>495.263671875</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -3829,10 +3829,10 @@
         <v>0.541127</v>
       </c>
       <c r="E136" t="n">
+        <v>57.63192743764172</v>
+      </c>
+      <c r="F136" t="n">
         <v>0.2520054876804352</v>
-      </c>
-      <c r="F136" t="n">
-        <v>581.396484375</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -3854,10 +3854,10 @@
         <v>-0.70282975</v>
       </c>
       <c r="E137" t="n">
+        <v>58.10793650793651</v>
+      </c>
+      <c r="F137" t="n">
         <v>0.2659854590892792</v>
-      </c>
-      <c r="F137" t="n">
-        <v>559.86328125</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -3879,10 +3879,10 @@
         <v>0.007268000000000012</v>
       </c>
       <c r="E138" t="n">
+        <v>58.63038548752834</v>
+      </c>
+      <c r="F138" t="n">
         <v>0.2628146708011627</v>
-      </c>
-      <c r="F138" t="n">
-        <v>559.86328125</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -3904,10 +3904,10 @@
         <v>-0.547608</v>
       </c>
       <c r="E139" t="n">
+        <v>59.58240362811792</v>
+      </c>
+      <c r="F139" t="n">
         <v>0.2154809534549713</v>
-      </c>
-      <c r="F139" t="n">
-        <v>581.396484375</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -3929,10 +3929,10 @@
         <v>-0.4547450000000001</v>
       </c>
       <c r="E140" t="n">
+        <v>3.13469387755102</v>
+      </c>
+      <c r="F140" t="n">
         <v>0.4501658380031586</v>
-      </c>
-      <c r="F140" t="n">
-        <v>3746.77734375</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         <v>0.2678372</v>
       </c>
       <c r="E141" t="n">
+        <v>3.773242630385488</v>
+      </c>
+      <c r="F141" t="n">
         <v>0.6074351072311401</v>
-      </c>
-      <c r="F141" t="n">
-        <v>430.6640625</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -3979,10 +3979,10 @@
         <v>-0.99444</v>
       </c>
       <c r="E142" t="n">
+        <v>4.400181405895691</v>
+      </c>
+      <c r="F142" t="n">
         <v>0.6542943716049194</v>
-      </c>
-      <c r="F142" t="n">
-        <v>495.263671875</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4004,10 +4004,10 @@
         <v>-0.2159526</v>
       </c>
       <c r="E143" t="n">
+        <v>5.061950113378685</v>
+      </c>
+      <c r="F143" t="n">
         <v>0.563585102558136</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2282.51953125</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4029,10 +4029,10 @@
         <v>0.416245</v>
       </c>
       <c r="E144" t="n">
+        <v>5.712108843537415</v>
+      </c>
+      <c r="F144" t="n">
         <v>0.5068813562393188</v>
-      </c>
-      <c r="F144" t="n">
-        <v>301.46484375</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4054,10 +4054,10 @@
         <v>-0.036271</v>
       </c>
       <c r="E145" t="n">
+        <v>6.443537414965986</v>
+      </c>
+      <c r="F145" t="n">
         <v>0.6627400517463684</v>
-      </c>
-      <c r="F145" t="n">
-        <v>322.998046875</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -4079,10 +4079,10 @@
         <v>0.325368</v>
       </c>
       <c r="E146" t="n">
+        <v>6.989206349206349</v>
+      </c>
+      <c r="F146" t="n">
         <v>0.5718967318534851</v>
-      </c>
-      <c r="F146" t="n">
-        <v>3552.978515625</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -4104,10 +4104,10 @@
         <v>2.046695</v>
       </c>
       <c r="E147" t="n">
+        <v>8.916462585034013</v>
+      </c>
+      <c r="F147" t="n">
         <v>0.6470839381217957</v>
-      </c>
-      <c r="F147" t="n">
-        <v>279.931640625</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -4129,10 +4129,10 @@
         <v>-0.3310078</v>
       </c>
       <c r="E148" t="n">
+        <v>9.287981859410431</v>
+      </c>
+      <c r="F148" t="n">
         <v>0.5898582339286804</v>
-      </c>
-      <c r="F148" t="n">
-        <v>2971.58203125</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -4154,10 +4154,10 @@
         <v>-0.298349</v>
       </c>
       <c r="E149" t="n">
+        <v>10.27482993197279</v>
+      </c>
+      <c r="F149" t="n">
         <v>0.6630143523216248</v>
-      </c>
-      <c r="F149" t="n">
-        <v>3445.3125</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -4179,10 +4179,10 @@
         <v>-0.1466784</v>
       </c>
       <c r="E150" t="n">
+        <v>11.98149659863946</v>
+      </c>
+      <c r="F150" t="n">
         <v>0.4297657012939453</v>
-      </c>
-      <c r="F150" t="n">
-        <v>3466.845703125</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -4204,10 +4204,10 @@
         <v>-0.205091</v>
       </c>
       <c r="E151" t="n">
+        <v>12.80580498866213</v>
+      </c>
+      <c r="F151" t="n">
         <v>0.6639760732650757</v>
-      </c>
-      <c r="F151" t="n">
-        <v>301.46484375</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -4229,10 +4229,10 @@
         <v>-1.023535</v>
       </c>
       <c r="E152" t="n">
+        <v>13.47918367346939</v>
+      </c>
+      <c r="F152" t="n">
         <v>0.6396822333335876</v>
-      </c>
-      <c r="F152" t="n">
-        <v>344.53125</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -4254,10 +4254,10 @@
         <v>-0.12648865</v>
       </c>
       <c r="E153" t="n">
+        <v>14.0712925170068</v>
+      </c>
+      <c r="F153" t="n">
         <v>0.5078771710395813</v>
-      </c>
-      <c r="F153" t="n">
-        <v>3682.177734375</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -4279,10 +4279,10 @@
         <v>-1.663716</v>
       </c>
       <c r="E154" t="n">
+        <v>16.02176870748299</v>
+      </c>
+      <c r="F154" t="n">
         <v>0.613507866859436</v>
-      </c>
-      <c r="F154" t="n">
-        <v>301.46484375</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -4304,10 +4304,10 @@
         <v>-0.378903</v>
       </c>
       <c r="E155" t="n">
+        <v>16.68353741496599</v>
+      </c>
+      <c r="F155" t="n">
         <v>0.6802361011505127</v>
-      </c>
-      <c r="F155" t="n">
-        <v>387.59765625</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -4329,10 +4329,10 @@
         <v>0.120544</v>
       </c>
       <c r="E156" t="n">
+        <v>17.10149659863946</v>
+      </c>
+      <c r="F156" t="n">
         <v>0.5199732184410095</v>
-      </c>
-      <c r="F156" t="n">
-        <v>3402.24609375</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -4354,10 +4354,10 @@
         <v>-0.1135084</v>
       </c>
       <c r="E157" t="n">
+        <v>17.96063492063492</v>
+      </c>
+      <c r="F157" t="n">
         <v>0.5439461469650269</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3380.712890625</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -4379,10 +4379,10 @@
         <v>0.0590746</v>
       </c>
       <c r="E158" t="n">
+        <v>19.4118820861678</v>
+      </c>
+      <c r="F158" t="n">
         <v>0.4842812716960907</v>
-      </c>
-      <c r="F158" t="n">
-        <v>2519.384765625</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -4404,10 +4404,10 @@
         <v>-1.0059392</v>
       </c>
       <c r="E159" t="n">
+        <v>20.02721088435374</v>
+      </c>
+      <c r="F159" t="n">
         <v>0.6011495590209961</v>
-      </c>
-      <c r="F159" t="n">
-        <v>301.46484375</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -4429,10 +4429,10 @@
         <v>-0.5397606</v>
       </c>
       <c r="E160" t="n">
+        <v>20.56126984126984</v>
+      </c>
+      <c r="F160" t="n">
         <v>0.6858065724372864</v>
-      </c>
-      <c r="F160" t="n">
-        <v>279.931640625</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -4454,10 +4454,10 @@
         <v>-0.2532152</v>
       </c>
       <c r="E161" t="n">
+        <v>22.86004535147392</v>
+      </c>
+      <c r="F161" t="n">
         <v>0.5833697319030762</v>
-      </c>
-      <c r="F161" t="n">
-        <v>3337.646484375</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -4479,10 +4479,10 @@
         <v>0.153175</v>
       </c>
       <c r="E162" t="n">
+        <v>25.40263038548753</v>
+      </c>
+      <c r="F162" t="n">
         <v>0.5411797165870667</v>
-      </c>
-      <c r="F162" t="n">
-        <v>3186.9140625</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -4504,10 +4504,10 @@
         <v>0.2147085</v>
       </c>
       <c r="E163" t="n">
+        <v>28.09614512471655</v>
+      </c>
+      <c r="F163" t="n">
         <v>0.3982822895050049</v>
-      </c>
-      <c r="F163" t="n">
-        <v>2239.453125</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -4529,10 +4529,10 @@
         <v>-0.214564</v>
       </c>
       <c r="E164" t="n">
+        <v>29.83764172335601</v>
+      </c>
+      <c r="F164" t="n">
         <v>0.4441517889499664</v>
-      </c>
-      <c r="F164" t="n">
-        <v>3574.51171875</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -4554,10 +4554,10 @@
         <v>0.342455</v>
       </c>
       <c r="E165" t="n">
+        <v>32.34539682539683</v>
+      </c>
+      <c r="F165" t="n">
         <v>0.5341187119483948</v>
-      </c>
-      <c r="F165" t="n">
-        <v>3660.64453125</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -4579,10 +4579,10 @@
         <v>-0.1456514</v>
       </c>
       <c r="E166" t="n">
+        <v>35.49170068027211</v>
+      </c>
+      <c r="F166" t="n">
         <v>0.6634252667427063</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2282.51953125</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -4604,10 +4604,10 @@
         <v>-0.06178</v>
       </c>
       <c r="E167" t="n">
+        <v>37.58149659863945</v>
+      </c>
+      <c r="F167" t="n">
         <v>0.4867027997970581</v>
-      </c>
-      <c r="F167" t="n">
-        <v>2454.78515625</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -4629,10 +4629,10 @@
         <v>-0.1531305</v>
       </c>
       <c r="E168" t="n">
+        <v>42.29514739229025</v>
+      </c>
+      <c r="F168" t="n">
         <v>0.5347205400466919</v>
-      </c>
-      <c r="F168" t="n">
-        <v>3337.646484375</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         <v>-0.114003</v>
       </c>
       <c r="E169" t="n">
+        <v>45.39501133786848</v>
+      </c>
+      <c r="F169" t="n">
         <v>0.5817247629165649</v>
-      </c>
-      <c r="F169" t="n">
-        <v>3466.845703125</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -4679,10 +4679,10 @@
         <v>0.0907955</v>
       </c>
       <c r="E170" t="n">
+        <v>47.03201814058957</v>
+      </c>
+      <c r="F170" t="n">
         <v>0.5353156924247742</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2260.986328125</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -4704,10 +4704,10 @@
         <v>-0.150888</v>
       </c>
       <c r="E171" t="n">
+        <v>48.56453514739229</v>
+      </c>
+      <c r="F171" t="n">
         <v>0.5287635922431946</v>
-      </c>
-      <c r="F171" t="n">
-        <v>3423.779296875</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -4729,10 +4729,10 @@
         <v>0.4448744</v>
       </c>
       <c r="E172" t="n">
+        <v>51.83854875283447</v>
+      </c>
+      <c r="F172" t="n">
         <v>0.5457456111907959</v>
-      </c>
-      <c r="F172" t="n">
-        <v>2519.384765625</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -4754,10 +4754,10 @@
         <v>0.492539</v>
       </c>
       <c r="E173" t="n">
+        <v>52.51192743764172</v>
+      </c>
+      <c r="F173" t="n">
         <v>0.5469157099723816</v>
-      </c>
-      <c r="F173" t="n">
-        <v>452.197265625</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -4779,10 +4779,10 @@
         <v>-0.0162183</v>
       </c>
       <c r="E174" t="n">
+        <v>52.99954648526077</v>
+      </c>
+      <c r="F174" t="n">
         <v>0.5064195394515991</v>
-      </c>
-      <c r="F174" t="n">
-        <v>409.130859375</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -4804,10 +4804,10 @@
         <v>0.3592150000000001</v>
       </c>
       <c r="E175" t="n">
+        <v>53.67292517006803</v>
+      </c>
+      <c r="F175" t="n">
         <v>0.4942649900913239</v>
-      </c>
-      <c r="F175" t="n">
-        <v>387.59765625</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -4829,10 +4829,10 @@
         <v>-0.0570052</v>
       </c>
       <c r="E176" t="n">
+        <v>54.77587301587302</v>
+      </c>
+      <c r="F176" t="n">
         <v>0.5133434534072876</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2260.986328125</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -4854,10 +4854,10 @@
         <v>-0.0667985</v>
       </c>
       <c r="E177" t="n">
+        <v>55.7859410430839</v>
+      </c>
+      <c r="F177" t="n">
         <v>0.4293949604034424</v>
-      </c>
-      <c r="F177" t="n">
-        <v>452.197265625</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -4879,10 +4879,10 @@
         <v>-0.2745124</v>
       </c>
       <c r="E178" t="n">
+        <v>56.26195011337869</v>
+      </c>
+      <c r="F178" t="n">
         <v>0.4842788279056549</v>
-      </c>
-      <c r="F178" t="n">
-        <v>516.796875</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -4904,10 +4904,10 @@
         <v>0.03380160000000001</v>
       </c>
       <c r="E179" t="n">
+        <v>56.62185941043084</v>
+      </c>
+      <c r="F179" t="n">
         <v>0.5600021481513977</v>
-      </c>
-      <c r="F179" t="n">
-        <v>495.263671875</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -4929,10 +4929,10 @@
         <v>-0.2425672</v>
       </c>
       <c r="E180" t="n">
+        <v>57.20235827664399</v>
+      </c>
+      <c r="F180" t="n">
         <v>0.4596482515335083</v>
-      </c>
-      <c r="F180" t="n">
-        <v>2282.51953125</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -4954,10 +4954,10 @@
         <v>1.01148</v>
       </c>
       <c r="E181" t="n">
+        <v>57.65514739229025</v>
+      </c>
+      <c r="F181" t="n">
         <v>0.4429691433906555</v>
-      </c>
-      <c r="F181" t="n">
-        <v>581.396484375</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -4979,10 +4979,10 @@
         <v>0.417074</v>
       </c>
       <c r="E182" t="n">
+        <v>58.09632653061225</v>
+      </c>
+      <c r="F182" t="n">
         <v>0.4564569890499115</v>
-      </c>
-      <c r="F182" t="n">
-        <v>753.662109375</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -5004,10 +5004,10 @@
         <v>-0.080842</v>
       </c>
       <c r="E183" t="n">
+        <v>58.53750566893424</v>
+      </c>
+      <c r="F183" t="n">
         <v>0.5287003517150879</v>
-      </c>
-      <c r="F183" t="n">
-        <v>516.796875</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -5029,10 +5029,10 @@
         <v>0.1253174</v>
       </c>
       <c r="E184" t="n">
+        <v>58.96707482993197</v>
+      </c>
+      <c r="F184" t="n">
         <v>0.5381126999855042</v>
-      </c>
-      <c r="F184" t="n">
-        <v>516.796875</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -5054,10 +5054,10 @@
         <v>0.03648169999999996</v>
       </c>
       <c r="E185" t="n">
+        <v>59.68689342403628</v>
+      </c>
+      <c r="F185" t="n">
         <v>0.4912011623382568</v>
-      </c>
-      <c r="F185" t="n">
-        <v>732.12890625</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -5079,10 +5079,10 @@
         <v>-0.15634</v>
       </c>
       <c r="E186" t="n">
+        <v>1.555736961451247</v>
+      </c>
+      <c r="F186" t="n">
         <v>0.4746626615524292</v>
-      </c>
-      <c r="F186" t="n">
-        <v>839.794921875</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -5104,10 +5104,10 @@
         <v>0.297729</v>
       </c>
       <c r="E187" t="n">
+        <v>4.121541950113379</v>
+      </c>
+      <c r="F187" t="n">
         <v>0.4383725225925446</v>
-      </c>
-      <c r="F187" t="n">
-        <v>4155.908203125</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -5129,10 +5129,10 @@
         <v>-0.657796</v>
       </c>
       <c r="E188" t="n">
+        <v>6.965986394557823</v>
+      </c>
+      <c r="F188" t="n">
         <v>0.450365424156189</v>
-      </c>
-      <c r="F188" t="n">
-        <v>732.12890625</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -5154,10 +5154,10 @@
         <v>0.05792969999999999</v>
       </c>
       <c r="E189" t="n">
+        <v>7.430385487528345</v>
+      </c>
+      <c r="F189" t="n">
         <v>0.4416683912277222</v>
-      </c>
-      <c r="F189" t="n">
-        <v>775.1953125</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -5179,10 +5179,10 @@
         <v>0.02921700000000002</v>
       </c>
       <c r="E190" t="n">
+        <v>7.976054421768707</v>
+      </c>
+      <c r="F190" t="n">
         <v>0.4668835401535034</v>
-      </c>
-      <c r="F190" t="n">
-        <v>710.595703125</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -5204,10 +5204,10 @@
         <v>0.212675</v>
       </c>
       <c r="E191" t="n">
+        <v>8.324353741496598</v>
+      </c>
+      <c r="F191" t="n">
         <v>0.4125043451786041</v>
-      </c>
-      <c r="F191" t="n">
-        <v>4608.10546875</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -5229,10 +5229,10 @@
         <v>0.1060552</v>
       </c>
       <c r="E192" t="n">
+        <v>12.97995464852608</v>
+      </c>
+      <c r="F192" t="n">
         <v>0.344047337770462</v>
-      </c>
-      <c r="F192" t="n">
-        <v>4112.841796875</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -5254,10 +5254,10 @@
         <v>0.013914</v>
       </c>
       <c r="E193" t="n">
+        <v>15.56897959183673</v>
+      </c>
+      <c r="F193" t="n">
         <v>0.3357683718204498</v>
-      </c>
-      <c r="F193" t="n">
-        <v>3186.9140625</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -5279,10 +5279,10 @@
         <v>-0.848939</v>
       </c>
       <c r="E194" t="n">
+        <v>19.73696145124716</v>
+      </c>
+      <c r="F194" t="n">
         <v>0.4396944940090179</v>
-      </c>
-      <c r="F194" t="n">
-        <v>796.728515625</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -5304,10 +5304,10 @@
         <v>0.188291</v>
       </c>
       <c r="E195" t="n">
+        <v>20.1665306122449</v>
+      </c>
+      <c r="F195" t="n">
         <v>0.4782217442989349</v>
-      </c>
-      <c r="F195" t="n">
-        <v>4780.37109375</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -5329,10 +5329,10 @@
         <v>0.0605255</v>
       </c>
       <c r="E196" t="n">
+        <v>22.8368253968254</v>
+      </c>
+      <c r="F196" t="n">
         <v>0.4556012749671936</v>
-      </c>
-      <c r="F196" t="n">
-        <v>839.794921875</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -5354,10 +5354,10 @@
         <v>-0.161999</v>
       </c>
       <c r="E197" t="n">
+        <v>23.28961451247165</v>
+      </c>
+      <c r="F197" t="n">
         <v>0.3935619294643402</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1421.19140625</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -5379,10 +5379,10 @@
         <v>0.346434</v>
       </c>
       <c r="E198" t="n">
+        <v>24.26485260770975</v>
+      </c>
+      <c r="F198" t="n">
         <v>0.454278290271759</v>
-      </c>
-      <c r="F198" t="n">
-        <v>3165.380859375</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -5404,10 +5404,10 @@
         <v>0.146737</v>
       </c>
       <c r="E199" t="n">
+        <v>24.86857142857143</v>
+      </c>
+      <c r="F199" t="n">
         <v>0.4445548057556152</v>
-      </c>
-      <c r="F199" t="n">
-        <v>4091.30859375</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -5429,10 +5429,10 @@
         <v>-0.212387</v>
       </c>
       <c r="E200" t="n">
+        <v>27.89877551020408</v>
+      </c>
+      <c r="F200" t="n">
         <v>0.4055695533752441</v>
-      </c>
-      <c r="F200" t="n">
-        <v>4435.83984375</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -5454,10 +5454,10 @@
         <v>-0.08472499999999998</v>
       </c>
       <c r="E201" t="n">
+        <v>29.41968253968254</v>
+      </c>
+      <c r="F201" t="n">
         <v>0.3914630115032196</v>
-      </c>
-      <c r="F201" t="n">
-        <v>4220.5078125</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -5479,10 +5479,10 @@
         <v>0.214525</v>
       </c>
       <c r="E202" t="n">
+        <v>32.33378684807256</v>
+      </c>
+      <c r="F202" t="n">
         <v>0.5157358646392822</v>
-      </c>
-      <c r="F202" t="n">
-        <v>3251.513671875</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -5504,10 +5504,10 @@
         <v>-0.00136300000000001</v>
       </c>
       <c r="E203" t="n">
+        <v>33.73859410430839</v>
+      </c>
+      <c r="F203" t="n">
         <v>0.4191933870315552</v>
-      </c>
-      <c r="F203" t="n">
-        <v>4198.974609375</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -5529,10 +5529,10 @@
         <v>-0.159544</v>
       </c>
       <c r="E204" t="n">
+        <v>35.64263038548753</v>
+      </c>
+      <c r="F204" t="n">
         <v>0.492092490196228</v>
-      </c>
-      <c r="F204" t="n">
-        <v>3014.6484375</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -5554,10 +5554,10 @@
         <v>0.182578</v>
       </c>
       <c r="E205" t="n">
+        <v>38.87020408163265</v>
+      </c>
+      <c r="F205" t="n">
         <v>0.3671734929084778</v>
-      </c>
-      <c r="F205" t="n">
-        <v>4995.703125</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -5579,10 +5579,10 @@
         <v>-0.43567</v>
       </c>
       <c r="E206" t="n">
+        <v>39.47392290249433</v>
+      </c>
+      <c r="F206" t="n">
         <v>0.412855476140976</v>
-      </c>
-      <c r="F206" t="n">
-        <v>2993.115234375</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -5604,10 +5604,10 @@
         <v>0.0151313</v>
       </c>
       <c r="E207" t="n">
+        <v>42.72471655328798</v>
+      </c>
+      <c r="F207" t="n">
         <v>0.4161770343780518</v>
-      </c>
-      <c r="F207" t="n">
-        <v>3100.78125</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -5629,10 +5629,10 @@
         <v>0.156424</v>
       </c>
       <c r="E208" t="n">
+        <v>44.50104308390023</v>
+      </c>
+      <c r="F208" t="n">
         <v>0.3906069099903107</v>
-      </c>
-      <c r="F208" t="n">
-        <v>3466.845703125</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -5654,10 +5654,10 @@
         <v>-0.08558900000000001</v>
       </c>
       <c r="E209" t="n">
+        <v>47.9956462585034</v>
+      </c>
+      <c r="F209" t="n">
         <v>0.5165995359420776</v>
-      </c>
-      <c r="F209" t="n">
-        <v>3466.845703125</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -5679,10 +5679,10 @@
         <v>0.02102030000000001</v>
       </c>
       <c r="E210" t="n">
+        <v>48.98249433106576</v>
+      </c>
+      <c r="F210" t="n">
         <v>0.4706869423389435</v>
-      </c>
-      <c r="F210" t="n">
-        <v>3423.779296875</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -5704,10 +5704,10 @@
         <v>0.241376</v>
       </c>
       <c r="E211" t="n">
+        <v>49.89968253968254</v>
+      </c>
+      <c r="F211" t="n">
         <v>0.428582489490509</v>
-      </c>
-      <c r="F211" t="n">
-        <v>2928.515625</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -5729,10 +5729,10 @@
         <v>0.06816069999999996</v>
       </c>
       <c r="E212" t="n">
+        <v>52.41904761904762</v>
+      </c>
+      <c r="F212" t="n">
         <v>0.4263865649700165</v>
-      </c>
-      <c r="F212" t="n">
-        <v>9280.810546875</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -5754,10 +5754,10 @@
         <v>-0.1487746</v>
       </c>
       <c r="E213" t="n">
+        <v>55.85560090702948</v>
+      </c>
+      <c r="F213" t="n">
         <v>0.5258585214614868</v>
-      </c>
-      <c r="F213" t="n">
-        <v>2842.3828125</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -5779,10 +5779,10 @@
         <v>0.08279</v>
       </c>
       <c r="E214" t="n">
+        <v>59.44308390022676</v>
+      </c>
+      <c r="F214" t="n">
         <v>0.3879822492599487</v>
-      </c>
-      <c r="F214" t="n">
-        <v>3875.9765625</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -5804,10 +5804,10 @@
         <v>0.6026659999999999</v>
       </c>
       <c r="E215" t="n">
+        <v>0.08126984126984127</v>
+      </c>
+      <c r="F215" t="n">
         <v>0.4353636801242828</v>
-      </c>
-      <c r="F215" t="n">
-        <v>366.064453125</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -5829,10 +5829,10 @@
         <v>-0.3020942</v>
       </c>
       <c r="E216" t="n">
+        <v>0.5340589569160997</v>
+      </c>
+      <c r="F216" t="n">
         <v>0.3794967532157898</v>
-      </c>
-      <c r="F216" t="n">
-        <v>3488.37890625</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         <v>-0.3084</v>
       </c>
       <c r="E217" t="n">
+        <v>1.126167800453515</v>
+      </c>
+      <c r="F217" t="n">
         <v>0.4570063948631287</v>
-      </c>
-      <c r="F217" t="n">
-        <v>581.396484375</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -5879,10 +5879,10 @@
         <v>0.117156</v>
       </c>
       <c r="E218" t="n">
+        <v>2.832834467120181</v>
+      </c>
+      <c r="F218" t="n">
         <v>0.4389214515686035</v>
-      </c>
-      <c r="F218" t="n">
-        <v>495.263671875</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -5904,10 +5904,10 @@
         <v>-0.9678909999999998</v>
       </c>
       <c r="E219" t="n">
+        <v>3.297233560090703</v>
+      </c>
+      <c r="F219" t="n">
         <v>0.486061155796051</v>
-      </c>
-      <c r="F219" t="n">
-        <v>645.99609375</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -5929,10 +5929,10 @@
         <v>-0.0923494</v>
       </c>
       <c r="E220" t="n">
+        <v>4.818140589569161</v>
+      </c>
+      <c r="F220" t="n">
         <v>0.4669179320335388</v>
-      </c>
-      <c r="F220" t="n">
-        <v>495.263671875</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -5954,10 +5954,10 @@
         <v>-0.0252111</v>
       </c>
       <c r="E221" t="n">
+        <v>5.270929705215419</v>
+      </c>
+      <c r="F221" t="n">
         <v>0.3738939762115479</v>
-      </c>
-      <c r="F221" t="n">
-        <v>753.662109375</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -5979,10 +5979,10 @@
         <v>-0.274236</v>
       </c>
       <c r="E222" t="n">
+        <v>5.758548752834467</v>
+      </c>
+      <c r="F222" t="n">
         <v>0.4111570715904236</v>
-      </c>
-      <c r="F222" t="n">
-        <v>495.263671875</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -6004,10 +6004,10 @@
         <v>0.0191025</v>
       </c>
       <c r="E223" t="n">
+        <v>7.267845804988662</v>
+      </c>
+      <c r="F223" t="n">
         <v>0.4562970995903015</v>
-      </c>
-      <c r="F223" t="n">
-        <v>624.462890625</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -6029,10 +6029,10 @@
         <v>-0.780322</v>
       </c>
       <c r="E224" t="n">
+        <v>7.767074829931973</v>
+      </c>
+      <c r="F224" t="n">
         <v>0.4465092420578003</v>
-      </c>
-      <c r="F224" t="n">
-        <v>495.263671875</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -6054,10 +6054,10 @@
         <v>0.5041330000000001</v>
       </c>
       <c r="E225" t="n">
+        <v>8.324353741496598</v>
+      </c>
+      <c r="F225" t="n">
         <v>0.4197844564914703</v>
-      </c>
-      <c r="F225" t="n">
-        <v>2993.115234375</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -6079,10 +6079,10 @@
         <v>0.3316250000000001</v>
       </c>
       <c r="E226" t="n">
+        <v>9.833650793650794</v>
+      </c>
+      <c r="F226" t="n">
         <v>0.4612756073474884</v>
-      </c>
-      <c r="F226" t="n">
-        <v>473.73046875</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -6104,10 +6104,10 @@
         <v>0.1597845</v>
       </c>
       <c r="E227" t="n">
+        <v>10.32126984126984</v>
+      </c>
+      <c r="F227" t="n">
         <v>0.494004100561142</v>
-      </c>
-      <c r="F227" t="n">
-        <v>1442.724609375</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -6129,10 +6129,10 @@
         <v>-0.8898569999999999</v>
       </c>
       <c r="E228" t="n">
+        <v>11.36616780045351</v>
+      </c>
+      <c r="F228" t="n">
         <v>0.4643582701683044</v>
-      </c>
-      <c r="F228" t="n">
-        <v>409.130859375</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -6154,10 +6154,10 @@
         <v>-0.0290865</v>
       </c>
       <c r="E229" t="n">
+        <v>11.90022675736961</v>
+      </c>
+      <c r="F229" t="n">
         <v>0.4131926298141479</v>
-      </c>
-      <c r="F229" t="n">
-        <v>2928.515625</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -6179,10 +6179,10 @@
         <v>0.8504930000000001</v>
       </c>
       <c r="E230" t="n">
+        <v>12.45750566893424</v>
+      </c>
+      <c r="F230" t="n">
         <v>0.46224644780159</v>
-      </c>
-      <c r="F230" t="n">
-        <v>538.330078125</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -6204,10 +6204,10 @@
         <v>-0.806961</v>
       </c>
       <c r="E231" t="n">
+        <v>13.46757369614513</v>
+      </c>
+      <c r="F231" t="n">
         <v>0.4818947315216064</v>
-      </c>
-      <c r="F231" t="n">
-        <v>430.6640625</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -6229,10 +6229,10 @@
         <v>0.008760000000000006</v>
       </c>
       <c r="E232" t="n">
+        <v>14.02485260770975</v>
+      </c>
+      <c r="F232" t="n">
         <v>0.4708978533744812</v>
-      </c>
-      <c r="F232" t="n">
-        <v>2756.25</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -6254,10 +6254,10 @@
         <v>0.280993</v>
       </c>
       <c r="E233" t="n">
+        <v>15.71990929705215</v>
+      </c>
+      <c r="F233" t="n">
         <v>0.2222174108028412</v>
-      </c>
-      <c r="F233" t="n">
-        <v>2820.849609375</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -6279,10 +6279,10 @@
         <v>-0.561734</v>
       </c>
       <c r="E234" t="n">
+        <v>18.85460317460317</v>
+      </c>
+      <c r="F234" t="n">
         <v>0.3909539580345154</v>
-      </c>
-      <c r="F234" t="n">
-        <v>1701.123046875</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -6304,10 +6304,10 @@
         <v>-0.8348059999999999</v>
       </c>
       <c r="E235" t="n">
+        <v>19.87628117913832</v>
+      </c>
+      <c r="F235" t="n">
         <v>0.5702017545700073</v>
-      </c>
-      <c r="F235" t="n">
-        <v>495.263671875</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -6329,10 +6329,10 @@
         <v>-0.128901</v>
       </c>
       <c r="E236" t="n">
+        <v>20.00399092970521</v>
+      </c>
+      <c r="F236" t="n">
         <v>0.5974416732788086</v>
-      </c>
-      <c r="F236" t="n">
-        <v>2088.720703125</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -6354,10 +6354,10 @@
         <v>0.62644</v>
       </c>
       <c r="E237" t="n">
+        <v>21.43201814058957</v>
+      </c>
+      <c r="F237" t="n">
         <v>0.5014625787734985</v>
-      </c>
-      <c r="F237" t="n">
-        <v>430.6640625</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -6379,10 +6379,10 @@
         <v>0.236481</v>
       </c>
       <c r="E238" t="n">
+        <v>21.93124716553288</v>
+      </c>
+      <c r="F238" t="n">
         <v>0.4648246765136719</v>
-      </c>
-      <c r="F238" t="n">
-        <v>387.59765625</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -6404,10 +6404,10 @@
         <v>-0.32201</v>
       </c>
       <c r="E239" t="n">
+        <v>22.59301587301587</v>
+      </c>
+      <c r="F239" t="n">
         <v>0.4084689319133759</v>
-      </c>
-      <c r="F239" t="n">
-        <v>3337.646484375</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -6429,10 +6429,10 @@
         <v>-0.025684</v>
       </c>
       <c r="E240" t="n">
+        <v>25.95990929705215</v>
+      </c>
+      <c r="F240" t="n">
         <v>0.3658051192760468</v>
-      </c>
-      <c r="F240" t="n">
-        <v>2411.71875</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -6454,10 +6454,10 @@
         <v>-0.4968939999999999</v>
       </c>
       <c r="E241" t="n">
+        <v>27.41115646258503</v>
+      </c>
+      <c r="F241" t="n">
         <v>0.3677509427070618</v>
-      </c>
-      <c r="F241" t="n">
-        <v>4823.4375</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -6479,10 +6479,10 @@
         <v>0.062614</v>
       </c>
       <c r="E242" t="n">
+        <v>29.18748299319728</v>
+      </c>
+      <c r="F242" t="n">
         <v>0.3586937189102173</v>
-      </c>
-      <c r="F242" t="n">
-        <v>3014.6484375</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -6504,10 +6504,10 @@
         <v>0.309994</v>
       </c>
       <c r="E243" t="n">
+        <v>30.53424036281179</v>
+      </c>
+      <c r="F243" t="n">
         <v>0.5131331086158752</v>
-      </c>
-      <c r="F243" t="n">
-        <v>2950.048828125</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -6529,10 +6529,10 @@
         <v>-0.1925948</v>
       </c>
       <c r="E244" t="n">
+        <v>32.14802721088435</v>
+      </c>
+      <c r="F244" t="n">
         <v>0.3260004818439484</v>
-      </c>
-      <c r="F244" t="n">
-        <v>1507.32421875</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -6554,10 +6554,10 @@
         <v>0.006867899999999997</v>
       </c>
       <c r="E245" t="n">
+        <v>33.85469387755102</v>
+      </c>
+      <c r="F245" t="n">
         <v>0.3752983510494232</v>
-      </c>
-      <c r="F245" t="n">
-        <v>2217.919921875</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -6579,10 +6579,10 @@
         <v>0.0425392</v>
       </c>
       <c r="E246" t="n">
+        <v>36.501768707483</v>
+      </c>
+      <c r="F246" t="n">
         <v>0.3936578035354614</v>
-      </c>
-      <c r="F246" t="n">
-        <v>3100.78125</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -6604,10 +6604,10 @@
         <v>0.2529775</v>
       </c>
       <c r="E247" t="n">
+        <v>38.0691156462585</v>
+      </c>
+      <c r="F247" t="n">
         <v>0.3363303244113922</v>
-      </c>
-      <c r="F247" t="n">
-        <v>2282.51953125</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -6629,10 +6629,10 @@
         <v>0.474382</v>
       </c>
       <c r="E248" t="n">
+        <v>39.6712925170068</v>
+      </c>
+      <c r="F248" t="n">
         <v>0.381014496088028</v>
-      </c>
-      <c r="F248" t="n">
-        <v>2217.919921875</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -6654,10 +6654,10 @@
         <v>-0.0852769</v>
       </c>
       <c r="E249" t="n">
+        <v>41.08770975056689</v>
+      </c>
+      <c r="F249" t="n">
         <v>0.4283446967601776</v>
-      </c>
-      <c r="F249" t="n">
-        <v>2885.44921875</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -6679,10 +6679,10 @@
         <v>-0.3021668</v>
       </c>
       <c r="E250" t="n">
+        <v>43.68834467120181</v>
+      </c>
+      <c r="F250" t="n">
         <v>0.3728378117084503</v>
-      </c>
-      <c r="F250" t="n">
-        <v>2756.25</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -6704,10 +6704,10 @@
         <v>-0.2054215</v>
       </c>
       <c r="E251" t="n">
+        <v>45.44145124716553</v>
+      </c>
+      <c r="F251" t="n">
         <v>0.3864788115024567</v>
-      </c>
-      <c r="F251" t="n">
-        <v>2325.5859375</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -6729,10 +6729,10 @@
         <v>-0.469397</v>
       </c>
       <c r="E252" t="n">
+        <v>47.71700680272109</v>
+      </c>
+      <c r="F252" t="n">
         <v>0.3525626063346863</v>
-      </c>
-      <c r="F252" t="n">
-        <v>2605.517578125</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -6754,10 +6754,10 @@
         <v>-0.5889848</v>
       </c>
       <c r="E253" t="n">
+        <v>52.25650793650794</v>
+      </c>
+      <c r="F253" t="n">
         <v>0.4931949973106384</v>
-      </c>
-      <c r="F253" t="n">
-        <v>1399.658203125</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -6779,10 +6779,10 @@
         <v>0.1974002</v>
       </c>
       <c r="E254" t="n">
+        <v>5.479909297052155</v>
+      </c>
+      <c r="F254" t="n">
         <v>0.5518948435783386</v>
-      </c>
-      <c r="F254" t="n">
-        <v>1614.990234375</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -6804,10 +6804,10 @@
         <v>0.0247785</v>
       </c>
       <c r="E255" t="n">
+        <v>9.125442176870749</v>
+      </c>
+      <c r="F255" t="n">
         <v>0.4762373268604279</v>
-      </c>
-      <c r="F255" t="n">
-        <v>1485.791015625</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -6829,10 +6829,10 @@
         <v>-0.194585</v>
       </c>
       <c r="E256" t="n">
+        <v>11.76090702947846</v>
+      </c>
+      <c r="F256" t="n">
         <v>0.516711950302124</v>
-      </c>
-      <c r="F256" t="n">
-        <v>3079.248046875</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -6854,10 +6854,10 @@
         <v>-0.02853399999999999</v>
       </c>
       <c r="E257" t="n">
+        <v>14.04807256235828</v>
+      </c>
+      <c r="F257" t="n">
         <v>0.585009753704071</v>
-      </c>
-      <c r="F257" t="n">
-        <v>3552.978515625</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -6879,10 +6879,10 @@
         <v>0.1716195</v>
       </c>
       <c r="E258" t="n">
+        <v>14.53569160997732</v>
+      </c>
+      <c r="F258" t="n">
         <v>0.4687930941581726</v>
-      </c>
-      <c r="F258" t="n">
-        <v>2110.25390625</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -6904,10 +6904,10 @@
         <v>0.1680675</v>
       </c>
       <c r="E259" t="n">
+        <v>16.95056689342404</v>
+      </c>
+      <c r="F259" t="n">
         <v>0.5628640651702881</v>
-      </c>
-      <c r="F259" t="n">
-        <v>2993.115234375</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -6929,10 +6929,10 @@
         <v>0.1001665</v>
       </c>
       <c r="E260" t="n">
+        <v>20.67736961451247</v>
+      </c>
+      <c r="F260" t="n">
         <v>0.5198061466217041</v>
-      </c>
-      <c r="F260" t="n">
-        <v>3100.78125</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -6954,10 +6954,10 @@
         <v>-0.2907028</v>
       </c>
       <c r="E261" t="n">
+        <v>22.58140589569161</v>
+      </c>
+      <c r="F261" t="n">
         <v>0.5566231608390808</v>
-      </c>
-      <c r="F261" t="n">
-        <v>3079.248046875</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -6979,10 +6979,10 @@
         <v>0.1978245</v>
       </c>
       <c r="E262" t="n">
+        <v>24.46222222222222</v>
+      </c>
+      <c r="F262" t="n">
         <v>0.532808780670166</v>
-      </c>
-      <c r="F262" t="n">
-        <v>2906.982421875</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -7004,10 +7004,10 @@
         <v>-0.2986295</v>
       </c>
       <c r="E263" t="n">
+        <v>25.78575963718821</v>
+      </c>
+      <c r="F263" t="n">
         <v>0.5040261149406433</v>
-      </c>
-      <c r="F263" t="n">
-        <v>3122.314453125</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -7029,10 +7029,10 @@
         <v>-0.134384</v>
       </c>
       <c r="E264" t="n">
+        <v>26.28498866213152</v>
+      </c>
+      <c r="F264" t="n">
         <v>0.2996820211410522</v>
-      </c>
-      <c r="F264" t="n">
-        <v>904.39453125</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         <v>-0.0410635</v>
       </c>
       <c r="E265" t="n">
+        <v>29.5590022675737</v>
+      </c>
+      <c r="F265" t="n">
         <v>0.6519854068756104</v>
-      </c>
-      <c r="F265" t="n">
-        <v>3014.6484375</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -7079,10 +7079,10 @@
         <v>-0.179239</v>
       </c>
       <c r="E266" t="n">
+        <v>33.93596371882087</v>
+      </c>
+      <c r="F266" t="n">
         <v>0.6357070207595825</v>
-      </c>
-      <c r="F266" t="n">
-        <v>2993.115234375</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -7104,10 +7104,10 @@
         <v>0.06474850000000001</v>
       </c>
       <c r="E267" t="n">
+        <v>36.04897959183673</v>
+      </c>
+      <c r="F267" t="n">
         <v>0.5949224233627319</v>
-      </c>
-      <c r="F267" t="n">
-        <v>2971.58203125</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -7129,10 +7129,10 @@
         <v>0.349066</v>
       </c>
       <c r="E268" t="n">
+        <v>38.01106575963719</v>
+      </c>
+      <c r="F268" t="n">
         <v>0.5870410799980164</v>
-      </c>
-      <c r="F268" t="n">
-        <v>3122.314453125</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -7154,10 +7154,10 @@
         <v>-0.359791</v>
       </c>
       <c r="E269" t="n">
+        <v>38.95147392290249</v>
+      </c>
+      <c r="F269" t="n">
         <v>0.1923637390136719</v>
-      </c>
-      <c r="F269" t="n">
-        <v>1442.724609375</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -7179,10 +7179,10 @@
         <v>0.3113002</v>
       </c>
       <c r="E270" t="n">
+        <v>39.53197278911565</v>
+      </c>
+      <c r="F270" t="n">
         <v>0.5193952322006226</v>
-      </c>
-      <c r="F270" t="n">
-        <v>2906.982421875</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -7204,10 +7204,10 @@
         <v>0.335511</v>
       </c>
       <c r="E271" t="n">
+        <v>39.54358276643991</v>
+      </c>
+      <c r="F271" t="n">
         <v>0.4440512657165527</v>
-      </c>
-      <c r="F271" t="n">
-        <v>2088.720703125</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -7229,10 +7229,10 @@
         <v>-0.1085065</v>
       </c>
       <c r="E272" t="n">
+        <v>41.31990929705216</v>
+      </c>
+      <c r="F272" t="n">
         <v>0.5513631105422974</v>
-      </c>
-      <c r="F272" t="n">
-        <v>3014.6484375</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -7254,10 +7254,10 @@
         <v>0.394247</v>
       </c>
       <c r="E273" t="n">
+        <v>42.64344671201814</v>
+      </c>
+      <c r="F273" t="n">
         <v>0.5347734093666077</v>
-      </c>
-      <c r="F273" t="n">
-        <v>3208.447265625</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -7279,10 +7279,10 @@
         <v>-0.2650816</v>
       </c>
       <c r="E274" t="n">
+        <v>44.22240362811792</v>
+      </c>
+      <c r="F274" t="n">
         <v>0.5866594910621643</v>
-      </c>
-      <c r="F274" t="n">
-        <v>3079.248046875</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -7304,10 +7304,10 @@
         <v>0.437252</v>
       </c>
       <c r="E275" t="n">
+        <v>45.61560090702948</v>
+      </c>
+      <c r="F275" t="n">
         <v>0.4450651705265045</v>
-      </c>
-      <c r="F275" t="n">
-        <v>1873.388671875</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -7329,10 +7329,10 @@
         <v>-0.09645480000000001</v>
       </c>
       <c r="E276" t="n">
+        <v>47.49641723356009</v>
+      </c>
+      <c r="F276" t="n">
         <v>0.5460129976272583</v>
-      </c>
-      <c r="F276" t="n">
-        <v>3251.513671875</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -7354,10 +7354,10 @@
         <v>0.4793926</v>
       </c>
       <c r="E277" t="n">
+        <v>50.36408163265306</v>
+      </c>
+      <c r="F277" t="n">
         <v>0.498643159866333</v>
-      </c>
-      <c r="F277" t="n">
-        <v>2993.115234375</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -7379,10 +7379,10 @@
         <v>-0.07884200000000002</v>
       </c>
       <c r="E278" t="n">
+        <v>51.57151927437642</v>
+      </c>
+      <c r="F278" t="n">
         <v>0.2393325716257095</v>
-      </c>
-      <c r="F278" t="n">
-        <v>1012.060546875</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -7404,10 +7404,10 @@
         <v>0.05827700000000001</v>
       </c>
       <c r="E279" t="n">
+        <v>52.51192743764172</v>
+      </c>
+      <c r="F279" t="n">
         <v>0.4518710970878601</v>
-      </c>
-      <c r="F279" t="n">
-        <v>4651.171875</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -7429,10 +7429,10 @@
         <v>-0.3793238</v>
       </c>
       <c r="E280" t="n">
+        <v>54.11410430839003</v>
+      </c>
+      <c r="F280" t="n">
         <v>0.3910621106624603</v>
-      </c>
-      <c r="F280" t="n">
-        <v>2497.8515625</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -7454,10 +7454,10 @@
         <v>-0.04214149999999998</v>
       </c>
       <c r="E281" t="n">
+        <v>55.22866213151927</v>
+      </c>
+      <c r="F281" t="n">
         <v>0.4740928113460541</v>
-      </c>
-      <c r="F281" t="n">
-        <v>3725.244140625</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -7479,10 +7479,10 @@
         <v>0.241006</v>
       </c>
       <c r="E282" t="n">
+        <v>56.56380952380952</v>
+      </c>
+      <c r="F282" t="n">
         <v>0.518409252166748</v>
-      </c>
-      <c r="F282" t="n">
-        <v>3100.78125</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -7504,10 +7504,10 @@
         <v>-0.001470999999999993</v>
       </c>
       <c r="E283" t="n">
+        <v>58.10793650793651</v>
+      </c>
+      <c r="F283" t="n">
         <v>0.2294644415378571</v>
-      </c>
-      <c r="F283" t="n">
-        <v>796.728515625</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -7529,10 +7529,10 @@
         <v>0.357463</v>
       </c>
       <c r="E284" t="n">
+        <v>58.10793650793651</v>
+      </c>
+      <c r="F284" t="n">
         <v>0.6173584461212158</v>
-      </c>
-      <c r="F284" t="n">
-        <v>3294.580078125</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -7554,10 +7554,10 @@
         <v>-0.02092700000000002</v>
       </c>
       <c r="E285" t="n">
+        <v>0.01160997732426304</v>
+      </c>
+      <c r="F285" t="n">
         <v>0.4455823004245758</v>
-      </c>
-      <c r="F285" t="n">
-        <v>5211.03515625</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -7579,10 +7579,10 @@
         <v>0.207687</v>
       </c>
       <c r="E286" t="n">
+        <v>7.87156462585034</v>
+      </c>
+      <c r="F286" t="n">
         <v>0.4441018402576447</v>
-      </c>
-      <c r="F286" t="n">
-        <v>4629.638671875</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -7604,10 +7604,10 @@
         <v>-0.6464930000000001</v>
       </c>
       <c r="E287" t="n">
+        <v>10.49541950113379</v>
+      </c>
+      <c r="F287" t="n">
         <v>0.5523778200149536</v>
-      </c>
-      <c r="F287" t="n">
-        <v>1851.85546875</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -7629,10 +7629,10 @@
         <v>-0.104929</v>
       </c>
       <c r="E288" t="n">
+        <v>11.88861678004535</v>
+      </c>
+      <c r="F288" t="n">
         <v>0.3745413720607758</v>
-      </c>
-      <c r="F288" t="n">
-        <v>4737.3046875</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -7654,10 +7654,10 @@
         <v>-0.3734175</v>
       </c>
       <c r="E289" t="n">
+        <v>14.55891156462585</v>
+      </c>
+      <c r="F289" t="n">
         <v>0.3357652127742767</v>
-      </c>
-      <c r="F289" t="n">
-        <v>473.73046875</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -7679,10 +7679,10 @@
         <v>5.27684</v>
       </c>
       <c r="E290" t="n">
+        <v>14.57052154195011</v>
+      </c>
+      <c r="F290" t="n">
         <v>0.6234560608863831</v>
-      </c>
-      <c r="F290" t="n">
-        <v>2131.787109375</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -7704,10 +7704,10 @@
         <v>-0.01294259999999999</v>
       </c>
       <c r="E291" t="n">
+        <v>18.43664399092971</v>
+      </c>
+      <c r="F291" t="n">
         <v>0.428424745798111</v>
-      </c>
-      <c r="F291" t="n">
-        <v>2454.78515625</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -7729,10 +7729,10 @@
         <v>-0.05826199999999999</v>
       </c>
       <c r="E292" t="n">
+        <v>20.66575963718821</v>
+      </c>
+      <c r="F292" t="n">
         <v>0.4778189063072205</v>
-      </c>
-      <c r="F292" t="n">
-        <v>2368.65234375</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -7754,10 +7754,10 @@
         <v>-0.01409300000000005</v>
       </c>
       <c r="E293" t="n">
+        <v>21.39718820861678</v>
+      </c>
+      <c r="F293" t="n">
         <v>0.3147821128368378</v>
-      </c>
-      <c r="F293" t="n">
-        <v>4457.373046875</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -7779,10 +7779,10 @@
         <v>0.518972</v>
       </c>
       <c r="E294" t="n">
+        <v>27.2021768707483</v>
+      </c>
+      <c r="F294" t="n">
         <v>0.3000274002552032</v>
-      </c>
-      <c r="F294" t="n">
-        <v>5534.033203125</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -7804,10 +7804,10 @@
         <v>0.0005010000000000014</v>
       </c>
       <c r="E295" t="n">
+        <v>29.70993197278911</v>
+      </c>
+      <c r="F295" t="n">
         <v>0.5231661200523376</v>
-      </c>
-      <c r="F295" t="n">
-        <v>2519.384765625</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -7829,10 +7829,10 @@
         <v>-0.9926969999999999</v>
       </c>
       <c r="E296" t="n">
+        <v>30.39492063492063</v>
+      </c>
+      <c r="F296" t="n">
         <v>0.1655763536691666</v>
-      </c>
-      <c r="F296" t="n">
-        <v>839.794921875</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -7854,10 +7854,10 @@
         <v>-0.081201</v>
       </c>
       <c r="E297" t="n">
+        <v>32.49632653061224</v>
+      </c>
+      <c r="F297" t="n">
         <v>0.5504520535469055</v>
-      </c>
-      <c r="F297" t="n">
-        <v>2110.25390625</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -7879,10 +7879,10 @@
         <v>0.0518135</v>
       </c>
       <c r="E298" t="n">
+        <v>32.90267573696145</v>
+      </c>
+      <c r="F298" t="n">
         <v>0.3902859687805176</v>
-      </c>
-      <c r="F298" t="n">
-        <v>5792.431640625</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -7904,10 +7904,10 @@
         <v>0.07470900000000001</v>
       </c>
       <c r="E299" t="n">
+        <v>38.66122448979592</v>
+      </c>
+      <c r="F299" t="n">
         <v>0.398851066827774</v>
-      </c>
-      <c r="F299" t="n">
-        <v>4091.30859375</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -7929,10 +7929,10 @@
         <v>0.0261848</v>
       </c>
       <c r="E300" t="n">
+        <v>56.21551020408163</v>
+      </c>
+      <c r="F300" t="n">
         <v>0.4356667101383209</v>
-      </c>
-      <c r="F300" t="n">
-        <v>796.728515625</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -7954,10 +7954,10 @@
         <v>0.7448790000000001</v>
       </c>
       <c r="E301" t="n">
+        <v>0.09287981859410431</v>
+      </c>
+      <c r="F301" t="n">
         <v>0.2779751121997833</v>
-      </c>
-      <c r="F301" t="n">
-        <v>581.396484375</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -7979,10 +7979,10 @@
         <v>0.819006</v>
       </c>
       <c r="E302" t="n">
+        <v>2.948934240362812</v>
+      </c>
+      <c r="F302" t="n">
         <v>0.3085907995700836</v>
-      </c>
-      <c r="F302" t="n">
-        <v>473.73046875</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -8004,10 +8004,10 @@
         <v>0.190339</v>
       </c>
       <c r="E303" t="n">
+        <v>3.262403628117914</v>
+      </c>
+      <c r="F303" t="n">
         <v>0.5519975423812866</v>
-      </c>
-      <c r="F303" t="n">
-        <v>538.330078125</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -8029,10 +8029,10 @@
         <v>0.4186284</v>
       </c>
       <c r="E304" t="n">
+        <v>6.385487528344671</v>
+      </c>
+      <c r="F304" t="n">
         <v>0.3238067328929901</v>
-      </c>
-      <c r="F304" t="n">
-        <v>538.330078125</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -8054,10 +8054,10 @@
         <v>-0.003697000000000013</v>
       </c>
       <c r="E305" t="n">
+        <v>9.404081632653062</v>
+      </c>
+      <c r="F305" t="n">
         <v>0.2308726161718369</v>
-      </c>
-      <c r="F305" t="n">
-        <v>689.0625</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -8079,10 +8079,10 @@
         <v>0.01480479999999998</v>
       </c>
       <c r="E306" t="n">
+        <v>12.1556462585034</v>
+      </c>
+      <c r="F306" t="n">
         <v>0.2862644493579865</v>
-      </c>
-      <c r="F306" t="n">
-        <v>473.73046875</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -8104,10 +8104,10 @@
         <v>-0.471456</v>
       </c>
       <c r="E307" t="n">
+        <v>15.66185941043084</v>
+      </c>
+      <c r="F307" t="n">
         <v>0.3144614696502686</v>
-      </c>
-      <c r="F307" t="n">
-        <v>473.73046875</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -8129,10 +8129,10 @@
         <v>-0.566244</v>
       </c>
       <c r="E308" t="n">
+        <v>18.90104308390023</v>
+      </c>
+      <c r="F308" t="n">
         <v>0.2780390381813049</v>
-      </c>
-      <c r="F308" t="n">
-        <v>516.796875</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -8154,10 +8154,10 @@
         <v>-0.6696435000000001</v>
       </c>
       <c r="E309" t="n">
+        <v>22.6162358276644</v>
+      </c>
+      <c r="F309" t="n">
         <v>0.2857031226158142</v>
-      </c>
-      <c r="F309" t="n">
-        <v>581.396484375</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -8179,10 +8179,10 @@
         <v>0.544061</v>
       </c>
       <c r="E310" t="n">
+        <v>25.51873015873016</v>
+      </c>
+      <c r="F310" t="n">
         <v>0.4109894931316376</v>
-      </c>
-      <c r="F310" t="n">
-        <v>473.73046875</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -8204,10 +8204,10 @@
         <v>-0.07789200000000002</v>
       </c>
       <c r="E311" t="n">
+        <v>30.278820861678</v>
+      </c>
+      <c r="F311" t="n">
         <v>0.3097386956214905</v>
-      </c>
-      <c r="F311" t="n">
-        <v>495.263671875</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -8229,10 +8229,10 @@
         <v>-0.03646500000000004</v>
       </c>
       <c r="E312" t="n">
+        <v>1.439637188208617</v>
+      </c>
+      <c r="F312" t="n">
         <v>0.347942590713501</v>
-      </c>
-      <c r="F312" t="n">
-        <v>516.796875</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -8254,10 +8254,10 @@
         <v>-0.007914000000000032</v>
       </c>
       <c r="E313" t="n">
+        <v>4.330521541950113</v>
+      </c>
+      <c r="F313" t="n">
         <v>0.3026096522808075</v>
-      </c>
-      <c r="F313" t="n">
-        <v>538.330078125</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -8279,10 +8279,10 @@
         <v>-0.1517585</v>
       </c>
       <c r="E314" t="n">
+        <v>6.942766439909297</v>
+      </c>
+      <c r="F314" t="n">
         <v>0.325267881155014</v>
-      </c>
-      <c r="F314" t="n">
-        <v>559.86328125</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -8304,10 +8304,10 @@
         <v>-1.086493</v>
       </c>
       <c r="E315" t="n">
+        <v>9.914920634920636</v>
+      </c>
+      <c r="F315" t="n">
         <v>0.3674872517585754</v>
-      </c>
-      <c r="F315" t="n">
-        <v>495.263671875</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -8329,10 +8329,10 @@
         <v>0.6160780000000001</v>
       </c>
       <c r="E316" t="n">
+        <v>13.5372335600907</v>
+      </c>
+      <c r="F316" t="n">
         <v>0.3199492394924164</v>
-      </c>
-      <c r="F316" t="n">
-        <v>581.396484375</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -8354,10 +8354,10 @@
         <v>-0.06011999999999999</v>
       </c>
       <c r="E317" t="n">
+        <v>16.31201814058957</v>
+      </c>
+      <c r="F317" t="n">
         <v>0.279223769903183</v>
-      </c>
-      <c r="F317" t="n">
-        <v>581.396484375</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -8379,10 +8379,10 @@
         <v>0.323619</v>
       </c>
       <c r="E318" t="n">
+        <v>19.23773242630385</v>
+      </c>
+      <c r="F318" t="n">
         <v>0.3571340441703796</v>
-      </c>
-      <c r="F318" t="n">
-        <v>495.263671875</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -8404,10 +8404,10 @@
         <v>0.302747</v>
       </c>
       <c r="E319" t="n">
+        <v>22.41886621315193</v>
+      </c>
+      <c r="F319" t="n">
         <v>0.3036279380321503</v>
-      </c>
-      <c r="F319" t="n">
-        <v>538.330078125</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -8429,10 +8429,10 @@
         <v>-0.141752</v>
       </c>
       <c r="E320" t="n">
+        <v>25.95990929705215</v>
+      </c>
+      <c r="F320" t="n">
         <v>0.2828925251960754</v>
-      </c>
-      <c r="F320" t="n">
-        <v>516.796875</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -8454,10 +8454,10 @@
         <v>0.113794</v>
       </c>
       <c r="E321" t="n">
+        <v>28.57215419501134</v>
+      </c>
+      <c r="F321" t="n">
         <v>0.3461067080497742</v>
-      </c>
-      <c r="F321" t="n">
-        <v>495.263671875</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -8479,10 +8479,10 @@
         <v>0.446461</v>
       </c>
       <c r="E322" t="n">
+        <v>32.03192743764173</v>
+      </c>
+      <c r="F322" t="n">
         <v>0.3026132583618164</v>
-      </c>
-      <c r="F322" t="n">
-        <v>538.330078125</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -8504,10 +8504,10 @@
         <v>0.778385</v>
       </c>
       <c r="E323" t="n">
+        <v>34.1449433106576</v>
+      </c>
+      <c r="F323" t="n">
         <v>0.4492773413658142</v>
-      </c>
-      <c r="F323" t="n">
-        <v>279.931640625</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -8529,10 +8529,10 @@
         <v>0.3938574</v>
       </c>
       <c r="E324" t="n">
+        <v>35.398820861678</v>
+      </c>
+      <c r="F324" t="n">
         <v>0.2971603274345398</v>
-      </c>
-      <c r="F324" t="n">
-        <v>559.86328125</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -8554,10 +8554,10 @@
         <v>0.1304285</v>
       </c>
       <c r="E325" t="n">
+        <v>38.04589569160998</v>
+      </c>
+      <c r="F325" t="n">
         <v>0.3888822793960571</v>
-      </c>
-      <c r="F325" t="n">
-        <v>495.263671875</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -8579,10 +8579,10 @@
         <v>-0.08117880000000001</v>
       </c>
       <c r="E326" t="n">
+        <v>41.87718820861678</v>
+      </c>
+      <c r="F326" t="n">
         <v>0.3490855097770691</v>
-      </c>
-      <c r="F326" t="n">
-        <v>452.197265625</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -8604,10 +8604,10 @@
         <v>-0.421693</v>
       </c>
       <c r="E327" t="n">
+        <v>44.59392290249433</v>
+      </c>
+      <c r="F327" t="n">
         <v>0.3239328861236572</v>
-      </c>
-      <c r="F327" t="n">
-        <v>473.73046875</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -8629,10 +8629,10 @@
         <v>-0.119105</v>
       </c>
       <c r="E328" t="n">
+        <v>46.78820861678005</v>
+      </c>
+      <c r="F328" t="n">
         <v>0.3749678730964661</v>
-      </c>
-      <c r="F328" t="n">
-        <v>301.46484375</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -8654,10 +8654,10 @@
         <v>-1.099002</v>
       </c>
       <c r="E329" t="n">
+        <v>49.01732426303855</v>
+      </c>
+      <c r="F329" t="n">
         <v>0.3135745525360107</v>
-      </c>
-      <c r="F329" t="n">
-        <v>516.796875</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -8679,10 +8679,10 @@
         <v>0.2436524</v>
       </c>
       <c r="E330" t="n">
+        <v>52.03591836734694</v>
+      </c>
+      <c r="F330" t="n">
         <v>0.3206560015678406</v>
-      </c>
-      <c r="F330" t="n">
-        <v>516.796875</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
